--- a/static/downloads/production/monthly_production.xlsx
+++ b/static/downloads/production/monthly_production.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldstel\doi-extractives-data\downloads\production\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goldstel\Documents\Current Data NRRD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0E7FFA-DB23-4897-8B79-FDA10CD6866B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CBBE87-337F-4614-B0C1-51C6530F170B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$F$1665</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6630" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6662" uniqueCount="25">
   <si>
     <t>Month</t>
   </si>
@@ -251,7 +251,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,6 +305,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -592,15 +593,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1657"/>
+  <dimension ref="A1:F1665"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1651" sqref="E1651"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -10245,7 +10246,7 @@
         <v>21</v>
       </c>
       <c r="F482" s="14">
-        <v>248400296.794714</v>
+        <v>248400297</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10265,7 +10266,7 @@
         <v>9</v>
       </c>
       <c r="F483" s="16">
-        <v>42599201.986758001</v>
+        <v>42599202</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10285,7 +10286,7 @@
         <v>24</v>
       </c>
       <c r="F484" s="16">
-        <v>39826705.999980003</v>
+        <v>39826706</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10305,7 +10306,7 @@
         <v>21</v>
       </c>
       <c r="F485" s="16">
-        <v>312654698.8853631</v>
+        <v>312654699</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10325,7 +10326,7 @@
         <v>9</v>
       </c>
       <c r="F486" s="16">
-        <v>8219440.6167169968</v>
+        <v>8219441</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10365,7 +10366,7 @@
         <v>21</v>
       </c>
       <c r="F488" s="16">
-        <v>24637392.518324003</v>
+        <v>24637343</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10385,7 +10386,7 @@
         <v>9</v>
       </c>
       <c r="F489" s="16">
-        <v>949729.36659900006</v>
+        <v>949715</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10405,7 +10406,7 @@
         <v>21</v>
       </c>
       <c r="F490" s="16">
-        <v>235770383.19771698</v>
+        <v>235770383</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10425,7 +10426,7 @@
         <v>9</v>
       </c>
       <c r="F491" s="16">
-        <v>40956063.140620001</v>
+        <v>40956063</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10445,7 +10446,7 @@
         <v>24</v>
       </c>
       <c r="F492" s="16">
-        <v>39722690.000000007</v>
+        <v>39722690</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10465,7 +10466,7 @@
         <v>21</v>
       </c>
       <c r="F493" s="16">
-        <v>295532121.740623</v>
+        <v>295532122</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10485,7 +10486,7 @@
         <v>9</v>
       </c>
       <c r="F494" s="16">
-        <v>7770759.0807189997</v>
+        <v>7770759</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10525,7 +10526,7 @@
         <v>21</v>
       </c>
       <c r="F496" s="16">
-        <v>23269872.420374993</v>
+        <v>23269820</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10545,7 +10546,7 @@
         <v>9</v>
       </c>
       <c r="F497" s="16">
-        <v>889673.31711099995</v>
+        <v>889645</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10565,7 +10566,7 @@
         <v>21</v>
       </c>
       <c r="F498" s="16">
-        <v>247177565.02578101</v>
+        <v>247177565</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10585,7 +10586,7 @@
         <v>9</v>
       </c>
       <c r="F499" s="16">
-        <v>42822573.133196004</v>
+        <v>42822573</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10605,7 +10606,7 @@
         <v>24</v>
       </c>
       <c r="F500" s="16">
-        <v>40804536.000020005</v>
+        <v>40804536</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10625,7 +10626,7 @@
         <v>21</v>
       </c>
       <c r="F501" s="16">
-        <v>330400806.36200309</v>
+        <v>330400806</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10645,7 +10646,7 @@
         <v>9</v>
       </c>
       <c r="F502" s="16">
-        <v>8444689.2991330009</v>
+        <v>8444689</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10685,7 +10686,7 @@
         <v>21</v>
       </c>
       <c r="F504" s="16">
-        <v>25869768.355800997</v>
+        <v>25869740</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10705,7 +10706,7 @@
         <v>9</v>
       </c>
       <c r="F505" s="16">
-        <v>978417.38191900006</v>
+        <v>978390</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10725,7 +10726,7 @@
         <v>21</v>
       </c>
       <c r="F506" s="16">
-        <v>216495712.579584</v>
+        <v>216495713</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10745,7 +10746,7 @@
         <v>9</v>
       </c>
       <c r="F507" s="16">
-        <v>41467616.603544004</v>
+        <v>41467617</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10785,7 +10786,7 @@
         <v>21</v>
       </c>
       <c r="F509" s="16">
-        <v>320367442.05652201</v>
+        <v>320367442</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10805,7 +10806,7 @@
         <v>9</v>
       </c>
       <c r="F510" s="16">
-        <v>8202435.9980829982</v>
+        <v>8202436</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10845,7 +10846,7 @@
         <v>21</v>
       </c>
       <c r="F512" s="16">
-        <v>24926987.393812001</v>
+        <v>24926960</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10865,7 +10866,7 @@
         <v>9</v>
       </c>
       <c r="F513" s="16">
-        <v>969526.35174900002</v>
+        <v>969500</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10885,7 +10886,7 @@
         <v>21</v>
       </c>
       <c r="F514" s="16">
-        <v>215807068.58096698</v>
+        <v>215807069</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10905,7 +10906,7 @@
         <v>9</v>
       </c>
       <c r="F515" s="16">
-        <v>42482210.892193004</v>
+        <v>42482211</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10925,7 +10926,7 @@
         <v>24</v>
       </c>
       <c r="F516" s="16">
-        <v>39398953.000050008</v>
+        <v>39398953</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10945,7 +10946,7 @@
         <v>21</v>
       </c>
       <c r="F517" s="16">
-        <v>328690562.10822397</v>
+        <v>328690562</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -10965,7 +10966,7 @@
         <v>9</v>
       </c>
       <c r="F518" s="16">
-        <v>8414875.5790180005</v>
+        <v>8414876</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11005,7 +11006,7 @@
         <v>21</v>
       </c>
       <c r="F520" s="16">
-        <v>25782061.664315</v>
+        <v>25781996</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11025,7 +11026,7 @@
         <v>9</v>
       </c>
       <c r="F521" s="16">
-        <v>988233.63503999996</v>
+        <v>988208</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11045,7 +11046,7 @@
         <v>21</v>
       </c>
       <c r="F522" s="16">
-        <v>227376555.05659801</v>
+        <v>227376555</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11065,7 +11066,7 @@
         <v>9</v>
       </c>
       <c r="F523" s="16">
-        <v>42239693.663075998</v>
+        <v>42239694</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11105,7 +11106,7 @@
         <v>21</v>
       </c>
       <c r="F525" s="16">
-        <v>318553647.81567425</v>
+        <v>318553648</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11125,7 +11126,7 @@
         <v>9</v>
       </c>
       <c r="F526" s="16">
-        <v>8120893.1554509988</v>
+        <v>8120893</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11165,7 +11166,7 @@
         <v>21</v>
       </c>
       <c r="F528" s="16">
-        <v>24926540.194943</v>
+        <v>24926462</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11185,7 +11186,7 @@
         <v>9</v>
       </c>
       <c r="F529" s="16">
-        <v>931760.04459900002</v>
+        <v>931733</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11205,7 +11206,7 @@
         <v>21</v>
       </c>
       <c r="F530" s="16">
-        <v>238394831.525783</v>
+        <v>238394832</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11225,7 +11226,7 @@
         <v>9</v>
       </c>
       <c r="F531" s="16">
-        <v>44763308.778232001</v>
+        <v>44763309</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11245,7 +11246,7 @@
         <v>24</v>
       </c>
       <c r="F532" s="16">
-        <v>39415274.000009999</v>
+        <v>39415274</v>
       </c>
     </row>
     <row r="533" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11265,7 +11266,7 @@
         <v>21</v>
       </c>
       <c r="F533" s="16">
-        <v>333959520.300286</v>
+        <v>333959520</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11285,7 +11286,7 @@
         <v>9</v>
       </c>
       <c r="F534" s="16">
-        <v>8374056.4671689998</v>
+        <v>8374056</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11325,7 +11326,7 @@
         <v>21</v>
       </c>
       <c r="F536" s="16">
-        <v>26046688.506083</v>
+        <v>26046628</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11345,7 +11346,7 @@
         <v>9</v>
       </c>
       <c r="F537" s="16">
-        <v>982150.74128200009</v>
+        <v>982124</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11365,7 +11366,7 @@
         <v>21</v>
       </c>
       <c r="F538" s="16">
-        <v>219812953.70120201</v>
+        <v>219812954</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11385,7 +11386,7 @@
         <v>9</v>
       </c>
       <c r="F539" s="16">
-        <v>41923938.152732</v>
+        <v>41923938</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11405,7 +11406,7 @@
         <v>24</v>
       </c>
       <c r="F540" s="16">
-        <v>42988013.999970004</v>
+        <v>42988014</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11425,7 +11426,7 @@
         <v>21</v>
       </c>
       <c r="F541" s="16">
-        <v>333045467.28663707</v>
+        <v>333045467</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11445,7 +11446,7 @@
         <v>9</v>
       </c>
       <c r="F542" s="16">
-        <v>8400494.996092001</v>
+        <v>8400495</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11485,7 +11486,7 @@
         <v>21</v>
       </c>
       <c r="F544" s="16">
-        <v>25588500.237962</v>
+        <v>25588407</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11505,7 +11506,7 @@
         <v>9</v>
       </c>
       <c r="F545" s="16">
-        <v>995867.20119499986</v>
+        <v>995841</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11525,7 +11526,7 @@
         <v>21</v>
       </c>
       <c r="F546" s="16">
-        <v>69647740.126715004</v>
+        <v>69647740</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11545,7 +11546,7 @@
         <v>9</v>
       </c>
       <c r="F547" s="16">
-        <v>9577186.7572259996</v>
+        <v>9577187</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11565,7 +11566,7 @@
         <v>24</v>
       </c>
       <c r="F548" s="16">
-        <v>40421871.000040002</v>
+        <v>40421871</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11585,7 +11586,7 @@
         <v>21</v>
       </c>
       <c r="F549" s="16">
-        <v>307721415.86068785</v>
+        <v>307721416</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11605,7 +11606,7 @@
         <v>9</v>
       </c>
       <c r="F550" s="16">
-        <v>7986255.4116570046</v>
+        <v>7986255</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11645,7 +11646,7 @@
         <v>21</v>
       </c>
       <c r="F552" s="16">
-        <v>24929263.669407997</v>
+        <v>24929171</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11665,7 +11666,7 @@
         <v>9</v>
       </c>
       <c r="F553" s="16">
-        <v>982840.11249400023</v>
+        <v>982814</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11685,7 +11686,7 @@
         <v>21</v>
       </c>
       <c r="F554" s="16">
-        <v>141790529.76397699</v>
+        <v>141790530</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11705,7 +11706,7 @@
         <v>9</v>
       </c>
       <c r="F555" s="16">
-        <v>27181924.174651001</v>
+        <v>27181924</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11725,7 +11726,7 @@
         <v>24</v>
       </c>
       <c r="F556" s="16">
-        <v>45051205.999996997</v>
+        <v>45051206</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11745,7 +11746,7 @@
         <v>21</v>
       </c>
       <c r="F557" s="16">
-        <v>335793721.81395394</v>
+        <v>335793722</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11765,7 +11766,7 @@
         <v>9</v>
       </c>
       <c r="F558" s="16">
-        <v>8634008.337989999</v>
+        <v>8634008</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11805,7 +11806,7 @@
         <v>21</v>
       </c>
       <c r="F560" s="16">
-        <v>25749186.397967998</v>
+        <v>25749116</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11825,7 +11826,7 @@
         <v>9</v>
       </c>
       <c r="F561" s="16">
-        <v>1040903.4296140001</v>
+        <v>1040889</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11845,7 +11846,7 @@
         <v>21</v>
       </c>
       <c r="F562" s="16">
-        <v>165603446.14967698</v>
+        <v>165603446</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11865,7 +11866,7 @@
         <v>9</v>
       </c>
       <c r="F563" s="16">
-        <v>34892543.226287</v>
+        <v>34892543</v>
       </c>
     </row>
     <row r="564" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11885,7 +11886,7 @@
         <v>24</v>
       </c>
       <c r="F564" s="16">
-        <v>42442150.000032</v>
+        <v>42442150</v>
       </c>
     </row>
     <row r="565" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11905,7 +11906,7 @@
         <v>21</v>
       </c>
       <c r="F565" s="16">
-        <v>333838090.67862701</v>
+        <v>333838091</v>
       </c>
     </row>
     <row r="566" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11925,7 +11926,7 @@
         <v>9</v>
       </c>
       <c r="F566" s="16">
-        <v>8512350.990952</v>
+        <v>8512351</v>
       </c>
     </row>
     <row r="567" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11965,7 +11966,7 @@
         <v>21</v>
       </c>
       <c r="F568" s="16">
-        <v>24890411.257656001</v>
+        <v>24890371</v>
       </c>
     </row>
     <row r="569" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -11985,7 +11986,7 @@
         <v>9</v>
       </c>
       <c r="F569" s="16">
-        <v>1006856.6444110001</v>
+        <v>1006843</v>
       </c>
     </row>
     <row r="570" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12005,7 +12006,7 @@
         <v>21</v>
       </c>
       <c r="F570" s="16">
-        <v>182831320.34331</v>
+        <v>182831320</v>
       </c>
     </row>
     <row r="571" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12025,7 +12026,7 @@
         <v>9</v>
       </c>
       <c r="F571" s="16">
-        <v>39381348.129156999</v>
+        <v>39381348</v>
       </c>
     </row>
     <row r="572" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12045,7 +12046,7 @@
         <v>24</v>
       </c>
       <c r="F572" s="16">
-        <v>39493993.999980003</v>
+        <v>39493994</v>
       </c>
     </row>
     <row r="573" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12065,7 +12066,7 @@
         <v>21</v>
       </c>
       <c r="F573" s="16">
-        <v>339551276.15419203</v>
+        <v>339551276</v>
       </c>
     </row>
     <row r="574" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12085,7 +12086,7 @@
         <v>9</v>
       </c>
       <c r="F574" s="16">
-        <v>8616498.6482299995</v>
+        <v>8616499</v>
       </c>
     </row>
     <row r="575" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12125,7 +12126,7 @@
         <v>21</v>
       </c>
       <c r="F576" s="16">
-        <v>24914074.498278998</v>
+        <v>24914016</v>
       </c>
     </row>
     <row r="577" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12145,7 +12146,7 @@
         <v>9</v>
       </c>
       <c r="F577" s="16">
-        <v>1008216.4820320001</v>
+        <v>1008190</v>
       </c>
     </row>
     <row r="578" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12165,7 +12166,7 @@
         <v>21</v>
       </c>
       <c r="F578" s="16">
-        <v>203532279.17245102</v>
+        <v>203532279</v>
       </c>
     </row>
     <row r="579" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12185,7 +12186,7 @@
         <v>9</v>
       </c>
       <c r="F579" s="16">
-        <v>41968432.089084998</v>
+        <v>41968432</v>
       </c>
     </row>
     <row r="580" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12205,7 +12206,7 @@
         <v>24</v>
       </c>
       <c r="F580" s="16">
-        <v>40936176.999949999</v>
+        <v>40936177</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12225,7 +12226,7 @@
         <v>21</v>
       </c>
       <c r="F581" s="16">
-        <v>344854113.96498495</v>
+        <v>344854114</v>
       </c>
     </row>
     <row r="582" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12245,7 +12246,7 @@
         <v>9</v>
       </c>
       <c r="F582" s="16">
-        <v>8742482.5633890033</v>
+        <v>8742483</v>
       </c>
     </row>
     <row r="583" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12285,7 +12286,7 @@
         <v>21</v>
       </c>
       <c r="F584" s="16">
-        <v>24814364.15507099</v>
+        <v>24814271</v>
       </c>
     </row>
     <row r="585" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12305,7 +12306,7 @@
         <v>9</v>
       </c>
       <c r="F585" s="16">
-        <v>991103.17793200014</v>
+        <v>991089</v>
       </c>
     </row>
     <row r="586" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12325,7 +12326,7 @@
         <v>21</v>
       </c>
       <c r="F586" s="16">
-        <v>191727943.962695</v>
+        <v>191727944</v>
       </c>
     </row>
     <row r="587" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12345,7 +12346,7 @@
         <v>9</v>
       </c>
       <c r="F587" s="16">
-        <v>39008617.538023002</v>
+        <v>39008618</v>
       </c>
     </row>
     <row r="588" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12365,7 +12366,7 @@
         <v>24</v>
       </c>
       <c r="F588" s="16">
-        <v>38145606.000009999</v>
+        <v>38145606</v>
       </c>
     </row>
     <row r="589" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12385,7 +12386,7 @@
         <v>21</v>
       </c>
       <c r="F589" s="16">
-        <v>317367230.60731202</v>
+        <v>317367231</v>
       </c>
     </row>
     <row r="590" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12405,7 +12406,7 @@
         <v>9</v>
       </c>
       <c r="F590" s="16">
-        <v>8019790.9773189984</v>
+        <v>8019791</v>
       </c>
     </row>
     <row r="591" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12445,7 +12446,7 @@
         <v>21</v>
       </c>
       <c r="F592" s="16">
-        <v>23261844.986893997</v>
+        <v>23261731</v>
       </c>
     </row>
     <row r="593" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12465,7 +12466,7 @@
         <v>9</v>
       </c>
       <c r="F593" s="16">
-        <v>927027.66704799992</v>
+        <v>926999</v>
       </c>
     </row>
     <row r="594" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12485,7 +12486,7 @@
         <v>21</v>
       </c>
       <c r="F594" s="16">
-        <v>213188631.13678402</v>
+        <v>213188631</v>
       </c>
     </row>
     <row r="595" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12505,7 +12506,7 @@
         <v>9</v>
       </c>
       <c r="F595" s="16">
-        <v>43423086.086228997</v>
+        <v>43423086</v>
       </c>
     </row>
     <row r="596" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12525,7 +12526,7 @@
         <v>24</v>
       </c>
       <c r="F596" s="16">
-        <v>38238166.999995999</v>
+        <v>38238167</v>
       </c>
     </row>
     <row r="597" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12545,7 +12546,7 @@
         <v>21</v>
       </c>
       <c r="F597" s="16">
-        <v>348486090.28114396</v>
+        <v>348486090</v>
       </c>
     </row>
     <row r="598" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12565,7 +12566,7 @@
         <v>9</v>
       </c>
       <c r="F598" s="16">
-        <v>8754748.932715999</v>
+        <v>8754749</v>
       </c>
     </row>
     <row r="599" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12605,7 +12606,7 @@
         <v>21</v>
       </c>
       <c r="F600" s="16">
-        <v>25595627.425776005</v>
+        <v>25595499</v>
       </c>
     </row>
     <row r="601" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12625,7 +12626,7 @@
         <v>9</v>
       </c>
       <c r="F601" s="16">
-        <v>998758.50970800011</v>
+        <v>998747</v>
       </c>
     </row>
     <row r="602" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12645,7 +12646,7 @@
         <v>21</v>
       </c>
       <c r="F602" s="16">
-        <v>207718686.840525</v>
+        <v>207718687</v>
       </c>
     </row>
     <row r="603" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12665,7 +12666,7 @@
         <v>9</v>
       </c>
       <c r="F603" s="16">
-        <v>46005495.341853999</v>
+        <v>46005495</v>
       </c>
     </row>
     <row r="604" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12685,7 +12686,7 @@
         <v>24</v>
       </c>
       <c r="F604" s="16">
-        <v>33485662.000050001</v>
+        <v>33485662</v>
       </c>
     </row>
     <row r="605" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12705,7 +12706,7 @@
         <v>21</v>
       </c>
       <c r="F605" s="16">
-        <v>331685699.34979188</v>
+        <v>331685699</v>
       </c>
     </row>
     <row r="606" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12725,7 +12726,7 @@
         <v>9</v>
       </c>
       <c r="F606" s="16">
-        <v>8438302.9816600028</v>
+        <v>8438303</v>
       </c>
     </row>
     <row r="607" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12765,7 +12766,7 @@
         <v>21</v>
       </c>
       <c r="F608" s="16">
-        <v>24527956.467765998</v>
+        <v>24527857</v>
       </c>
     </row>
     <row r="609" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12785,7 +12786,7 @@
         <v>9</v>
       </c>
       <c r="F609" s="16">
-        <v>961710.6207020001</v>
+        <v>961670</v>
       </c>
     </row>
     <row r="610" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12805,7 +12806,7 @@
         <v>21</v>
       </c>
       <c r="F610" s="16">
-        <v>211512188.710172</v>
+        <v>211512189</v>
       </c>
     </row>
     <row r="611" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12825,7 +12826,7 @@
         <v>9</v>
       </c>
       <c r="F611" s="16">
-        <v>50180148.764361002</v>
+        <v>50180149</v>
       </c>
     </row>
     <row r="612" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12845,7 +12846,7 @@
         <v>24</v>
       </c>
       <c r="F612" s="16">
-        <v>35278769.999949999</v>
+        <v>35278770</v>
       </c>
     </row>
     <row r="613" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12865,7 +12866,7 @@
         <v>21</v>
       </c>
       <c r="F613" s="16">
-        <v>338826910.5062871</v>
+        <v>338826911</v>
       </c>
     </row>
     <row r="614" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12885,7 +12886,7 @@
         <v>9</v>
       </c>
       <c r="F614" s="16">
-        <v>8678490.7225939985</v>
+        <v>8678491</v>
       </c>
     </row>
     <row r="615" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12925,7 +12926,7 @@
         <v>21</v>
       </c>
       <c r="F616" s="16">
-        <v>25113351.976805009</v>
+        <v>25113198</v>
       </c>
     </row>
     <row r="617" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12945,7 +12946,7 @@
         <v>9</v>
       </c>
       <c r="F617" s="16">
-        <v>996833.42073499993</v>
+        <v>996805</v>
       </c>
     </row>
     <row r="618" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12965,7 +12966,7 @@
         <v>21</v>
       </c>
       <c r="F618" s="16">
-        <v>217496773.74729699</v>
+        <v>217496774</v>
       </c>
     </row>
     <row r="619" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -12985,7 +12986,7 @@
         <v>9</v>
       </c>
       <c r="F619" s="16">
-        <v>48907993.657539003</v>
+        <v>48907994</v>
       </c>
     </row>
     <row r="620" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13005,7 +13006,7 @@
         <v>24</v>
       </c>
       <c r="F620" s="16">
-        <v>32689882.999999996</v>
+        <v>32689883</v>
       </c>
     </row>
     <row r="621" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13025,7 +13026,7 @@
         <v>21</v>
       </c>
       <c r="F621" s="16">
-        <v>324432794.70295793</v>
+        <v>324432795</v>
       </c>
     </row>
     <row r="622" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13045,7 +13046,7 @@
         <v>9</v>
       </c>
       <c r="F622" s="16">
-        <v>8386646.3505669972</v>
+        <v>8386646</v>
       </c>
     </row>
     <row r="623" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13085,7 +13086,7 @@
         <v>21</v>
       </c>
       <c r="F624" s="16">
-        <v>23403674.959045004</v>
+        <v>23403576</v>
       </c>
     </row>
     <row r="625" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13105,7 +13106,7 @@
         <v>9</v>
       </c>
       <c r="F625" s="16">
-        <v>959037.29153399996</v>
+        <v>959008</v>
       </c>
     </row>
     <row r="626" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13125,7 +13126,7 @@
         <v>21</v>
       </c>
       <c r="F626" s="16">
-        <v>230755180.132635</v>
+        <v>230755180</v>
       </c>
     </row>
     <row r="627" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13145,7 +13146,7 @@
         <v>9</v>
       </c>
       <c r="F627" s="16">
-        <v>55925638.652387001</v>
+        <v>55925639</v>
       </c>
     </row>
     <row r="628" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13165,7 +13166,7 @@
         <v>24</v>
       </c>
       <c r="F628" s="16">
-        <v>38422435.999994002</v>
+        <v>38422436</v>
       </c>
     </row>
     <row r="629" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13185,7 +13186,7 @@
         <v>21</v>
       </c>
       <c r="F629" s="16">
-        <v>319845175.649432</v>
+        <v>319845176</v>
       </c>
     </row>
     <row r="630" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13205,7 +13206,7 @@
         <v>9</v>
       </c>
       <c r="F630" s="16">
-        <v>8499918.8298090007</v>
+        <v>8499919</v>
       </c>
     </row>
     <row r="631" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13245,7 +13246,7 @@
         <v>21</v>
       </c>
       <c r="F632" s="16">
-        <v>25111605.220773</v>
+        <v>25111507</v>
       </c>
     </row>
     <row r="633" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13265,7 +13266,7 @@
         <v>9</v>
       </c>
       <c r="F633" s="16">
-        <v>987910.77365100011</v>
+        <v>987884</v>
       </c>
     </row>
     <row r="634" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13285,7 +13286,7 @@
         <v>21</v>
       </c>
       <c r="F634" s="16">
-        <v>217092120.53165701</v>
+        <v>217092121</v>
       </c>
     </row>
     <row r="635" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13305,7 +13306,7 @@
         <v>9</v>
       </c>
       <c r="F635" s="16">
-        <v>55884224.304353997</v>
+        <v>55884224</v>
       </c>
     </row>
     <row r="636" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13325,7 +13326,7 @@
         <v>24</v>
       </c>
       <c r="F636" s="16">
-        <v>39778093.000009991</v>
+        <v>39778093</v>
       </c>
     </row>
     <row r="637" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13345,7 +13346,7 @@
         <v>21</v>
       </c>
       <c r="F637" s="16">
-        <v>331218133.37905407</v>
+        <v>331218133</v>
       </c>
     </row>
     <row r="638" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13365,7 +13366,7 @@
         <v>9</v>
       </c>
       <c r="F638" s="16">
-        <v>8553672.6186829973</v>
+        <v>8553673</v>
       </c>
     </row>
     <row r="639" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13405,7 +13406,7 @@
         <v>21</v>
       </c>
       <c r="F640" s="16">
-        <v>25137020.181115001</v>
+        <v>25136934</v>
       </c>
     </row>
     <row r="641" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13425,7 +13426,7 @@
         <v>9</v>
       </c>
       <c r="F641" s="16">
-        <v>1005405.877919</v>
+        <v>1005377</v>
       </c>
     </row>
     <row r="642" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13445,7 +13446,7 @@
         <v>21</v>
       </c>
       <c r="F642" s="16">
-        <v>206471069.66698802</v>
+        <v>206471070</v>
       </c>
     </row>
     <row r="643" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13465,7 +13466,7 @@
         <v>9</v>
       </c>
       <c r="F643" s="16">
-        <v>54473595.500056006</v>
+        <v>54473596</v>
       </c>
     </row>
     <row r="644" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13485,7 +13486,7 @@
         <v>24</v>
       </c>
       <c r="F644" s="16">
-        <v>39392564.000020005</v>
+        <v>39392564</v>
       </c>
     </row>
     <row r="645" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13505,7 +13506,7 @@
         <v>21</v>
       </c>
       <c r="F645" s="16">
-        <v>309650985.77512002</v>
+        <v>309650986</v>
       </c>
     </row>
     <row r="646" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13525,7 +13526,7 @@
         <v>9</v>
       </c>
       <c r="F646" s="16">
-        <v>8357182.2281190017</v>
+        <v>8357182</v>
       </c>
     </row>
     <row r="647" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13565,7 +13566,7 @@
         <v>21</v>
       </c>
       <c r="F648" s="16">
-        <v>23774673.463229999</v>
+        <v>23774594</v>
       </c>
     </row>
     <row r="649" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13585,7 +13586,7 @@
         <v>9</v>
       </c>
       <c r="F649" s="16">
-        <v>1007136.0010540003</v>
+        <v>1007109</v>
       </c>
     </row>
     <row r="650" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13605,7 +13606,7 @@
         <v>21</v>
       </c>
       <c r="F650" s="16">
-        <v>215060894.32157099</v>
+        <v>215060894</v>
       </c>
     </row>
     <row r="651" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13625,7 +13626,7 @@
         <v>9</v>
       </c>
       <c r="F651" s="16">
-        <v>55599926.598296002</v>
+        <v>55599927</v>
       </c>
     </row>
     <row r="652" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13645,7 +13646,7 @@
         <v>24</v>
       </c>
       <c r="F652" s="16">
-        <v>38081263.000004999</v>
+        <v>38081263</v>
       </c>
     </row>
     <row r="653" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13665,7 +13666,7 @@
         <v>21</v>
       </c>
       <c r="F653" s="16">
-        <v>337865820.88858503</v>
+        <v>337865821</v>
       </c>
     </row>
     <row r="654" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13685,7 +13686,7 @@
         <v>9</v>
       </c>
       <c r="F654" s="16">
-        <v>8699343.9535460006</v>
+        <v>8699344</v>
       </c>
     </row>
     <row r="655" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13725,7 +13726,7 @@
         <v>21</v>
       </c>
       <c r="F656" s="16">
-        <v>24526007.144199997</v>
+        <v>24525915</v>
       </c>
     </row>
     <row r="657" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13745,7 +13746,7 @@
         <v>9</v>
       </c>
       <c r="F657" s="16">
-        <v>1091647.608735</v>
+        <v>1091620</v>
       </c>
     </row>
     <row r="658" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13765,7 +13766,7 @@
         <v>21</v>
       </c>
       <c r="F658" s="16">
-        <v>200143475.402051</v>
+        <v>200143475</v>
       </c>
     </row>
     <row r="659" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13785,7 +13786,7 @@
         <v>9</v>
       </c>
       <c r="F659" s="16">
-        <v>48909581.196425997</v>
+        <v>48909581</v>
       </c>
     </row>
     <row r="660" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13825,7 +13826,7 @@
         <v>21</v>
       </c>
       <c r="F661" s="16">
-        <v>333983359.96046805</v>
+        <v>333983360</v>
       </c>
     </row>
     <row r="662" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13845,7 +13846,7 @@
         <v>9</v>
       </c>
       <c r="F662" s="16">
-        <v>8582084.6072649956</v>
+        <v>8582085</v>
       </c>
     </row>
     <row r="663" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13885,7 +13886,7 @@
         <v>21</v>
       </c>
       <c r="F664" s="16">
-        <v>23547474.219025001</v>
+        <v>23547381</v>
       </c>
     </row>
     <row r="665" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13905,7 +13906,7 @@
         <v>9</v>
       </c>
       <c r="F665" s="16">
-        <v>1035685.9317059999</v>
+        <v>1035658</v>
       </c>
     </row>
     <row r="666" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13925,7 +13926,7 @@
         <v>21</v>
       </c>
       <c r="F666" s="16">
-        <v>207337255.76119</v>
+        <v>207337256</v>
       </c>
     </row>
     <row r="667" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13945,7 +13946,7 @@
         <v>9</v>
       </c>
       <c r="F667" s="16">
-        <v>54068445.496104002</v>
+        <v>54068445</v>
       </c>
     </row>
     <row r="668" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13965,7 +13966,7 @@
         <v>24</v>
       </c>
       <c r="F668" s="16">
-        <v>36374086.000004001</v>
+        <v>36374086</v>
       </c>
     </row>
     <row r="669" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -13985,7 +13986,7 @@
         <v>21</v>
       </c>
       <c r="F669" s="16">
-        <v>335526295.20956504</v>
+        <v>335526295</v>
       </c>
     </row>
     <row r="670" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14005,7 +14006,7 @@
         <v>9</v>
       </c>
       <c r="F670" s="16">
-        <v>8648485.6470250003</v>
+        <v>8648486</v>
       </c>
     </row>
     <row r="671" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14045,7 +14046,7 @@
         <v>21</v>
       </c>
       <c r="F672" s="16">
-        <v>23297738.225134995</v>
+        <v>23297647</v>
       </c>
     </row>
     <row r="673" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14065,7 +14066,7 @@
         <v>9</v>
       </c>
       <c r="F673" s="16">
-        <v>1034155.0573359999</v>
+        <v>1034126</v>
       </c>
     </row>
     <row r="674" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14085,7 +14086,7 @@
         <v>21</v>
       </c>
       <c r="F674" s="16">
-        <v>210355483.304683</v>
+        <v>210355483</v>
       </c>
     </row>
     <row r="675" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14105,7 +14106,7 @@
         <v>9</v>
       </c>
       <c r="F675" s="16">
-        <v>53333353.435791999</v>
+        <v>53333353</v>
       </c>
     </row>
     <row r="676" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14125,7 +14126,7 @@
         <v>24</v>
       </c>
       <c r="F676" s="16">
-        <v>37385869.999970995</v>
+        <v>37385870</v>
       </c>
     </row>
     <row r="677" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14145,7 +14146,7 @@
         <v>21</v>
       </c>
       <c r="F677" s="16">
-        <v>335533576.95441991</v>
+        <v>335533577</v>
       </c>
     </row>
     <row r="678" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14165,7 +14166,7 @@
         <v>9</v>
       </c>
       <c r="F678" s="16">
-        <v>8663827.9188600015</v>
+        <v>8663828</v>
       </c>
     </row>
     <row r="679" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14205,7 +14206,7 @@
         <v>21</v>
       </c>
       <c r="F680" s="16">
-        <v>23516749.994767997</v>
+        <v>23516664</v>
       </c>
     </row>
     <row r="681" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14225,7 +14226,7 @@
         <v>9</v>
       </c>
       <c r="F681" s="16">
-        <v>1033787.7927150001</v>
+        <v>1033758</v>
       </c>
     </row>
     <row r="682" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14245,7 +14246,7 @@
         <v>21</v>
       </c>
       <c r="F682" s="16">
-        <v>195164307.439403</v>
+        <v>195164307</v>
       </c>
     </row>
     <row r="683" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14265,7 +14266,7 @@
         <v>9</v>
       </c>
       <c r="F683" s="16">
-        <v>49713901.445849001</v>
+        <v>49713901</v>
       </c>
     </row>
     <row r="684" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14285,7 +14286,7 @@
         <v>24</v>
       </c>
       <c r="F684" s="16">
-        <v>36431297.000004999</v>
+        <v>36431297</v>
       </c>
     </row>
     <row r="685" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14305,7 +14306,7 @@
         <v>21</v>
       </c>
       <c r="F685" s="16">
-        <v>302938734.40716797</v>
+        <v>302938734</v>
       </c>
     </row>
     <row r="686" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14325,7 +14326,7 @@
         <v>9</v>
       </c>
       <c r="F686" s="16">
-        <v>8035085.5297900001</v>
+        <v>8035086</v>
       </c>
     </row>
     <row r="687" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14365,7 +14366,7 @@
         <v>21</v>
       </c>
       <c r="F688" s="16">
-        <v>21555095.810320005</v>
+        <v>21555004</v>
       </c>
     </row>
     <row r="689" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14385,7 +14386,7 @@
         <v>9</v>
       </c>
       <c r="F689" s="16">
-        <v>1009014.565007</v>
+        <v>1008984</v>
       </c>
     </row>
     <row r="690" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14405,7 +14406,7 @@
         <v>21</v>
       </c>
       <c r="F690" s="16">
-        <v>217129273.02865201</v>
+        <v>217129273</v>
       </c>
     </row>
     <row r="691" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14425,7 +14426,7 @@
         <v>9</v>
       </c>
       <c r="F691" s="16">
-        <v>51699886.403338999</v>
+        <v>51699886</v>
       </c>
     </row>
     <row r="692" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14445,7 +14446,7 @@
         <v>24</v>
       </c>
       <c r="F692" s="16">
-        <v>39182647.999989994</v>
+        <v>39182648</v>
       </c>
     </row>
     <row r="693" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14465,7 +14466,7 @@
         <v>21</v>
       </c>
       <c r="F693" s="16">
-        <v>336244885.26592809</v>
+        <v>336244885</v>
       </c>
     </row>
     <row r="694" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14485,7 +14486,7 @@
         <v>9</v>
       </c>
       <c r="F694" s="16">
-        <v>9114956.2611129973</v>
+        <v>9114956</v>
       </c>
     </row>
     <row r="695" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14525,7 +14526,7 @@
         <v>21</v>
       </c>
       <c r="F696" s="16">
-        <v>24142822.589109004</v>
+        <v>24142747</v>
       </c>
     </row>
     <row r="697" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14545,7 +14546,7 @@
         <v>9</v>
       </c>
       <c r="F697" s="16">
-        <v>1215660.4739909999</v>
+        <v>1215633</v>
       </c>
     </row>
     <row r="698" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14565,7 +14566,7 @@
         <v>21</v>
       </c>
       <c r="F698" s="16">
-        <v>200962353.24493501</v>
+        <v>200962353</v>
       </c>
     </row>
     <row r="699" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14585,7 +14586,7 @@
         <v>9</v>
       </c>
       <c r="F699" s="16">
-        <v>46376149.711642995</v>
+        <v>46376150</v>
       </c>
     </row>
     <row r="700" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14605,7 +14606,7 @@
         <v>24</v>
       </c>
       <c r="F700" s="16">
-        <v>37425070.999959998</v>
+        <v>37425071</v>
       </c>
     </row>
     <row r="701" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14625,7 +14626,7 @@
         <v>21</v>
       </c>
       <c r="F701" s="16">
-        <v>327629660.5288201</v>
+        <v>327629661</v>
       </c>
     </row>
     <row r="702" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14645,7 +14646,7 @@
         <v>9</v>
       </c>
       <c r="F702" s="16">
-        <v>8718951.0699770004</v>
+        <v>8718951</v>
       </c>
     </row>
     <row r="703" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14685,7 +14686,7 @@
         <v>21</v>
       </c>
       <c r="F704" s="16">
-        <v>23737809.178583998</v>
+        <v>23737809</v>
       </c>
     </row>
     <row r="705" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14705,7 +14706,7 @@
         <v>9</v>
       </c>
       <c r="F705" s="16">
-        <v>1221027.7699689998</v>
+        <v>1221028</v>
       </c>
     </row>
     <row r="706" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14725,7 +14726,7 @@
         <v>21</v>
       </c>
       <c r="F706" s="16">
-        <v>199927129.92316699</v>
+        <v>199927130</v>
       </c>
     </row>
     <row r="707" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14745,7 +14746,7 @@
         <v>9</v>
       </c>
       <c r="F707" s="16">
-        <v>49626771.378770001</v>
+        <v>49626771</v>
       </c>
     </row>
     <row r="708" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14765,7 +14766,7 @@
         <v>24</v>
       </c>
       <c r="F708" s="16">
-        <v>37144603.999960005</v>
+        <v>37144604</v>
       </c>
     </row>
     <row r="709" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14785,7 +14786,7 @@
         <v>21</v>
       </c>
       <c r="F709" s="16">
-        <v>334607716.02401203</v>
+        <v>334607716</v>
       </c>
     </row>
     <row r="710" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14805,7 +14806,7 @@
         <v>9</v>
       </c>
       <c r="F710" s="16">
-        <v>9176722.2613830008</v>
+        <v>9176722</v>
       </c>
     </row>
     <row r="711" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14845,7 +14846,7 @@
         <v>21</v>
       </c>
       <c r="F712" s="16">
-        <v>24989815.153029006</v>
+        <v>24989727</v>
       </c>
     </row>
     <row r="713" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14865,7 +14866,7 @@
         <v>9</v>
       </c>
       <c r="F713" s="16">
-        <v>1268404.6771519999</v>
+        <v>1268376</v>
       </c>
     </row>
     <row r="714" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14885,7 +14886,7 @@
         <v>21</v>
       </c>
       <c r="F714" s="16">
-        <v>185198424.98214501</v>
+        <v>185198425</v>
       </c>
     </row>
     <row r="715" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14905,7 +14906,7 @@
         <v>9</v>
       </c>
       <c r="F715" s="16">
-        <v>48242226.224952005</v>
+        <v>48242226</v>
       </c>
     </row>
     <row r="716" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14925,7 +14926,7 @@
         <v>24</v>
       </c>
       <c r="F716" s="16">
-        <v>36578040.999989994</v>
+        <v>36578041</v>
       </c>
     </row>
     <row r="717" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14945,7 +14946,7 @@
         <v>21</v>
       </c>
       <c r="F717" s="16">
-        <v>311062160.30765301</v>
+        <v>311062160</v>
       </c>
     </row>
     <row r="718" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -14965,7 +14966,7 @@
         <v>9</v>
       </c>
       <c r="F718" s="16">
-        <v>8797932.8389720004</v>
+        <v>8797933</v>
       </c>
     </row>
     <row r="719" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15005,7 +15006,7 @@
         <v>21</v>
       </c>
       <c r="F720" s="16">
-        <v>24320770.384613995</v>
+        <v>24320686</v>
       </c>
     </row>
     <row r="721" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15025,7 +15026,7 @@
         <v>9</v>
       </c>
       <c r="F721" s="16">
-        <v>1327508.3283039997</v>
+        <v>1327493</v>
       </c>
     </row>
     <row r="722" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15045,7 +15046,7 @@
         <v>21</v>
       </c>
       <c r="F722" s="16">
-        <v>185063544.53383702</v>
+        <v>185063545</v>
       </c>
     </row>
     <row r="723" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15065,7 +15066,7 @@
         <v>9</v>
       </c>
       <c r="F723" s="16">
-        <v>46378029.345517002</v>
+        <v>46378029</v>
       </c>
     </row>
     <row r="724" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15085,7 +15086,7 @@
         <v>24</v>
       </c>
       <c r="F724" s="16">
-        <v>38135192.999995999</v>
+        <v>38135193</v>
       </c>
     </row>
     <row r="725" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15105,7 +15106,7 @@
         <v>21</v>
       </c>
       <c r="F725" s="16">
-        <v>328562323.11892503</v>
+        <v>328562323</v>
       </c>
     </row>
     <row r="726" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15125,7 +15126,7 @@
         <v>9</v>
       </c>
       <c r="F726" s="16">
-        <v>9194432.1349210013</v>
+        <v>9194432</v>
       </c>
     </row>
     <row r="727" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15165,7 +15166,7 @@
         <v>21</v>
       </c>
       <c r="F728" s="16">
-        <v>24886038.316656999</v>
+        <v>24885953</v>
       </c>
     </row>
     <row r="729" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15185,7 +15186,7 @@
         <v>9</v>
       </c>
       <c r="F729" s="16">
-        <v>1435458.1861480002</v>
+        <v>1435429</v>
       </c>
     </row>
     <row r="730" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15205,7 +15206,7 @@
         <v>21</v>
       </c>
       <c r="F730" s="16">
-        <v>194060191.868821</v>
+        <v>194060192</v>
       </c>
     </row>
     <row r="731" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15225,7 +15226,7 @@
         <v>9</v>
       </c>
       <c r="F731" s="16">
-        <v>49994159.105397999</v>
+        <v>49994159</v>
       </c>
     </row>
     <row r="732" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15265,7 +15266,7 @@
         <v>21</v>
       </c>
       <c r="F733" s="16">
-        <v>330789940.328013</v>
+        <v>330789940</v>
       </c>
     </row>
     <row r="734" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15285,7 +15286,7 @@
         <v>9</v>
       </c>
       <c r="F734" s="16">
-        <v>9202560.5268009994</v>
+        <v>9202561</v>
       </c>
     </row>
     <row r="735" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15325,7 +15326,7 @@
         <v>21</v>
       </c>
       <c r="F736" s="16">
-        <v>25423646.615859002</v>
+        <v>25423567</v>
       </c>
     </row>
     <row r="737" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15345,7 +15346,7 @@
         <v>9</v>
       </c>
       <c r="F737" s="16">
-        <v>1545701.1237779998</v>
+        <v>1545671</v>
       </c>
     </row>
     <row r="738" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15365,7 +15366,7 @@
         <v>21</v>
       </c>
       <c r="F738" s="16">
-        <v>183318037.00016803</v>
+        <v>183318037</v>
       </c>
     </row>
     <row r="739" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15385,7 +15386,7 @@
         <v>9</v>
       </c>
       <c r="F739" s="16">
-        <v>49461956.881738</v>
+        <v>49461957</v>
       </c>
     </row>
     <row r="740" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15405,7 +15406,7 @@
         <v>24</v>
       </c>
       <c r="F740" s="16">
-        <v>40744703.999988005</v>
+        <v>40744704</v>
       </c>
     </row>
     <row r="741" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15425,7 +15426,7 @@
         <v>21</v>
       </c>
       <c r="F741" s="16">
-        <v>319685472.91746205</v>
+        <v>319685473</v>
       </c>
     </row>
     <row r="742" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15445,7 +15446,7 @@
         <v>9</v>
       </c>
       <c r="F742" s="16">
-        <v>8919381.0088900011</v>
+        <v>8919381</v>
       </c>
     </row>
     <row r="743" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15485,7 +15486,7 @@
         <v>21</v>
       </c>
       <c r="F744" s="16">
-        <v>24880138.883661006</v>
+        <v>24880059</v>
       </c>
     </row>
     <row r="745" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15505,7 +15506,7 @@
         <v>9</v>
       </c>
       <c r="F745" s="16">
-        <v>1550349.0224819998</v>
+        <v>1550319</v>
       </c>
     </row>
     <row r="746" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15525,7 +15526,7 @@
         <v>21</v>
       </c>
       <c r="F746" s="16">
-        <v>188789221.01202399</v>
+        <v>188789221</v>
       </c>
     </row>
     <row r="747" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15545,7 +15546,7 @@
         <v>9</v>
       </c>
       <c r="F747" s="16">
-        <v>50405068.576372996</v>
+        <v>50405069</v>
       </c>
     </row>
     <row r="748" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15565,7 +15566,7 @@
         <v>24</v>
       </c>
       <c r="F748" s="16">
-        <v>40725641.000029996</v>
+        <v>40725641</v>
       </c>
     </row>
     <row r="749" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15585,7 +15586,7 @@
         <v>21</v>
       </c>
       <c r="F749" s="16">
-        <v>328224077.67289996</v>
+        <v>328224078</v>
       </c>
     </row>
     <row r="750" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15605,7 +15606,7 @@
         <v>9</v>
       </c>
       <c r="F750" s="16">
-        <v>9320458.5712629985</v>
+        <v>9320459</v>
       </c>
     </row>
     <row r="751" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15645,7 +15646,7 @@
         <v>21</v>
       </c>
       <c r="F752" s="16">
-        <v>26010138.013039995</v>
+        <v>26010070</v>
       </c>
     </row>
     <row r="753" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15665,7 +15666,7 @@
         <v>9</v>
       </c>
       <c r="F753" s="16">
-        <v>1642614.4103129997</v>
+        <v>1642581</v>
       </c>
     </row>
     <row r="754" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15685,7 +15686,7 @@
         <v>21</v>
       </c>
       <c r="F754" s="16">
-        <v>175276187.754453</v>
+        <v>175276188</v>
       </c>
     </row>
     <row r="755" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15705,7 +15706,7 @@
         <v>9</v>
       </c>
       <c r="F755" s="16">
-        <v>46255610.307061002</v>
+        <v>46255610</v>
       </c>
     </row>
     <row r="756" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15725,7 +15726,7 @@
         <v>24</v>
       </c>
       <c r="F756" s="16">
-        <v>32529477.00003</v>
+        <v>32529477</v>
       </c>
     </row>
     <row r="757" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15745,7 +15746,7 @@
         <v>21</v>
       </c>
       <c r="F757" s="16">
-        <v>321867511.65237904</v>
+        <v>321867512</v>
       </c>
     </row>
     <row r="758" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15765,7 +15766,7 @@
         <v>9</v>
       </c>
       <c r="F758" s="16">
-        <v>9097153.6472529992</v>
+        <v>9097154</v>
       </c>
     </row>
     <row r="759" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15805,7 +15806,7 @@
         <v>21</v>
       </c>
       <c r="F760" s="16">
-        <v>25355006.278207995</v>
+        <v>25354938</v>
       </c>
     </row>
     <row r="761" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15825,7 +15826,7 @@
         <v>9</v>
       </c>
       <c r="F761" s="16">
-        <v>1589287.2494689999</v>
+        <v>1589265</v>
       </c>
     </row>
     <row r="762" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15845,7 +15846,7 @@
         <v>21</v>
       </c>
       <c r="F762" s="16">
-        <v>186272949.64197299</v>
+        <v>186272950</v>
       </c>
     </row>
     <row r="763" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15865,7 +15866,7 @@
         <v>9</v>
       </c>
       <c r="F763" s="16">
-        <v>48149277.718079999</v>
+        <v>48149278</v>
       </c>
     </row>
     <row r="764" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15885,7 +15886,7 @@
         <v>24</v>
       </c>
       <c r="F764" s="16">
-        <v>39561230.999960996</v>
+        <v>39561231</v>
       </c>
     </row>
     <row r="765" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15905,7 +15906,7 @@
         <v>21</v>
       </c>
       <c r="F765" s="16">
-        <v>332449301.75921822</v>
+        <v>332449302</v>
       </c>
     </row>
     <row r="766" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15925,7 +15926,7 @@
         <v>9</v>
       </c>
       <c r="F766" s="16">
-        <v>9181920.6883910019</v>
+        <v>9181921</v>
       </c>
     </row>
     <row r="767" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15965,7 +15966,7 @@
         <v>21</v>
       </c>
       <c r="F768" s="16">
-        <v>26114412.170194998</v>
+        <v>26114334</v>
       </c>
     </row>
     <row r="769" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -15985,7 +15986,7 @@
         <v>9</v>
       </c>
       <c r="F769" s="16">
-        <v>1627130.4342989998</v>
+        <v>1627108</v>
       </c>
     </row>
     <row r="770" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16005,7 +16006,7 @@
         <v>21</v>
       </c>
       <c r="F770" s="16">
-        <v>185166665.276548</v>
+        <v>185166665</v>
       </c>
     </row>
     <row r="771" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16025,7 +16026,7 @@
         <v>9</v>
       </c>
       <c r="F771" s="16">
-        <v>50130915.670791999</v>
+        <v>50130916</v>
       </c>
     </row>
     <row r="772" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16045,7 +16046,7 @@
         <v>24</v>
       </c>
       <c r="F772" s="16">
-        <v>39876734.000018999</v>
+        <v>39876734</v>
       </c>
     </row>
     <row r="773" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16065,7 +16066,7 @@
         <v>21</v>
       </c>
       <c r="F773" s="16">
-        <v>319226455.40798187</v>
+        <v>319226455</v>
       </c>
     </row>
     <row r="774" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16085,7 +16086,7 @@
         <v>9</v>
       </c>
       <c r="F774" s="16">
-        <v>9144204.6790950019</v>
+        <v>9144205</v>
       </c>
     </row>
     <row r="775" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16125,7 +16126,7 @@
         <v>21</v>
       </c>
       <c r="F776" s="16">
-        <v>24924319.226298001</v>
+        <v>24924279</v>
       </c>
     </row>
     <row r="777" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16145,7 +16146,7 @@
         <v>9</v>
       </c>
       <c r="F777" s="16">
-        <v>1636554.5897020001</v>
+        <v>1636541</v>
       </c>
     </row>
     <row r="778" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16165,7 +16166,7 @@
         <v>21</v>
       </c>
       <c r="F778" s="16">
-        <v>158410348.86306599</v>
+        <v>158410349</v>
       </c>
     </row>
     <row r="779" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16185,7 +16186,7 @@
         <v>9</v>
       </c>
       <c r="F779" s="16">
-        <v>41096304.496920995</v>
+        <v>41096304</v>
       </c>
     </row>
     <row r="780" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16205,7 +16206,7 @@
         <v>24</v>
       </c>
       <c r="F780" s="16">
-        <v>33558869.000053003</v>
+        <v>33558869</v>
       </c>
     </row>
     <row r="781" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16225,7 +16226,7 @@
         <v>21</v>
       </c>
       <c r="F781" s="16">
-        <v>287737241.19471395</v>
+        <v>287737545</v>
       </c>
     </row>
     <row r="782" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16245,7 +16246,7 @@
         <v>9</v>
       </c>
       <c r="F782" s="16">
-        <v>8115220.6158080008</v>
+        <v>8115703</v>
       </c>
     </row>
     <row r="783" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16285,7 +16286,7 @@
         <v>21</v>
       </c>
       <c r="F784" s="16">
-        <v>23117325.024350002</v>
+        <v>23117320</v>
       </c>
     </row>
     <row r="785" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16305,7 +16306,7 @@
         <v>9</v>
       </c>
       <c r="F785" s="16">
-        <v>1507998.8330380004</v>
+        <v>1507988</v>
       </c>
     </row>
     <row r="786" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16325,7 +16326,7 @@
         <v>21</v>
       </c>
       <c r="F786" s="16">
-        <v>175490368.46801901</v>
+        <v>175490368</v>
       </c>
     </row>
     <row r="787" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16345,7 +16346,7 @@
         <v>9</v>
       </c>
       <c r="F787" s="16">
-        <v>44883969.048371002</v>
+        <v>44883969</v>
       </c>
     </row>
     <row r="788" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16365,7 +16366,7 @@
         <v>24</v>
       </c>
       <c r="F788" s="16">
-        <v>40399121.000049002</v>
+        <v>40399121</v>
       </c>
     </row>
     <row r="789" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16385,7 +16386,7 @@
         <v>21</v>
       </c>
       <c r="F789" s="16">
-        <v>325400448.86204791</v>
+        <v>325400449</v>
       </c>
     </row>
     <row r="790" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16405,7 +16406,7 @@
         <v>9</v>
       </c>
       <c r="F790" s="16">
-        <v>9490544.4260249995</v>
+        <v>9490544</v>
       </c>
     </row>
     <row r="791" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16445,7 +16446,7 @@
         <v>21</v>
       </c>
       <c r="F792" s="16">
-        <v>26360746.171552997</v>
+        <v>26360677</v>
       </c>
     </row>
     <row r="793" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16465,7 +16466,7 @@
         <v>9</v>
       </c>
       <c r="F793" s="16">
-        <v>1744266.7844480004</v>
+        <v>1744192</v>
       </c>
     </row>
     <row r="794" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16485,7 +16486,7 @@
         <v>21</v>
       </c>
       <c r="F794" s="16">
-        <v>167501233.605342</v>
+        <v>167501234</v>
       </c>
     </row>
     <row r="795" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16505,7 +16506,7 @@
         <v>9</v>
       </c>
       <c r="F795" s="16">
-        <v>42220360.531263001</v>
+        <v>42220361</v>
       </c>
     </row>
     <row r="796" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16525,7 +16526,7 @@
         <v>24</v>
       </c>
       <c r="F796" s="16">
-        <v>37740771.999983996</v>
+        <v>37740772</v>
       </c>
     </row>
     <row r="797" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16545,7 +16546,7 @@
         <v>21</v>
       </c>
       <c r="F797" s="16">
-        <v>318442429.67673397</v>
+        <v>318442576</v>
       </c>
     </row>
     <row r="798" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16565,7 +16566,7 @@
         <v>9</v>
       </c>
       <c r="F798" s="16">
-        <v>9321242.2683450021</v>
+        <v>9321242</v>
       </c>
     </row>
     <row r="799" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16605,7 +16606,7 @@
         <v>21</v>
       </c>
       <c r="F800" s="16">
-        <v>24716210.362453002</v>
+        <v>24716206</v>
       </c>
     </row>
     <row r="801" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16625,7 +16626,7 @@
         <v>9</v>
       </c>
       <c r="F801" s="16">
-        <v>1766419.9851640004</v>
+        <v>1766382</v>
       </c>
     </row>
     <row r="802" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16645,7 +16646,7 @@
         <v>21</v>
       </c>
       <c r="F802" s="16">
-        <v>169623699.82509401</v>
+        <v>169623700</v>
       </c>
     </row>
     <row r="803" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16665,7 +16666,7 @@
         <v>9</v>
       </c>
       <c r="F803" s="16">
-        <v>44363215.843753003</v>
+        <v>44363216</v>
       </c>
     </row>
     <row r="804" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16685,7 +16686,7 @@
         <v>24</v>
       </c>
       <c r="F804" s="16">
-        <v>36119046.999949001</v>
+        <v>36119047</v>
       </c>
     </row>
     <row r="805" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16705,7 +16706,7 @@
         <v>21</v>
       </c>
       <c r="F805" s="16">
-        <v>328067724.46565706</v>
+        <v>328067863</v>
       </c>
     </row>
     <row r="806" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16725,7 +16726,7 @@
         <v>9</v>
       </c>
       <c r="F806" s="16">
-        <v>9684139.07773</v>
+        <v>9684139</v>
       </c>
     </row>
     <row r="807" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16765,7 +16766,7 @@
         <v>21</v>
       </c>
       <c r="F808" s="16">
-        <v>25621704.716617998</v>
+        <v>25621725</v>
       </c>
     </row>
     <row r="809" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16785,7 +16786,7 @@
         <v>9</v>
       </c>
       <c r="F809" s="16">
-        <v>1887132.1772369996</v>
+        <v>1887107</v>
       </c>
     </row>
     <row r="810" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16805,7 +16806,7 @@
         <v>21</v>
       </c>
       <c r="F810" s="16">
-        <v>156091489.06891999</v>
+        <v>156091489</v>
       </c>
     </row>
     <row r="811" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16825,7 +16826,7 @@
         <v>9</v>
       </c>
       <c r="F811" s="16">
-        <v>41591063.828182995</v>
+        <v>41591064</v>
       </c>
     </row>
     <row r="812" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16845,7 +16846,7 @@
         <v>24</v>
       </c>
       <c r="F812" s="16">
-        <v>33705453.000010997</v>
+        <v>33705453</v>
       </c>
     </row>
     <row r="813" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16865,7 +16866,7 @@
         <v>21</v>
       </c>
       <c r="F813" s="16">
-        <v>315295563.85905498</v>
+        <v>315295627</v>
       </c>
     </row>
     <row r="814" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16885,7 +16886,7 @@
         <v>9</v>
       </c>
       <c r="F814" s="16">
-        <v>9360597.4711160008</v>
+        <v>9360597</v>
       </c>
     </row>
     <row r="815" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16925,7 +16926,7 @@
         <v>21</v>
       </c>
       <c r="F816" s="16">
-        <v>25324985.636364996</v>
+        <v>25324982</v>
       </c>
     </row>
     <row r="817" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16945,7 +16946,7 @@
         <v>9</v>
       </c>
       <c r="F817" s="16">
-        <v>1935098.2543209996</v>
+        <v>1935055</v>
       </c>
     </row>
     <row r="818" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16965,7 +16966,7 @@
         <v>21</v>
       </c>
       <c r="F818" s="16">
-        <v>154107956.910752</v>
+        <v>154107957</v>
       </c>
     </row>
     <row r="819" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -16985,7 +16986,7 @@
         <v>9</v>
       </c>
       <c r="F819" s="16">
-        <v>39506905.185813002</v>
+        <v>39506905</v>
       </c>
     </row>
     <row r="820" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17005,7 +17006,7 @@
         <v>24</v>
       </c>
       <c r="F820" s="16">
-        <v>32683729.000023998</v>
+        <v>32683729</v>
       </c>
     </row>
     <row r="821" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17025,7 +17026,7 @@
         <v>21</v>
       </c>
       <c r="F821" s="16">
-        <v>328462601.26030308</v>
+        <v>328462630</v>
       </c>
     </row>
     <row r="822" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17045,7 +17046,7 @@
         <v>9</v>
       </c>
       <c r="F822" s="16">
-        <v>9760908.1068909969</v>
+        <v>9760908</v>
       </c>
     </row>
     <row r="823" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17085,7 +17086,7 @@
         <v>21</v>
       </c>
       <c r="F824" s="16">
-        <v>26285500.603073996</v>
+        <v>26285512</v>
       </c>
     </row>
     <row r="825" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17105,7 +17106,7 @@
         <v>9</v>
       </c>
       <c r="F825" s="16">
-        <v>2047482.3726079997</v>
+        <v>2047438</v>
       </c>
     </row>
     <row r="826" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17125,7 +17126,7 @@
         <v>21</v>
       </c>
       <c r="F826" s="16">
-        <v>156609359.17744699</v>
+        <v>156609359</v>
       </c>
     </row>
     <row r="827" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17145,7 +17146,7 @@
         <v>9</v>
       </c>
       <c r="F827" s="16">
-        <v>41365976.671331994</v>
+        <v>41365977</v>
       </c>
     </row>
     <row r="828" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17165,7 +17166,7 @@
         <v>24</v>
       </c>
       <c r="F828" s="16">
-        <v>37915804.000053003</v>
+        <v>37915804</v>
       </c>
     </row>
     <row r="829" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17185,7 +17186,7 @@
         <v>21</v>
       </c>
       <c r="F829" s="16">
-        <v>310819503.48403013</v>
+        <v>310819503</v>
       </c>
     </row>
     <row r="830" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17205,7 +17206,7 @@
         <v>9</v>
       </c>
       <c r="F830" s="16">
-        <v>9830292.648142999</v>
+        <v>9830293</v>
       </c>
     </row>
     <row r="831" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17245,7 +17246,7 @@
         <v>21</v>
       </c>
       <c r="F832" s="16">
-        <v>26251569.215042002</v>
+        <v>26251574</v>
       </c>
     </row>
     <row r="833" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17265,7 +17266,7 @@
         <v>9</v>
       </c>
       <c r="F833" s="16">
-        <v>2174649.6023349999</v>
+        <v>2174608</v>
       </c>
     </row>
     <row r="834" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17285,7 +17286,7 @@
         <v>21</v>
       </c>
       <c r="F834" s="16">
-        <v>130107200.609138</v>
+        <v>130107201</v>
       </c>
     </row>
     <row r="835" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17305,7 +17306,7 @@
         <v>9</v>
       </c>
       <c r="F835" s="16">
-        <v>34587957.091282003</v>
+        <v>34587957</v>
       </c>
     </row>
     <row r="836" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17325,7 +17326,7 @@
         <v>24</v>
       </c>
       <c r="F836" s="16">
-        <v>37324002.999986</v>
+        <v>37324003</v>
       </c>
     </row>
     <row r="837" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17345,7 +17346,7 @@
         <v>21</v>
       </c>
       <c r="F837" s="16">
-        <v>314866480.68940508</v>
+        <v>314866481</v>
       </c>
     </row>
     <row r="838" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17365,7 +17366,7 @@
         <v>9</v>
       </c>
       <c r="F838" s="16">
-        <v>9554067.6942299977</v>
+        <v>9554068</v>
       </c>
     </row>
     <row r="839" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17405,7 +17406,7 @@
         <v>21</v>
       </c>
       <c r="F840" s="16">
-        <v>25055374.721833996</v>
+        <v>25055352</v>
       </c>
     </row>
     <row r="841" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17425,7 +17426,7 @@
         <v>9</v>
       </c>
       <c r="F841" s="16">
-        <v>2084018.7406839998</v>
+        <v>2083977</v>
       </c>
     </row>
     <row r="842" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17445,7 +17446,7 @@
         <v>21</v>
       </c>
       <c r="F842" s="16">
-        <v>148435372.95242798</v>
+        <v>148435373</v>
       </c>
     </row>
     <row r="843" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17465,7 +17466,7 @@
         <v>9</v>
       </c>
       <c r="F843" s="16">
-        <v>41942961.39497</v>
+        <v>41942961</v>
       </c>
     </row>
     <row r="844" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17485,7 +17486,7 @@
         <v>24</v>
       </c>
       <c r="F844" s="16">
-        <v>40660412.000007994</v>
+        <v>40660412</v>
       </c>
     </row>
     <row r="845" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17505,7 +17506,7 @@
         <v>21</v>
       </c>
       <c r="F845" s="16">
-        <v>332942489.73321199</v>
+        <v>332942490</v>
       </c>
     </row>
     <row r="846" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17525,7 +17526,7 @@
         <v>9</v>
       </c>
       <c r="F846" s="16">
-        <v>10032893.736418998</v>
+        <v>10032894</v>
       </c>
     </row>
     <row r="847" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17565,7 +17566,7 @@
         <v>21</v>
       </c>
       <c r="F848" s="16">
-        <v>26151124.907498997</v>
+        <v>26151115</v>
       </c>
     </row>
     <row r="849" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17585,7 +17586,7 @@
         <v>9</v>
       </c>
       <c r="F849" s="16">
-        <v>2385648.0460030008</v>
+        <v>2385616</v>
       </c>
     </row>
     <row r="850" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17605,7 +17606,7 @@
         <v>21</v>
       </c>
       <c r="F850" s="16">
-        <v>144154179.303083</v>
+        <v>144154179</v>
       </c>
     </row>
     <row r="851" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17625,7 +17626,7 @@
         <v>9</v>
       </c>
       <c r="F851" s="16">
-        <v>40078448.487369001</v>
+        <v>40078448</v>
       </c>
     </row>
     <row r="852" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17645,7 +17646,7 @@
         <v>24</v>
       </c>
       <c r="F852" s="16">
-        <v>40681393.999998994</v>
+        <v>40681394</v>
       </c>
     </row>
     <row r="853" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17665,7 +17666,7 @@
         <v>21</v>
       </c>
       <c r="F853" s="16">
-        <v>323950351.81715</v>
+        <v>323950352</v>
       </c>
     </row>
     <row r="854" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17685,7 +17686,7 @@
         <v>9</v>
       </c>
       <c r="F854" s="16">
-        <v>9927086.545442</v>
+        <v>9927087</v>
       </c>
     </row>
     <row r="855" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17725,7 +17726,7 @@
         <v>21</v>
       </c>
       <c r="F856" s="16">
-        <v>25579045.043685004</v>
+        <v>25578950</v>
       </c>
     </row>
     <row r="857" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17745,7 +17746,7 @@
         <v>9</v>
       </c>
       <c r="F857" s="16">
-        <v>2477766.0955620008</v>
+        <v>2477711</v>
       </c>
     </row>
     <row r="858" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17765,7 +17766,7 @@
         <v>21</v>
       </c>
       <c r="F858" s="16">
-        <v>149275346.991882</v>
+        <v>149275347</v>
       </c>
     </row>
     <row r="859" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17785,7 +17786,7 @@
         <v>9</v>
       </c>
       <c r="F859" s="16">
-        <v>40799821.822246999</v>
+        <v>40799822</v>
       </c>
     </row>
     <row r="860" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17805,7 +17806,7 @@
         <v>24</v>
       </c>
       <c r="F860" s="16">
-        <v>41213621.999972999</v>
+        <v>41213622</v>
       </c>
     </row>
     <row r="861" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17825,7 +17826,7 @@
         <v>21</v>
       </c>
       <c r="F861" s="16">
-        <v>329473010.68340099</v>
+        <v>329474567</v>
       </c>
     </row>
     <row r="862" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17845,7 +17846,7 @@
         <v>9</v>
       </c>
       <c r="F862" s="16">
-        <v>10168231.100537002</v>
+        <v>10168231</v>
       </c>
     </row>
     <row r="863" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17885,7 +17886,7 @@
         <v>21</v>
       </c>
       <c r="F864" s="16">
-        <v>25941061.950445998</v>
+        <v>25940826</v>
       </c>
     </row>
     <row r="865" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17905,7 +17906,7 @@
         <v>9</v>
       </c>
       <c r="F865" s="16">
-        <v>2536835.407519999</v>
+        <v>2536734</v>
       </c>
     </row>
     <row r="866" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17925,7 +17926,7 @@
         <v>21</v>
       </c>
       <c r="F866" s="16">
-        <v>146861324.03153601</v>
+        <v>146861324</v>
       </c>
     </row>
     <row r="867" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17945,7 +17946,7 @@
         <v>9</v>
       </c>
       <c r="F867" s="16">
-        <v>42371736.367787994</v>
+        <v>42371736</v>
       </c>
     </row>
     <row r="868" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17965,7 +17966,7 @@
         <v>24</v>
       </c>
       <c r="F868" s="16">
-        <v>39621589.000091001</v>
+        <v>39621589</v>
       </c>
     </row>
     <row r="869" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17985,7 +17986,7 @@
         <v>21</v>
       </c>
       <c r="F869" s="16">
-        <v>332748388.24710888</v>
+        <v>332748388</v>
       </c>
     </row>
     <row r="870" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18005,7 +18006,7 @@
         <v>9</v>
       </c>
       <c r="F870" s="16">
-        <v>10289363.851069</v>
+        <v>10289364</v>
       </c>
     </row>
     <row r="871" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18045,7 +18046,7 @@
         <v>21</v>
       </c>
       <c r="F872" s="16">
-        <v>26448287.920093</v>
+        <v>26447915</v>
       </c>
     </row>
     <row r="873" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18065,7 +18066,7 @@
         <v>9</v>
       </c>
       <c r="F873" s="16">
-        <v>2679755.2533239997</v>
+        <v>2679517</v>
       </c>
     </row>
     <row r="874" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18085,7 +18086,7 @@
         <v>21</v>
       </c>
       <c r="F874" s="16">
-        <v>135190043.36904201</v>
+        <v>135190043</v>
       </c>
     </row>
     <row r="875" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18105,7 +18106,7 @@
         <v>9</v>
       </c>
       <c r="F875" s="16">
-        <v>40147712.639177002</v>
+        <v>40147713</v>
       </c>
     </row>
     <row r="876" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18125,7 +18126,7 @@
         <v>24</v>
       </c>
       <c r="F876" s="16">
-        <v>36249605.000028998</v>
+        <v>36249605</v>
       </c>
     </row>
     <row r="877" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18145,7 +18146,7 @@
         <v>21</v>
       </c>
       <c r="F877" s="16">
-        <v>309190014.50332081</v>
+        <v>309190015</v>
       </c>
     </row>
     <row r="878" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18165,7 +18166,7 @@
         <v>9</v>
       </c>
       <c r="F878" s="16">
-        <v>9754013.6821000036</v>
+        <v>9754014</v>
       </c>
     </row>
     <row r="879" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18205,7 +18206,7 @@
         <v>21</v>
       </c>
       <c r="F880" s="16">
-        <v>24909738.054202996</v>
+        <v>24909482</v>
       </c>
     </row>
     <row r="881" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18225,7 +18226,7 @@
         <v>9</v>
       </c>
       <c r="F881" s="16">
-        <v>2546996.5411360003</v>
+        <v>2546862</v>
       </c>
     </row>
     <row r="882" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18245,7 +18246,7 @@
         <v>21</v>
       </c>
       <c r="F882" s="16">
-        <v>145920326.16690001</v>
+        <v>145920326</v>
       </c>
     </row>
     <row r="883" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18265,7 +18266,7 @@
         <v>9</v>
       </c>
       <c r="F883" s="16">
-        <v>43613539.42667</v>
+        <v>43613539</v>
       </c>
     </row>
     <row r="884" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18285,7 +18286,7 @@
         <v>24</v>
       </c>
       <c r="F884" s="16">
-        <v>32908329.000047002</v>
+        <v>32908329</v>
       </c>
     </row>
     <row r="885" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18305,7 +18306,7 @@
         <v>21</v>
       </c>
       <c r="F885" s="16">
-        <v>328741017.04356301</v>
+        <v>328741017</v>
       </c>
     </row>
     <row r="886" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18325,7 +18326,7 @@
         <v>9</v>
       </c>
       <c r="F886" s="16">
-        <v>10545322.454009002</v>
+        <v>10545322</v>
       </c>
     </row>
     <row r="887" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18365,7 +18366,7 @@
         <v>21</v>
       </c>
       <c r="F888" s="16">
-        <v>26480916.141846005</v>
+        <v>26480526</v>
       </c>
     </row>
     <row r="889" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18385,7 +18386,7 @@
         <v>9</v>
       </c>
       <c r="F889" s="16">
-        <v>2786183.0657190001</v>
+        <v>2785996</v>
       </c>
     </row>
     <row r="890" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18405,7 +18406,7 @@
         <v>21</v>
       </c>
       <c r="F890" s="16">
-        <v>137363217.32924801</v>
+        <v>137363217</v>
       </c>
     </row>
     <row r="891" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18425,7 +18426,7 @@
         <v>9</v>
       </c>
       <c r="F891" s="16">
-        <v>39320651.906696998</v>
+        <v>39320652</v>
       </c>
     </row>
     <row r="892" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18445,7 +18446,7 @@
         <v>24</v>
       </c>
       <c r="F892" s="16">
-        <v>29041031.999981005</v>
+        <v>29041032</v>
       </c>
     </row>
     <row r="893" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18465,7 +18466,7 @@
         <v>21</v>
       </c>
       <c r="F893" s="16">
-        <v>313820537.21848994</v>
+        <v>313820537</v>
       </c>
     </row>
     <row r="894" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18485,7 +18486,7 @@
         <v>9</v>
       </c>
       <c r="F894" s="16">
-        <v>10041055.678538004</v>
+        <v>10041056</v>
       </c>
     </row>
     <row r="895" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18525,7 +18526,7 @@
         <v>21</v>
       </c>
       <c r="F896" s="16">
-        <v>25579645.973289996</v>
+        <v>25579341</v>
       </c>
     </row>
     <row r="897" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18545,7 +18546,7 @@
         <v>9</v>
       </c>
       <c r="F897" s="16">
-        <v>2793405.7324889996</v>
+        <v>2793299</v>
       </c>
     </row>
     <row r="898" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18565,7 +18566,7 @@
         <v>21</v>
       </c>
       <c r="F898" s="16">
-        <v>135941668.73616502</v>
+        <v>135941669</v>
       </c>
     </row>
     <row r="899" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18585,7 +18586,7 @@
         <v>9</v>
       </c>
       <c r="F899" s="16">
-        <v>38822550.007543996</v>
+        <v>38822550</v>
       </c>
     </row>
     <row r="900" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18605,7 +18606,7 @@
         <v>24</v>
       </c>
       <c r="F900" s="16">
-        <v>31329856.000045005</v>
+        <v>31329856</v>
       </c>
     </row>
     <row r="901" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18625,7 +18626,7 @@
         <v>21</v>
       </c>
       <c r="F901" s="16">
-        <v>320213171.68571907</v>
+        <v>320232382</v>
       </c>
     </row>
     <row r="902" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18645,7 +18646,7 @@
         <v>9</v>
       </c>
       <c r="F902" s="16">
-        <v>10437639.420076005</v>
+        <v>10444595</v>
       </c>
     </row>
     <row r="903" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18685,7 +18686,7 @@
         <v>21</v>
       </c>
       <c r="F904" s="16">
-        <v>26420200.567166999</v>
+        <v>26419965</v>
       </c>
     </row>
     <row r="905" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18705,7 +18706,7 @@
         <v>9</v>
       </c>
       <c r="F905" s="16">
-        <v>2816004.4175959998</v>
+        <v>2815884</v>
       </c>
     </row>
     <row r="906" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18725,7 +18726,7 @@
         <v>21</v>
       </c>
       <c r="F906" s="16">
-        <v>123805586.789903</v>
+        <v>123805587</v>
       </c>
     </row>
     <row r="907" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18745,7 +18746,7 @@
         <v>9</v>
       </c>
       <c r="F907" s="16">
-        <v>35147763.334042005</v>
+        <v>35147763</v>
       </c>
     </row>
     <row r="908" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18765,7 +18766,7 @@
         <v>24</v>
       </c>
       <c r="F908" s="16">
-        <v>32317862.000014003</v>
+        <v>32317862</v>
       </c>
     </row>
     <row r="909" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18785,7 +18786,7 @@
         <v>21</v>
       </c>
       <c r="F909" s="16">
-        <v>308104795.59984684</v>
+        <v>308128870</v>
       </c>
     </row>
     <row r="910" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18805,7 +18806,7 @@
         <v>9</v>
       </c>
       <c r="F910" s="16">
-        <v>10132805.090720003</v>
+        <v>10138653</v>
       </c>
     </row>
     <row r="911" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18845,7 +18846,7 @@
         <v>21</v>
       </c>
       <c r="F912" s="16">
-        <v>25310850.435348004</v>
+        <v>25310590</v>
       </c>
     </row>
     <row r="913" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18865,7 +18866,7 @@
         <v>9</v>
       </c>
       <c r="F913" s="16">
-        <v>2854859.429616</v>
+        <v>2854740</v>
       </c>
     </row>
     <row r="914" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18885,7 +18886,7 @@
         <v>21</v>
       </c>
       <c r="F914" s="16">
-        <v>133566112.015696</v>
+        <v>133566112</v>
       </c>
     </row>
     <row r="915" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18905,7 +18906,7 @@
         <v>9</v>
       </c>
       <c r="F915" s="16">
-        <v>40555621.369952001</v>
+        <v>40555621</v>
       </c>
     </row>
     <row r="916" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18925,7 +18926,7 @@
         <v>24</v>
       </c>
       <c r="F916" s="16">
-        <v>39360710.000061996</v>
+        <v>39360710</v>
       </c>
     </row>
     <row r="917" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18945,7 +18946,7 @@
         <v>21</v>
       </c>
       <c r="F917" s="16">
-        <v>317485201.91427296</v>
+        <v>317509283</v>
       </c>
     </row>
     <row r="918" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -18965,7 +18966,7 @@
         <v>9</v>
       </c>
       <c r="F918" s="16">
-        <v>10681846.743993996</v>
+        <v>10686588</v>
       </c>
     </row>
     <row r="919" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19005,7 +19006,7 @@
         <v>21</v>
       </c>
       <c r="F920" s="16">
-        <v>26137290.422872003</v>
+        <v>26136933</v>
       </c>
     </row>
     <row r="921" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19025,7 +19026,7 @@
         <v>9</v>
       </c>
       <c r="F921" s="16">
-        <v>3072202.0660490002</v>
+        <v>3072054</v>
       </c>
     </row>
     <row r="922" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19045,7 +19046,7 @@
         <v>21</v>
       </c>
       <c r="F922" s="16">
-        <v>114346842.214662</v>
+        <v>114346842</v>
       </c>
     </row>
     <row r="923" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19065,7 +19066,7 @@
         <v>9</v>
       </c>
       <c r="F923" s="16">
-        <v>35705207.035957001</v>
+        <v>35705207</v>
       </c>
     </row>
     <row r="924" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19085,7 +19086,7 @@
         <v>24</v>
       </c>
       <c r="F924" s="16">
-        <v>40126533.000030003</v>
+        <v>40126533</v>
       </c>
     </row>
     <row r="925" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19105,7 +19106,7 @@
         <v>21</v>
       </c>
       <c r="F925" s="16">
-        <v>311333365.22216398</v>
+        <v>311358028</v>
       </c>
     </row>
     <row r="926" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19125,7 +19126,7 @@
         <v>9</v>
       </c>
       <c r="F926" s="16">
-        <v>10780297.750529997</v>
+        <v>10785342</v>
       </c>
     </row>
     <row r="927" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19165,7 +19166,7 @@
         <v>21</v>
       </c>
       <c r="F928" s="16">
-        <v>26322631.320582006</v>
+        <v>26322085</v>
       </c>
     </row>
     <row r="929" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19185,7 +19186,7 @@
         <v>9</v>
       </c>
       <c r="F929" s="16">
-        <v>3155541.7343630004</v>
+        <v>3155344</v>
       </c>
     </row>
     <row r="930" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19205,7 +19206,7 @@
         <v>21</v>
       </c>
       <c r="F930" s="16">
-        <v>116053324.024138</v>
+        <v>116053324</v>
       </c>
     </row>
     <row r="931" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19225,7 +19226,7 @@
         <v>9</v>
       </c>
       <c r="F931" s="16">
-        <v>37032672.359861001</v>
+        <v>37032672</v>
       </c>
     </row>
     <row r="932" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19245,7 +19246,7 @@
         <v>24</v>
       </c>
       <c r="F932" s="16">
-        <v>37476124.000042006</v>
+        <v>37476124</v>
       </c>
     </row>
     <row r="933" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19265,7 +19266,7 @@
         <v>21</v>
       </c>
       <c r="F933" s="16">
-        <v>300242716.13296199</v>
+        <v>300242716</v>
       </c>
     </row>
     <row r="934" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19285,7 +19286,7 @@
         <v>9</v>
       </c>
       <c r="F934" s="16">
-        <v>10597070.734057998</v>
+        <v>10597071</v>
       </c>
     </row>
     <row r="935" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19325,7 +19326,7 @@
         <v>21</v>
       </c>
       <c r="F936" s="16">
-        <v>25711672.462290008</v>
+        <v>25711125</v>
       </c>
     </row>
     <row r="937" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19345,7 +19346,7 @@
         <v>9</v>
       </c>
       <c r="F937" s="16">
-        <v>3269758.9649690003</v>
+        <v>3269574</v>
       </c>
     </row>
     <row r="938" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19365,7 +19366,7 @@
         <v>21</v>
       </c>
       <c r="F938" s="16">
-        <v>132738478.89926299</v>
+        <v>132738479</v>
       </c>
     </row>
     <row r="939" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19385,7 +19386,7 @@
         <v>9</v>
       </c>
       <c r="F939" s="16">
-        <v>42876250.202319995</v>
+        <v>42876250</v>
       </c>
     </row>
     <row r="940" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19405,7 +19406,7 @@
         <v>24</v>
       </c>
       <c r="F940" s="16">
-        <v>35275147.999958999</v>
+        <v>35275148</v>
       </c>
     </row>
     <row r="941" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19425,7 +19426,7 @@
         <v>21</v>
       </c>
       <c r="F941" s="16">
-        <v>311255145.3025161</v>
+        <v>311255145</v>
       </c>
     </row>
     <row r="942" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19445,7 +19446,7 @@
         <v>9</v>
       </c>
       <c r="F942" s="16">
-        <v>11217333.995510001</v>
+        <v>11217342</v>
       </c>
     </row>
     <row r="943" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19485,7 +19486,7 @@
         <v>21</v>
       </c>
       <c r="F944" s="16">
-        <v>27019924.545445994</v>
+        <v>27019608</v>
       </c>
     </row>
     <row r="945" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19505,7 +19506,7 @@
         <v>9</v>
       </c>
       <c r="F945" s="16">
-        <v>3739689.7813710007</v>
+        <v>3739577</v>
       </c>
     </row>
     <row r="946" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19525,7 +19526,7 @@
         <v>21</v>
       </c>
       <c r="F946" s="16">
-        <v>130674717.218356</v>
+        <v>130674717</v>
       </c>
     </row>
     <row r="947" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19545,7 +19546,7 @@
         <v>9</v>
       </c>
       <c r="F947" s="16">
-        <v>42989707.384778999</v>
+        <v>42989707</v>
       </c>
     </row>
     <row r="948" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19565,7 +19566,7 @@
         <v>24</v>
       </c>
       <c r="F948" s="16">
-        <v>36099698.000044003</v>
+        <v>36099698</v>
       </c>
     </row>
     <row r="949" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19585,7 +19586,7 @@
         <v>21</v>
       </c>
       <c r="F949" s="16">
-        <v>301194924.6343779</v>
+        <v>301194925</v>
       </c>
     </row>
     <row r="950" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19605,7 +19606,7 @@
         <v>9</v>
       </c>
       <c r="F950" s="16">
-        <v>10890323.632558998</v>
+        <v>10890324</v>
       </c>
     </row>
     <row r="951" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19645,7 +19646,7 @@
         <v>21</v>
       </c>
       <c r="F952" s="16">
-        <v>25906836.969443005</v>
+        <v>25906429</v>
       </c>
     </row>
     <row r="953" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19665,7 +19666,7 @@
         <v>9</v>
       </c>
       <c r="F953" s="16">
-        <v>3697392.4659439996</v>
+        <v>3697254</v>
       </c>
     </row>
     <row r="954" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19685,7 +19686,7 @@
         <v>21</v>
       </c>
       <c r="F954" s="16">
-        <v>132157661.273534</v>
+        <v>132157661</v>
       </c>
     </row>
     <row r="955" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19705,7 +19706,7 @@
         <v>9</v>
       </c>
       <c r="F955" s="16">
-        <v>44284810.297751002</v>
+        <v>44284810</v>
       </c>
     </row>
     <row r="956" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19725,7 +19726,7 @@
         <v>24</v>
       </c>
       <c r="F956" s="16">
-        <v>32703305.000016998</v>
+        <v>32703305</v>
       </c>
     </row>
     <row r="957" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19745,7 +19746,7 @@
         <v>21</v>
       </c>
       <c r="F957" s="16">
-        <v>304790819.32759893</v>
+        <v>304790819</v>
       </c>
     </row>
     <row r="958" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19765,7 +19766,7 @@
         <v>9</v>
       </c>
       <c r="F958" s="16">
-        <v>11229201.705319004</v>
+        <v>11229202</v>
       </c>
     </row>
     <row r="959" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19805,7 +19806,7 @@
         <v>21</v>
       </c>
       <c r="F960" s="16">
-        <v>26208766.444513999</v>
+        <v>26208387</v>
       </c>
     </row>
     <row r="961" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19825,7 +19826,7 @@
         <v>9</v>
       </c>
       <c r="F961" s="16">
-        <v>3830820.6140839998</v>
+        <v>3830696</v>
       </c>
     </row>
     <row r="962" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19845,7 +19846,7 @@
         <v>21</v>
       </c>
       <c r="F962" s="16">
-        <v>128828875.761484</v>
+        <v>128828876</v>
       </c>
     </row>
     <row r="963" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19865,7 +19866,7 @@
         <v>9</v>
       </c>
       <c r="F963" s="16">
-        <v>43030408.616618</v>
+        <v>43030409</v>
       </c>
     </row>
     <row r="964" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19885,7 +19886,7 @@
         <v>24</v>
       </c>
       <c r="F964" s="16">
-        <v>33492409.999940004</v>
+        <v>33492410</v>
       </c>
     </row>
     <row r="965" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19905,7 +19906,7 @@
         <v>21</v>
       </c>
       <c r="F965" s="16">
-        <v>296408816.34933096</v>
+        <v>296408816</v>
       </c>
     </row>
     <row r="966" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19925,7 +19926,7 @@
         <v>9</v>
       </c>
       <c r="F966" s="16">
-        <v>11014392.776163999</v>
+        <v>11014393</v>
       </c>
     </row>
     <row r="967" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19965,7 +19966,7 @@
         <v>21</v>
       </c>
       <c r="F968" s="16">
-        <v>24740703.566326998</v>
+        <v>24740343</v>
       </c>
     </row>
     <row r="969" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -19985,7 +19986,7 @@
         <v>9</v>
       </c>
       <c r="F969" s="16">
-        <v>3561906.7653810009</v>
+        <v>3562897</v>
       </c>
     </row>
     <row r="970" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20005,7 +20006,7 @@
         <v>21</v>
       </c>
       <c r="F970" s="16">
-        <v>113767779.593107</v>
+        <v>113767780</v>
       </c>
     </row>
     <row r="971" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20025,7 +20026,7 @@
         <v>9</v>
       </c>
       <c r="F971" s="16">
-        <v>38447937.466827005</v>
+        <v>38447937</v>
       </c>
     </row>
     <row r="972" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20045,7 +20046,7 @@
         <v>24</v>
       </c>
       <c r="F972" s="16">
-        <v>30481388.000002</v>
+        <v>30481388</v>
       </c>
     </row>
     <row r="973" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20065,7 +20066,7 @@
         <v>21</v>
       </c>
       <c r="F973" s="16">
-        <v>273293969.25501496</v>
+        <v>273293969</v>
       </c>
     </row>
     <row r="974" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20085,7 +20086,7 @@
         <v>9</v>
       </c>
       <c r="F974" s="16">
-        <v>10153906.659405001</v>
+        <v>10153907</v>
       </c>
     </row>
     <row r="975" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20125,7 +20126,7 @@
         <v>21</v>
       </c>
       <c r="F976" s="16">
-        <v>23501481.858925998</v>
+        <v>23501270</v>
       </c>
     </row>
     <row r="977" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20145,7 +20146,7 @@
         <v>9</v>
       </c>
       <c r="F977" s="16">
-        <v>3507336.7138859998</v>
+        <v>3507470</v>
       </c>
     </row>
     <row r="978" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20165,7 +20166,7 @@
         <v>21</v>
       </c>
       <c r="F978" s="16">
-        <v>123165415.321632</v>
+        <v>123165415</v>
       </c>
     </row>
     <row r="979" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20185,7 +20186,7 @@
         <v>9</v>
       </c>
       <c r="F979" s="16">
-        <v>40558691.087161995</v>
+        <v>40558691</v>
       </c>
     </row>
     <row r="980" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20205,7 +20206,7 @@
         <v>24</v>
       </c>
       <c r="F980" s="16">
-        <v>31554257.999979999</v>
+        <v>31554258</v>
       </c>
     </row>
     <row r="981" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20225,7 +20226,7 @@
         <v>21</v>
       </c>
       <c r="F981" s="16">
-        <v>302698750.95387185</v>
+        <v>302698751</v>
       </c>
     </row>
     <row r="982" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20245,7 +20246,7 @@
         <v>9</v>
       </c>
       <c r="F982" s="16">
-        <v>11502054.749022998</v>
+        <v>11502055</v>
       </c>
     </row>
     <row r="983" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20285,7 +20286,7 @@
         <v>21</v>
       </c>
       <c r="F984" s="16">
-        <v>26517419.715074003</v>
+        <v>26517119</v>
       </c>
     </row>
     <row r="985" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20305,7 +20306,7 @@
         <v>9</v>
       </c>
       <c r="F985" s="16">
-        <v>4193813.0282549998</v>
+        <v>4193726</v>
       </c>
     </row>
     <row r="986" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20325,7 +20326,7 @@
         <v>21</v>
       </c>
       <c r="F986" s="16">
-        <v>120833683.42463</v>
+        <v>120833683</v>
       </c>
     </row>
     <row r="987" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20345,7 +20346,7 @@
         <v>9</v>
       </c>
       <c r="F987" s="16">
-        <v>41774972.848953001</v>
+        <v>41774973</v>
       </c>
     </row>
     <row r="988" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20365,7 +20366,7 @@
         <v>24</v>
       </c>
       <c r="F988" s="16">
-        <v>30641951.000064</v>
+        <v>30641951</v>
       </c>
     </row>
     <row r="989" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20385,7 +20386,7 @@
         <v>21</v>
       </c>
       <c r="F989" s="16">
-        <v>294447276.03477007</v>
+        <v>294446883</v>
       </c>
     </row>
     <row r="990" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20405,7 +20406,7 @@
         <v>9</v>
       </c>
       <c r="F990" s="16">
-        <v>11263857.679849003</v>
+        <v>11264100</v>
       </c>
     </row>
     <row r="991" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20445,7 +20446,7 @@
         <v>21</v>
       </c>
       <c r="F992" s="16">
-        <v>25982466.224293996</v>
+        <v>25982137</v>
       </c>
     </row>
     <row r="993" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20465,7 +20466,7 @@
         <v>9</v>
       </c>
       <c r="F993" s="16">
-        <v>4035312.3396210005</v>
+        <v>4035217</v>
       </c>
     </row>
     <row r="994" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20485,7 +20486,7 @@
         <v>21</v>
       </c>
       <c r="F994" s="16">
-        <v>118972887.822878</v>
+        <v>118972888</v>
       </c>
     </row>
     <row r="995" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20505,7 +20506,7 @@
         <v>9</v>
       </c>
       <c r="F995" s="16">
-        <v>38906639.888172001</v>
+        <v>38906640</v>
       </c>
     </row>
     <row r="996" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20525,7 +20526,7 @@
         <v>24</v>
       </c>
       <c r="F996" s="16">
-        <v>32892522.000001002</v>
+        <v>32892522</v>
       </c>
     </row>
     <row r="997" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20545,7 +20546,7 @@
         <v>21</v>
       </c>
       <c r="F997" s="16">
-        <v>297593716.93883002</v>
+        <v>297593330</v>
       </c>
     </row>
     <row r="998" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20565,7 +20566,7 @@
         <v>9</v>
       </c>
       <c r="F998" s="16">
-        <v>11515278.202691</v>
+        <v>11515414</v>
       </c>
     </row>
     <row r="999" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20605,7 +20606,7 @@
         <v>21</v>
       </c>
       <c r="F1000" s="16">
-        <v>26660343.062337</v>
+        <v>26659987</v>
       </c>
     </row>
     <row r="1001" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20625,7 +20626,7 @@
         <v>9</v>
       </c>
       <c r="F1001" s="16">
-        <v>4242566.4266259996</v>
+        <v>4242514</v>
       </c>
     </row>
     <row r="1002" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20645,7 +20646,7 @@
         <v>21</v>
       </c>
       <c r="F1002" s="16">
-        <v>109159742.928783</v>
+        <v>109160368</v>
       </c>
     </row>
     <row r="1003" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20665,7 +20666,7 @@
         <v>9</v>
       </c>
       <c r="F1003" s="16">
-        <v>35322157.066225998</v>
+        <v>35322157</v>
       </c>
     </row>
     <row r="1004" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20685,7 +20686,7 @@
         <v>24</v>
       </c>
       <c r="F1004" s="16">
-        <v>32945999.000050001</v>
+        <v>32945999</v>
       </c>
     </row>
     <row r="1005" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20705,7 +20706,7 @@
         <v>21</v>
       </c>
       <c r="F1005" s="16">
-        <v>289746211.33375406</v>
+        <v>289746289</v>
       </c>
     </row>
     <row r="1006" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20725,7 +20726,7 @@
         <v>9</v>
       </c>
       <c r="F1006" s="16">
-        <v>11254376.543265998</v>
+        <v>11254569</v>
       </c>
     </row>
     <row r="1007" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20765,7 +20766,7 @@
         <v>21</v>
       </c>
       <c r="F1008" s="16">
-        <v>26178372.514603</v>
+        <v>26178045</v>
       </c>
     </row>
     <row r="1009" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20785,7 +20786,7 @@
         <v>9</v>
       </c>
       <c r="F1009" s="16">
-        <v>4164768.2220089994</v>
+        <v>4164727</v>
       </c>
     </row>
     <row r="1010" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20805,7 +20806,7 @@
         <v>21</v>
       </c>
       <c r="F1010" s="16">
-        <v>114745856.124074</v>
+        <v>114745856</v>
       </c>
     </row>
     <row r="1011" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20825,7 +20826,7 @@
         <v>9</v>
       </c>
       <c r="F1011" s="16">
-        <v>40238092.377922006</v>
+        <v>40238092</v>
       </c>
     </row>
     <row r="1012" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20845,7 +20846,7 @@
         <v>24</v>
       </c>
       <c r="F1012" s="16">
-        <v>35878381.999975003</v>
+        <v>35878382</v>
       </c>
     </row>
     <row r="1013" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20865,7 +20866,7 @@
         <v>21</v>
       </c>
       <c r="F1013" s="16">
-        <v>298212691.39710397</v>
+        <v>298212709</v>
       </c>
     </row>
     <row r="1014" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20885,7 +20886,7 @@
         <v>9</v>
       </c>
       <c r="F1014" s="16">
-        <v>11736994.208249997</v>
+        <v>11737250</v>
       </c>
     </row>
     <row r="1015" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20925,7 +20926,7 @@
         <v>21</v>
       </c>
       <c r="F1016" s="16">
-        <v>27424782.369406994</v>
+        <v>27424195</v>
       </c>
     </row>
     <row r="1017" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20945,7 +20946,7 @@
         <v>9</v>
       </c>
       <c r="F1017" s="16">
-        <v>4615528.9813949997</v>
+        <v>4615493</v>
       </c>
     </row>
     <row r="1018" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20965,7 +20966,7 @@
         <v>21</v>
       </c>
       <c r="F1018" s="16">
-        <v>109136462.60963199</v>
+        <v>109136463</v>
       </c>
     </row>
     <row r="1019" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -20985,7 +20986,7 @@
         <v>9</v>
       </c>
       <c r="F1019" s="16">
-        <v>38444684.570306994</v>
+        <v>38444685</v>
       </c>
     </row>
     <row r="1020" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21005,7 +21006,7 @@
         <v>24</v>
       </c>
       <c r="F1020" s="16">
-        <v>36459087.000052005</v>
+        <v>36459087</v>
       </c>
     </row>
     <row r="1021" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21025,7 +21026,7 @@
         <v>21</v>
       </c>
       <c r="F1021" s="16">
-        <v>298325759.12336612</v>
+        <v>298326010</v>
       </c>
     </row>
     <row r="1022" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21045,7 +21046,7 @@
         <v>9</v>
       </c>
       <c r="F1022" s="16">
-        <v>11795072.877604995</v>
+        <v>11795374</v>
       </c>
     </row>
     <row r="1023" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21085,7 +21086,7 @@
         <v>21</v>
       </c>
       <c r="F1024" s="16">
-        <v>27227643.872657996</v>
+        <v>27226714</v>
       </c>
     </row>
     <row r="1025" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21105,7 +21106,7 @@
         <v>9</v>
       </c>
       <c r="F1025" s="16">
-        <v>4904587.4839019999</v>
+        <v>4904472</v>
       </c>
     </row>
     <row r="1026" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21125,7 +21126,7 @@
         <v>21</v>
       </c>
       <c r="F1026" s="16">
-        <v>113630138.62336999</v>
+        <v>113630808</v>
       </c>
     </row>
     <row r="1027" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21145,7 +21146,7 @@
         <v>9</v>
       </c>
       <c r="F1027" s="16">
-        <v>41195226.959737003</v>
+        <v>41195227</v>
       </c>
     </row>
     <row r="1028" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21165,7 +21166,7 @@
         <v>24</v>
       </c>
       <c r="F1028" s="16">
-        <v>35116077.999974996</v>
+        <v>35116078</v>
       </c>
     </row>
     <row r="1029" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21185,7 +21186,7 @@
         <v>21</v>
       </c>
       <c r="F1029" s="16">
-        <v>276803742.81776005</v>
+        <v>276803771</v>
       </c>
     </row>
     <row r="1030" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21205,7 +21206,7 @@
         <v>9</v>
       </c>
       <c r="F1030" s="16">
-        <v>11531332.095036997</v>
+        <v>11531611</v>
       </c>
     </row>
     <row r="1031" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21245,7 +21246,7 @@
         <v>21</v>
       </c>
       <c r="F1032" s="16">
-        <v>26313708.639036994</v>
+        <v>26312729</v>
       </c>
     </row>
     <row r="1033" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21265,7 +21266,7 @@
         <v>9</v>
       </c>
       <c r="F1033" s="16">
-        <v>4736467.3276080005</v>
+        <v>4736362</v>
       </c>
     </row>
     <row r="1034" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21285,7 +21286,7 @@
         <v>21</v>
       </c>
       <c r="F1034" s="16">
-        <v>107193888.61984299</v>
+        <v>107193889</v>
       </c>
     </row>
     <row r="1035" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21305,7 +21306,7 @@
         <v>9</v>
       </c>
       <c r="F1035" s="16">
-        <v>38063825.73483</v>
+        <v>38063826</v>
       </c>
     </row>
     <row r="1036" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21325,7 +21326,7 @@
         <v>24</v>
       </c>
       <c r="F1036" s="16">
-        <v>32376033.999970004</v>
+        <v>32376034</v>
       </c>
     </row>
     <row r="1037" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21345,7 +21346,7 @@
         <v>21</v>
       </c>
       <c r="F1037" s="16">
-        <v>304174767.16251898</v>
+        <v>304174983</v>
       </c>
     </row>
     <row r="1038" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21365,7 +21366,7 @@
         <v>9</v>
       </c>
       <c r="F1038" s="16">
-        <v>11980339.355153998</v>
+        <v>11980664</v>
       </c>
     </row>
     <row r="1039" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21405,7 +21406,7 @@
         <v>21</v>
       </c>
       <c r="F1040" s="16">
-        <v>27543402.759105999</v>
+        <v>27542349</v>
       </c>
     </row>
     <row r="1041" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21425,7 +21426,7 @@
         <v>9</v>
       </c>
       <c r="F1041" s="16">
-        <v>4962649.280710998</v>
+        <v>4962547</v>
       </c>
     </row>
     <row r="1042" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21445,7 +21446,7 @@
         <v>21</v>
       </c>
       <c r="F1042" s="16">
-        <v>113186952.692123</v>
+        <v>113186953</v>
       </c>
     </row>
     <row r="1043" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21465,7 +21466,7 @@
         <v>9</v>
       </c>
       <c r="F1043" s="16">
-        <v>40705178.237537004</v>
+        <v>40705178</v>
       </c>
     </row>
     <row r="1044" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21485,7 +21486,7 @@
         <v>24</v>
       </c>
       <c r="F1044" s="16">
-        <v>33665424.000035003</v>
+        <v>33665424</v>
       </c>
     </row>
     <row r="1045" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21505,7 +21506,7 @@
         <v>21</v>
       </c>
       <c r="F1045" s="16">
-        <v>293308900.675798</v>
+        <v>293308985</v>
       </c>
     </row>
     <row r="1046" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21525,7 +21526,7 @@
         <v>9</v>
       </c>
       <c r="F1046" s="16">
-        <v>11540836.445371002</v>
+        <v>11541119</v>
       </c>
     </row>
     <row r="1047" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21565,7 +21566,7 @@
         <v>21</v>
       </c>
       <c r="F1048" s="16">
-        <v>26331206.514517002</v>
+        <v>26330264</v>
       </c>
     </row>
     <row r="1049" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21585,7 +21586,7 @@
         <v>9</v>
       </c>
       <c r="F1049" s="16">
-        <v>4753132.1437110007</v>
+        <v>4753060</v>
       </c>
     </row>
     <row r="1050" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21605,7 +21606,7 @@
         <v>21</v>
       </c>
       <c r="F1050" s="16">
-        <v>112085672.787194</v>
+        <v>112085673</v>
       </c>
     </row>
     <row r="1051" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21625,7 +21626,7 @@
         <v>9</v>
       </c>
       <c r="F1051" s="16">
-        <v>41536255.180800997</v>
+        <v>41536255</v>
       </c>
     </row>
     <row r="1052" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21645,7 +21646,7 @@
         <v>24</v>
       </c>
       <c r="F1052" s="16">
-        <v>32510560.999957003</v>
+        <v>32510561</v>
       </c>
     </row>
     <row r="1053" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21665,7 +21666,7 @@
         <v>21</v>
       </c>
       <c r="F1053" s="16">
-        <v>293493261.73117089</v>
+        <v>293493112</v>
       </c>
     </row>
     <row r="1054" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21685,7 +21686,7 @@
         <v>9</v>
       </c>
       <c r="F1054" s="16">
-        <v>11815558.450060001</v>
+        <v>11815816</v>
       </c>
     </row>
     <row r="1055" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21725,7 +21726,7 @@
         <v>21</v>
       </c>
       <c r="F1056" s="16">
-        <v>26010815.002430003</v>
+        <v>26009912</v>
       </c>
     </row>
     <row r="1057" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21745,7 +21746,7 @@
         <v>9</v>
       </c>
       <c r="F1057" s="16">
-        <v>4686037.2157909991</v>
+        <v>4686005</v>
       </c>
     </row>
     <row r="1058" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21765,7 +21766,7 @@
         <v>21</v>
       </c>
       <c r="F1058" s="16">
-        <v>107846208.51706901</v>
+        <v>107846209</v>
       </c>
     </row>
     <row r="1059" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21785,7 +21786,7 @@
         <v>9</v>
       </c>
       <c r="F1059" s="16">
-        <v>42113286.416014999</v>
+        <v>42113286</v>
       </c>
     </row>
     <row r="1060" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21805,7 +21806,7 @@
         <v>24</v>
       </c>
       <c r="F1060" s="16">
-        <v>34790955.000010006</v>
+        <v>34790955</v>
       </c>
     </row>
     <row r="1061" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21825,7 +21826,7 @@
         <v>21</v>
       </c>
       <c r="F1061" s="16">
-        <v>296064816.0367741</v>
+        <v>296064232</v>
       </c>
     </row>
     <row r="1062" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21845,7 +21846,7 @@
         <v>9</v>
       </c>
       <c r="F1062" s="16">
-        <v>12193578.133272007</v>
+        <v>12193627</v>
       </c>
     </row>
     <row r="1063" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21885,7 +21886,7 @@
         <v>21</v>
       </c>
       <c r="F1064" s="16">
-        <v>26553183.928378999</v>
+        <v>26552069</v>
       </c>
     </row>
     <row r="1065" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21905,7 +21906,7 @@
         <v>9</v>
       </c>
       <c r="F1065" s="16">
-        <v>4675187.4918150008</v>
+        <v>4675110</v>
       </c>
     </row>
     <row r="1066" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21925,7 +21926,7 @@
         <v>21</v>
       </c>
       <c r="F1066" s="16">
-        <v>100353786.836458</v>
+        <v>100353787</v>
       </c>
     </row>
     <row r="1067" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21945,7 +21946,7 @@
         <v>9</v>
       </c>
       <c r="F1067" s="16">
-        <v>38741320.727371</v>
+        <v>38741321</v>
       </c>
     </row>
     <row r="1068" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21965,7 +21966,7 @@
         <v>24</v>
       </c>
       <c r="F1068" s="16">
-        <v>29682030.000037</v>
+        <v>29682030</v>
       </c>
     </row>
     <row r="1069" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -21985,7 +21986,7 @@
         <v>21</v>
       </c>
       <c r="F1069" s="16">
-        <v>268944131.47235101</v>
+        <v>268943585</v>
       </c>
     </row>
     <row r="1070" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22005,7 +22006,7 @@
         <v>9</v>
       </c>
       <c r="F1070" s="16">
-        <v>11279136.818231001</v>
+        <v>11279130</v>
       </c>
     </row>
     <row r="1071" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22045,7 +22046,7 @@
         <v>21</v>
       </c>
       <c r="F1072" s="16">
-        <v>24596198.323601998</v>
+        <v>24594984</v>
       </c>
     </row>
     <row r="1073" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22065,7 +22066,7 @@
         <v>9</v>
       </c>
       <c r="F1073" s="16">
-        <v>4397238.411940001</v>
+        <v>4397210</v>
       </c>
     </row>
     <row r="1074" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22085,7 +22086,7 @@
         <v>21</v>
       </c>
       <c r="F1074" s="16">
-        <v>110288974.260114</v>
+        <v>110288974</v>
       </c>
     </row>
     <row r="1075" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22105,7 +22106,7 @@
         <v>9</v>
       </c>
       <c r="F1075" s="16">
-        <v>42350145.641520999</v>
+        <v>42350146</v>
       </c>
     </row>
     <row r="1076" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22125,7 +22126,7 @@
         <v>24</v>
       </c>
       <c r="F1076" s="16">
-        <v>34623327.000015005</v>
+        <v>34623327</v>
       </c>
     </row>
     <row r="1077" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22145,7 +22146,7 @@
         <v>21</v>
       </c>
       <c r="F1077" s="16">
-        <v>299910074.09633005</v>
+        <v>299909499</v>
       </c>
     </row>
     <row r="1078" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22165,7 +22166,7 @@
         <v>9</v>
       </c>
       <c r="F1078" s="16">
-        <v>12848041.590372998</v>
+        <v>12848090</v>
       </c>
     </row>
     <row r="1079" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22205,7 +22206,7 @@
         <v>21</v>
       </c>
       <c r="F1080" s="16">
-        <v>27389227.851270992</v>
+        <v>27388013</v>
       </c>
     </row>
     <row r="1081" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22225,7 +22226,7 @@
         <v>9</v>
       </c>
       <c r="F1081" s="16">
-        <v>4861568.5812109988</v>
+        <v>4861478</v>
       </c>
     </row>
     <row r="1082" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22245,7 +22246,7 @@
         <v>21</v>
       </c>
       <c r="F1082" s="16">
-        <v>110515333.04115</v>
+        <v>110515333</v>
       </c>
     </row>
     <row r="1083" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22265,7 +22266,7 @@
         <v>9</v>
       </c>
       <c r="F1083" s="16">
-        <v>44227659.692226999</v>
+        <v>44227660</v>
       </c>
     </row>
     <row r="1084" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22285,7 +22286,7 @@
         <v>24</v>
       </c>
       <c r="F1084" s="16">
-        <v>32988347.999998</v>
+        <v>32988348</v>
       </c>
     </row>
     <row r="1085" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22305,7 +22306,7 @@
         <v>21</v>
       </c>
       <c r="F1085" s="16">
-        <v>288567155.08951396</v>
+        <v>288566433</v>
       </c>
     </row>
     <row r="1086" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22325,7 +22326,7 @@
         <v>9</v>
       </c>
       <c r="F1086" s="16">
-        <v>12613152.887225004</v>
+        <v>12613127</v>
       </c>
     </row>
     <row r="1087" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22365,7 +22366,7 @@
         <v>21</v>
       </c>
       <c r="F1088" s="16">
-        <v>27036787.837854002</v>
+        <v>27035770</v>
       </c>
     </row>
     <row r="1089" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22385,7 +22386,7 @@
         <v>9</v>
       </c>
       <c r="F1089" s="16">
-        <v>4877203.686702</v>
+        <v>4877199</v>
       </c>
     </row>
     <row r="1090" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22405,7 +22406,7 @@
         <v>21</v>
       </c>
       <c r="F1090" s="16">
-        <v>116214819.67607</v>
+        <v>116214820</v>
       </c>
     </row>
     <row r="1091" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22425,7 +22426,7 @@
         <v>9</v>
       </c>
       <c r="F1091" s="16">
-        <v>45565727.487454996</v>
+        <v>45565727</v>
       </c>
     </row>
     <row r="1092" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22445,7 +22446,7 @@
         <v>24</v>
       </c>
       <c r="F1092" s="16">
-        <v>34429428.000032999</v>
+        <v>34429428</v>
       </c>
     </row>
     <row r="1093" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22465,7 +22466,7 @@
         <v>21</v>
       </c>
       <c r="F1093" s="16">
-        <v>294914861.2282179</v>
+        <v>294914111</v>
       </c>
     </row>
     <row r="1094" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22485,7 +22486,7 @@
         <v>9</v>
       </c>
       <c r="F1094" s="16">
-        <v>13011580.120157007</v>
+        <v>13011499</v>
       </c>
     </row>
     <row r="1095" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22525,7 +22526,7 @@
         <v>21</v>
       </c>
       <c r="F1096" s="16">
-        <v>27599560.076247998</v>
+        <v>27598542</v>
       </c>
     </row>
     <row r="1097" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22545,7 +22546,7 @@
         <v>9</v>
       </c>
       <c r="F1097" s="16">
-        <v>5146923.6793809989</v>
+        <v>5146921</v>
       </c>
     </row>
     <row r="1098" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22565,7 +22566,7 @@
         <v>21</v>
       </c>
       <c r="F1098" s="16">
-        <v>112392504.95969</v>
+        <v>112392505</v>
       </c>
     </row>
     <row r="1099" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22585,7 +22586,7 @@
         <v>9</v>
       </c>
       <c r="F1099" s="16">
-        <v>44049248.402836002</v>
+        <v>44049248</v>
       </c>
     </row>
     <row r="1100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22605,7 +22606,7 @@
         <v>24</v>
       </c>
       <c r="F1100" s="16">
-        <v>33330149.999963</v>
+        <v>33330150</v>
       </c>
     </row>
     <row r="1101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22625,7 +22626,7 @@
         <v>21</v>
       </c>
       <c r="F1101" s="16">
-        <v>286016673.50380206</v>
+        <v>286016001</v>
       </c>
     </row>
     <row r="1102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22645,7 +22646,7 @@
         <v>9</v>
       </c>
       <c r="F1102" s="16">
-        <v>12773784.989947001</v>
+        <v>12773773</v>
       </c>
     </row>
     <row r="1103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22685,7 +22686,7 @@
         <v>21</v>
       </c>
       <c r="F1104" s="16">
-        <v>26717746.072890997</v>
+        <v>26710191</v>
       </c>
     </row>
     <row r="1105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22705,7 +22706,7 @@
         <v>9</v>
       </c>
       <c r="F1105" s="16">
-        <v>5228941.8741889996</v>
+        <v>5228672</v>
       </c>
     </row>
     <row r="1106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22725,7 +22726,7 @@
         <v>21</v>
       </c>
       <c r="F1106" s="16">
-        <v>115128990.02036099</v>
+        <v>115128990</v>
       </c>
     </row>
     <row r="1107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22745,7 +22746,7 @@
         <v>9</v>
       </c>
       <c r="F1107" s="16">
-        <v>45970675.340062998</v>
+        <v>45970675</v>
       </c>
     </row>
     <row r="1108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22765,7 +22766,7 @@
         <v>24</v>
       </c>
       <c r="F1108" s="16">
-        <v>35490508.999975994</v>
+        <v>35490509</v>
       </c>
     </row>
     <row r="1109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22785,7 +22786,7 @@
         <v>21</v>
       </c>
       <c r="F1109" s="16">
-        <v>293331481.87296504</v>
+        <v>293330553</v>
       </c>
     </row>
     <row r="1110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22805,7 +22806,7 @@
         <v>9</v>
       </c>
       <c r="F1110" s="16">
-        <v>13497378.186245007</v>
+        <v>13497349</v>
       </c>
     </row>
     <row r="1111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22845,7 +22846,7 @@
         <v>21</v>
       </c>
       <c r="F1112" s="16">
-        <v>27640806.364372</v>
+        <v>27638903</v>
       </c>
     </row>
     <row r="1113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22865,7 +22866,7 @@
         <v>9</v>
       </c>
       <c r="F1113" s="16">
-        <v>5248720.2832300002</v>
+        <v>5248460</v>
       </c>
     </row>
     <row r="1114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22885,7 +22886,7 @@
         <v>21</v>
       </c>
       <c r="F1114" s="16">
-        <v>116133159.20436901</v>
+        <v>116133159</v>
       </c>
     </row>
     <row r="1115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22905,7 +22906,7 @@
         <v>9</v>
       </c>
       <c r="F1115" s="16">
-        <v>46294943.886173002</v>
+        <v>46294944</v>
       </c>
     </row>
     <row r="1116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22925,7 +22926,7 @@
         <v>24</v>
       </c>
       <c r="F1116" s="16">
-        <v>36037152.999962002</v>
+        <v>36037153</v>
       </c>
     </row>
     <row r="1117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22945,7 +22946,7 @@
         <v>21</v>
       </c>
       <c r="F1117" s="16">
-        <v>288331511.77331799</v>
+        <v>288384607</v>
       </c>
     </row>
     <row r="1118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -22965,7 +22966,7 @@
         <v>9</v>
       </c>
       <c r="F1118" s="16">
-        <v>13349208.545101</v>
+        <v>13353895</v>
       </c>
     </row>
     <row r="1119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23005,7 +23006,7 @@
         <v>21</v>
       </c>
       <c r="F1120" s="16">
-        <v>28316175.106529001</v>
+        <v>28314195</v>
       </c>
     </row>
     <row r="1121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23025,7 +23026,7 @@
         <v>9</v>
       </c>
       <c r="F1121" s="16">
-        <v>5532256.0572630018</v>
+        <v>5531932</v>
       </c>
     </row>
     <row r="1122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23045,7 +23046,7 @@
         <v>21</v>
       </c>
       <c r="F1122" s="16">
-        <v>111796204.174447</v>
+        <v>111796204</v>
       </c>
     </row>
     <row r="1123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23065,7 +23066,7 @@
         <v>9</v>
       </c>
       <c r="F1123" s="16">
-        <v>44311099.726967998</v>
+        <v>44311100</v>
       </c>
     </row>
     <row r="1124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23085,7 +23086,7 @@
         <v>24</v>
       </c>
       <c r="F1124" s="16">
-        <v>32763628.999964003</v>
+        <v>32763629</v>
       </c>
     </row>
     <row r="1125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23105,7 +23106,7 @@
         <v>21</v>
       </c>
       <c r="F1125" s="16">
-        <v>283821223.95010495</v>
+        <v>283820644</v>
       </c>
     </row>
     <row r="1126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23125,7 +23126,7 @@
         <v>9</v>
       </c>
       <c r="F1126" s="16">
-        <v>12969097.748512994</v>
+        <v>12969048</v>
       </c>
     </row>
     <row r="1127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23165,7 +23166,7 @@
         <v>21</v>
       </c>
       <c r="F1128" s="16">
-        <v>26971839.641646996</v>
+        <v>26963868</v>
       </c>
     </row>
     <row r="1129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23185,7 +23186,7 @@
         <v>9</v>
       </c>
       <c r="F1129" s="16">
-        <v>5374095.1356840003</v>
+        <v>5373820</v>
       </c>
     </row>
     <row r="1130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23205,7 +23206,7 @@
         <v>21</v>
       </c>
       <c r="F1130" s="16">
-        <v>116050795.98520601</v>
+        <v>116050796</v>
       </c>
     </row>
     <row r="1131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23225,7 +23226,7 @@
         <v>9</v>
       </c>
       <c r="F1131" s="16">
-        <v>45952554.873251997</v>
+        <v>45952555</v>
       </c>
     </row>
     <row r="1132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23245,7 +23246,7 @@
         <v>24</v>
       </c>
       <c r="F1132" s="16">
-        <v>35706814.999958992</v>
+        <v>35706815</v>
       </c>
     </row>
     <row r="1133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23265,7 +23266,7 @@
         <v>21</v>
       </c>
       <c r="F1133" s="16">
-        <v>292903811.22646701</v>
+        <v>292902990</v>
       </c>
     </row>
     <row r="1134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23285,7 +23286,7 @@
         <v>9</v>
       </c>
       <c r="F1134" s="16">
-        <v>14161861.645509996</v>
+        <v>14161829</v>
       </c>
     </row>
     <row r="1135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23325,7 +23326,7 @@
         <v>21</v>
       </c>
       <c r="F1136" s="16">
-        <v>27162143.954810999</v>
+        <v>27160978</v>
       </c>
     </row>
     <row r="1137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23345,7 +23346,7 @@
         <v>9</v>
       </c>
       <c r="F1137" s="16">
-        <v>5428006.113225</v>
+        <v>5427653</v>
       </c>
     </row>
     <row r="1138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23365,7 +23366,7 @@
         <v>21</v>
       </c>
       <c r="F1138" s="16">
-        <v>106704551.60611601</v>
+        <v>106704552</v>
       </c>
     </row>
     <row r="1139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23385,7 +23386,7 @@
         <v>9</v>
       </c>
       <c r="F1139" s="16">
-        <v>43283388.843279995</v>
+        <v>43283389</v>
       </c>
     </row>
     <row r="1140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23405,7 +23406,7 @@
         <v>24</v>
       </c>
       <c r="F1140" s="16">
-        <v>34749343.000023998</v>
+        <v>34749343</v>
       </c>
     </row>
     <row r="1141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23425,7 +23426,7 @@
         <v>21</v>
       </c>
       <c r="F1141" s="16">
-        <v>286046731.06181097</v>
+        <v>286045696</v>
       </c>
     </row>
     <row r="1142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23445,7 +23446,7 @@
         <v>9</v>
       </c>
       <c r="F1142" s="16">
-        <v>13790766.510795001</v>
+        <v>13790643</v>
       </c>
     </row>
     <row r="1143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23485,7 +23486,7 @@
         <v>21</v>
       </c>
       <c r="F1144" s="16">
-        <v>26283675.108383</v>
+        <v>26281476</v>
       </c>
     </row>
     <row r="1145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23505,7 +23506,7 @@
         <v>9</v>
       </c>
       <c r="F1145" s="16">
-        <v>5309468.656405</v>
+        <v>5309208</v>
       </c>
     </row>
     <row r="1146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23525,7 +23526,7 @@
         <v>21</v>
       </c>
       <c r="F1146" s="16">
-        <v>113023884.22396199</v>
+        <v>113023884</v>
       </c>
     </row>
     <row r="1147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23545,7 +23546,7 @@
         <v>9</v>
       </c>
       <c r="F1147" s="16">
-        <v>46728294.552919</v>
+        <v>46728295</v>
       </c>
     </row>
     <row r="1148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23565,7 +23566,7 @@
         <v>24</v>
       </c>
       <c r="F1148" s="16">
-        <v>34896430.000053003</v>
+        <v>34896430</v>
       </c>
     </row>
     <row r="1149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23585,7 +23586,7 @@
         <v>21</v>
       </c>
       <c r="F1149" s="16">
-        <v>293368916.54967278</v>
+        <v>293368238</v>
       </c>
     </row>
     <row r="1150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23605,7 +23606,7 @@
         <v>9</v>
       </c>
       <c r="F1150" s="16">
-        <v>14793742.499654999</v>
+        <v>14793680</v>
       </c>
     </row>
     <row r="1151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23645,7 +23646,7 @@
         <v>21</v>
       </c>
       <c r="F1152" s="16">
-        <v>27032171.233003996</v>
+        <v>27030667</v>
       </c>
     </row>
     <row r="1153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23665,7 +23666,7 @@
         <v>9</v>
       </c>
       <c r="F1153" s="16">
-        <v>5368804.4807050005</v>
+        <v>5368609</v>
       </c>
     </row>
     <row r="1154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23685,7 +23686,7 @@
         <v>21</v>
       </c>
       <c r="F1154" s="16">
-        <v>113368533.285667</v>
+        <v>113368533</v>
       </c>
     </row>
     <row r="1155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23705,7 +23706,7 @@
         <v>9</v>
       </c>
       <c r="F1155" s="16">
-        <v>46704327.598667994</v>
+        <v>46704328</v>
       </c>
     </row>
     <row r="1156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23725,7 +23726,7 @@
         <v>24</v>
       </c>
       <c r="F1156" s="16">
-        <v>35837786.000030003</v>
+        <v>35837786</v>
       </c>
     </row>
     <row r="1157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23745,7 +23746,7 @@
         <v>21</v>
       </c>
       <c r="F1157" s="16">
-        <v>288832113.972197</v>
+        <v>288831289</v>
       </c>
     </row>
     <row r="1158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23765,7 +23766,7 @@
         <v>9</v>
       </c>
       <c r="F1158" s="16">
-        <v>14738290.400831006</v>
+        <v>14738204</v>
       </c>
     </row>
     <row r="1159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23805,7 +23806,7 @@
         <v>21</v>
       </c>
       <c r="F1160" s="16">
-        <v>26619847.938186999</v>
+        <v>26618435</v>
       </c>
     </row>
     <row r="1161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23825,7 +23826,7 @@
         <v>9</v>
       </c>
       <c r="F1161" s="16">
-        <v>5396083.6345800031</v>
+        <v>5395845</v>
       </c>
     </row>
     <row r="1162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23845,7 +23846,7 @@
         <v>21</v>
       </c>
       <c r="F1162" s="16">
-        <v>100575792.62551001</v>
+        <v>100575793</v>
       </c>
     </row>
     <row r="1163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23865,7 +23866,7 @@
         <v>9</v>
       </c>
       <c r="F1163" s="16">
-        <v>42328032.006398998</v>
+        <v>42328032</v>
       </c>
     </row>
     <row r="1164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23885,7 +23886,7 @@
         <v>24</v>
       </c>
       <c r="F1164" s="16">
-        <v>30718491.999961004</v>
+        <v>30718492</v>
       </c>
     </row>
     <row r="1165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23905,7 +23906,7 @@
         <v>21</v>
       </c>
       <c r="F1165" s="16">
-        <v>263069128.41048911</v>
+        <v>263068208</v>
       </c>
     </row>
     <row r="1166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23925,7 +23926,7 @@
         <v>9</v>
       </c>
       <c r="F1166" s="16">
-        <v>13670928.256238004</v>
+        <v>13670872</v>
       </c>
     </row>
     <row r="1167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23965,7 +23966,7 @@
         <v>21</v>
       </c>
       <c r="F1168" s="16">
-        <v>23950894.331626002</v>
+        <v>23950209</v>
       </c>
     </row>
     <row r="1169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -23985,7 +23986,7 @@
         <v>9</v>
       </c>
       <c r="F1169" s="16">
-        <v>5026289.9377500014</v>
+        <v>5026034</v>
       </c>
     </row>
     <row r="1170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24005,7 +24006,7 @@
         <v>21</v>
       </c>
       <c r="F1170" s="16">
-        <v>101933458.84705801</v>
+        <v>101933459</v>
       </c>
     </row>
     <row r="1171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24025,7 +24026,7 @@
         <v>9</v>
       </c>
       <c r="F1171" s="16">
-        <v>44235889.072250001</v>
+        <v>44235889</v>
       </c>
     </row>
     <row r="1172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24045,7 +24046,7 @@
         <v>24</v>
       </c>
       <c r="F1172" s="16">
-        <v>32855558.000018999</v>
+        <v>32855558</v>
       </c>
     </row>
     <row r="1173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24065,7 +24066,7 @@
         <v>21</v>
       </c>
       <c r="F1173" s="16">
-        <v>294850235.34614205</v>
+        <v>294849282</v>
       </c>
     </row>
     <row r="1174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24085,7 +24086,7 @@
         <v>9</v>
       </c>
       <c r="F1174" s="16">
-        <v>15815355.800939003</v>
+        <v>15815579</v>
       </c>
     </row>
     <row r="1175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24125,7 +24126,7 @@
         <v>21</v>
       </c>
       <c r="F1176" s="16">
-        <v>26923636.816959996</v>
+        <v>26921649</v>
       </c>
     </row>
     <row r="1177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24145,7 +24146,7 @@
         <v>9</v>
       </c>
       <c r="F1177" s="16">
-        <v>5571268.6997409994</v>
+        <v>5570918</v>
       </c>
     </row>
     <row r="1178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24165,7 +24166,7 @@
         <v>21</v>
       </c>
       <c r="F1178" s="16">
-        <v>113011169.23212299</v>
+        <v>113011169</v>
       </c>
     </row>
     <row r="1179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24185,7 +24186,7 @@
         <v>9</v>
       </c>
       <c r="F1179" s="16">
-        <v>46465743.965084001</v>
+        <v>46465744</v>
       </c>
     </row>
     <row r="1180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24205,7 +24206,7 @@
         <v>24</v>
       </c>
       <c r="F1180" s="16">
-        <v>28846112.000014998</v>
+        <v>28846112</v>
       </c>
     </row>
     <row r="1181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24225,7 +24226,7 @@
         <v>21</v>
       </c>
       <c r="F1181" s="16">
-        <v>287766436.98331392</v>
+        <v>287765230</v>
       </c>
     </row>
     <row r="1182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24245,7 +24246,7 @@
         <v>9</v>
       </c>
       <c r="F1182" s="16">
-        <v>15386288.921147998</v>
+        <v>15386232</v>
       </c>
     </row>
     <row r="1183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24285,7 +24286,7 @@
         <v>21</v>
       </c>
       <c r="F1184" s="16">
-        <v>25615168.518771995</v>
+        <v>25612801</v>
       </c>
     </row>
     <row r="1185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24305,7 +24306,7 @@
         <v>9</v>
       </c>
       <c r="F1185" s="16">
-        <v>5020068.0231260005</v>
+        <v>5019686</v>
       </c>
     </row>
     <row r="1186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24325,7 +24326,7 @@
         <v>21</v>
       </c>
       <c r="F1186" s="16">
-        <v>117142653.19946201</v>
+        <v>117142653</v>
       </c>
     </row>
     <row r="1187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24345,7 +24346,7 @@
         <v>9</v>
       </c>
       <c r="F1187" s="16">
-        <v>45003421.359268002</v>
+        <v>45003421</v>
       </c>
     </row>
     <row r="1188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24365,7 +24366,7 @@
         <v>24</v>
       </c>
       <c r="F1188" s="16">
-        <v>27400394.000018001</v>
+        <v>27400394</v>
       </c>
     </row>
     <row r="1189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24385,7 +24386,7 @@
         <v>21</v>
       </c>
       <c r="F1189" s="16">
-        <v>292461382.38097203</v>
+        <v>292460144</v>
       </c>
     </row>
     <row r="1190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24405,7 +24406,7 @@
         <v>9</v>
       </c>
       <c r="F1190" s="16">
-        <v>15604996.105019996</v>
+        <v>15604939</v>
       </c>
     </row>
     <row r="1191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24445,7 +24446,7 @@
         <v>21</v>
       </c>
       <c r="F1192" s="16">
-        <v>26276972.969977006</v>
+        <v>26273773</v>
       </c>
     </row>
     <row r="1193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24465,7 +24466,7 @@
         <v>9</v>
       </c>
       <c r="F1193" s="16">
-        <v>5071369.8079890013</v>
+        <v>5071001</v>
       </c>
     </row>
     <row r="1194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24485,7 +24486,7 @@
         <v>21</v>
       </c>
       <c r="F1194" s="16">
-        <v>109720004.017243</v>
+        <v>109720004</v>
       </c>
     </row>
     <row r="1195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24505,7 +24506,7 @@
         <v>9</v>
       </c>
       <c r="F1195" s="16">
-        <v>43143701.712831005</v>
+        <v>43143702</v>
       </c>
     </row>
     <row r="1196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24525,7 +24526,7 @@
         <v>24</v>
       </c>
       <c r="F1196" s="16">
-        <v>28418281.999994002</v>
+        <v>28418282</v>
       </c>
     </row>
     <row r="1197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24545,7 +24546,7 @@
         <v>21</v>
       </c>
       <c r="F1197" s="16">
-        <v>283384471.13845199</v>
+        <v>283383414</v>
       </c>
     </row>
     <row r="1198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24565,7 +24566,7 @@
         <v>9</v>
       </c>
       <c r="F1198" s="16">
-        <v>15191581.484477002</v>
+        <v>15191532</v>
       </c>
     </row>
     <row r="1199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24605,7 +24606,7 @@
         <v>21</v>
       </c>
       <c r="F1200" s="16">
-        <v>25127586.550902002</v>
+        <v>25125315</v>
       </c>
     </row>
     <row r="1201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24625,7 +24626,7 @@
         <v>9</v>
       </c>
       <c r="F1201" s="16">
-        <v>5107443.1586039998</v>
+        <v>5107135</v>
       </c>
     </row>
     <row r="1202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24645,7 +24646,7 @@
         <v>21</v>
       </c>
       <c r="F1202" s="16">
-        <v>121188043.64065999</v>
+        <v>121188044</v>
       </c>
     </row>
     <row r="1203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24665,7 +24666,7 @@
         <v>9</v>
       </c>
       <c r="F1203" s="16">
-        <v>49229007.287163004</v>
+        <v>49229007</v>
       </c>
     </row>
     <row r="1204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24685,7 +24686,7 @@
         <v>24</v>
       </c>
       <c r="F1204" s="16">
-        <v>32434763.000008002</v>
+        <v>32434763</v>
       </c>
     </row>
     <row r="1205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24705,7 +24706,7 @@
         <v>21</v>
       </c>
       <c r="F1205" s="16">
-        <v>289771001.18496203</v>
+        <v>289770005</v>
       </c>
     </row>
     <row r="1206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24725,7 +24726,7 @@
         <v>9</v>
       </c>
       <c r="F1206" s="16">
-        <v>15217082.003266001</v>
+        <v>15216829</v>
       </c>
     </row>
     <row r="1207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24765,7 +24766,7 @@
         <v>21</v>
       </c>
       <c r="F1208" s="16">
-        <v>27068014.000092</v>
+        <v>27065491</v>
       </c>
     </row>
     <row r="1209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24785,7 +24786,7 @@
         <v>9</v>
       </c>
       <c r="F1209" s="16">
-        <v>5542930.3301609997</v>
+        <v>5542564</v>
       </c>
     </row>
     <row r="1210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24805,7 +24806,7 @@
         <v>21</v>
       </c>
       <c r="F1210" s="16">
-        <v>123314264.88983801</v>
+        <v>123314265</v>
       </c>
     </row>
     <row r="1211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24825,7 +24826,7 @@
         <v>9</v>
       </c>
       <c r="F1211" s="16">
-        <v>51147490.746220998</v>
+        <v>51147491</v>
       </c>
     </row>
     <row r="1212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24845,7 +24846,7 @@
         <v>24</v>
       </c>
       <c r="F1212" s="16">
-        <v>35097309.000054009</v>
+        <v>35097309</v>
       </c>
     </row>
     <row r="1213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24865,7 +24866,7 @@
         <v>21</v>
       </c>
       <c r="F1213" s="16">
-        <v>289657803.49413794</v>
+        <v>289656733</v>
       </c>
     </row>
     <row r="1214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24885,7 +24886,7 @@
         <v>9</v>
       </c>
       <c r="F1214" s="16">
-        <v>15062248.847534997</v>
+        <v>15062210</v>
       </c>
     </row>
     <row r="1215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24925,7 +24926,7 @@
         <v>21</v>
       </c>
       <c r="F1216" s="16">
-        <v>27051795.190002006</v>
+        <v>27049517</v>
       </c>
     </row>
     <row r="1217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24945,7 +24946,7 @@
         <v>9</v>
       </c>
       <c r="F1217" s="16">
-        <v>5516552.8602630012</v>
+        <v>5516217</v>
       </c>
     </row>
     <row r="1218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24965,7 +24966,7 @@
         <v>21</v>
       </c>
       <c r="F1218" s="16">
-        <v>120441528.836559</v>
+        <v>120441529</v>
       </c>
     </row>
     <row r="1219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -24985,7 +24986,7 @@
         <v>9</v>
       </c>
       <c r="F1219" s="16">
-        <v>50452516.488659002</v>
+        <v>50452516</v>
       </c>
     </row>
     <row r="1220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25005,7 +25006,7 @@
         <v>24</v>
       </c>
       <c r="F1220" s="16">
-        <v>32645633.000014003</v>
+        <v>32645633</v>
       </c>
     </row>
     <row r="1221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25025,7 +25026,7 @@
         <v>21</v>
       </c>
       <c r="F1221" s="16">
-        <v>281465936.16961497</v>
+        <v>281465518</v>
       </c>
     </row>
     <row r="1222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25045,7 +25046,7 @@
         <v>9</v>
       </c>
       <c r="F1222" s="16">
-        <v>14441706.354016995</v>
+        <v>14441757</v>
       </c>
     </row>
     <row r="1223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25085,7 +25086,7 @@
         <v>21</v>
       </c>
       <c r="F1224" s="16">
-        <v>26072576.858539999</v>
+        <v>26069592</v>
       </c>
     </row>
     <row r="1225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25105,7 +25106,7 @@
         <v>9</v>
       </c>
       <c r="F1225" s="16">
-        <v>5215521.5741280019</v>
+        <v>5215219</v>
       </c>
     </row>
     <row r="1226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25125,7 +25126,7 @@
         <v>21</v>
       </c>
       <c r="F1226" s="16">
-        <v>115302180.212446</v>
+        <v>115302180</v>
       </c>
     </row>
     <row r="1227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25145,7 +25146,7 @@
         <v>9</v>
       </c>
       <c r="F1227" s="16">
-        <v>49586305.180120997</v>
+        <v>49586305</v>
       </c>
     </row>
     <row r="1228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25165,7 +25166,7 @@
         <v>24</v>
       </c>
       <c r="F1228" s="16">
-        <v>34933375.000005998</v>
+        <v>34933375</v>
       </c>
     </row>
     <row r="1229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25185,7 +25186,7 @@
         <v>21</v>
       </c>
       <c r="F1229" s="16">
-        <v>289594629.13253707</v>
+        <v>289593822</v>
       </c>
     </row>
     <row r="1230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25205,7 +25206,7 @@
         <v>9</v>
       </c>
       <c r="F1230" s="16">
-        <v>14695958.209552001</v>
+        <v>14695984</v>
       </c>
     </row>
     <row r="1231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25245,7 +25246,7 @@
         <v>21</v>
       </c>
       <c r="F1232" s="16">
-        <v>27684586.781888001</v>
+        <v>27682659</v>
       </c>
     </row>
     <row r="1233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25265,7 +25266,7 @@
         <v>9</v>
       </c>
       <c r="F1233" s="16">
-        <v>5414939.286123001</v>
+        <v>5414559</v>
       </c>
     </row>
     <row r="1234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25285,7 +25286,7 @@
         <v>21</v>
       </c>
       <c r="F1234" s="16">
-        <v>105588645.266826</v>
+        <v>105588645</v>
       </c>
     </row>
     <row r="1235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25305,7 +25306,7 @@
         <v>9</v>
       </c>
       <c r="F1235" s="16">
-        <v>46341443.444148995</v>
+        <v>46341443</v>
       </c>
     </row>
     <row r="1236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25325,7 +25326,7 @@
         <v>24</v>
       </c>
       <c r="F1236" s="16">
-        <v>31907687.999956001</v>
+        <v>31907688</v>
       </c>
     </row>
     <row r="1237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25345,7 +25346,7 @@
         <v>21</v>
       </c>
       <c r="F1237" s="16">
-        <v>281671172.92383206</v>
+        <v>281670844</v>
       </c>
     </row>
     <row r="1238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25365,7 +25366,7 @@
         <v>9</v>
       </c>
       <c r="F1238" s="16">
-        <v>14447727.829052001</v>
+        <v>14447707</v>
       </c>
     </row>
     <row r="1239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25405,7 +25406,7 @@
         <v>21</v>
       </c>
       <c r="F1240" s="16">
-        <v>27042714.269896999</v>
+        <v>27040900</v>
       </c>
     </row>
     <row r="1241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25425,7 +25426,7 @@
         <v>9</v>
       </c>
       <c r="F1241" s="16">
-        <v>5335259.2384249987</v>
+        <v>5334910</v>
       </c>
     </row>
     <row r="1242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25445,7 +25446,7 @@
         <v>21</v>
       </c>
       <c r="F1242" s="16">
-        <v>112562781.00952199</v>
+        <v>112562781</v>
       </c>
     </row>
     <row r="1243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25465,7 +25466,7 @@
         <v>9</v>
       </c>
       <c r="F1243" s="16">
-        <v>50386805.708438002</v>
+        <v>50386806</v>
       </c>
     </row>
     <row r="1244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25485,7 +25486,7 @@
         <v>24</v>
       </c>
       <c r="F1244" s="16">
-        <v>24654377.999995999</v>
+        <v>24654378</v>
       </c>
     </row>
     <row r="1245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25505,7 +25506,7 @@
         <v>21</v>
       </c>
       <c r="F1245" s="16">
-        <v>283370178.78671598</v>
+        <v>283369699</v>
       </c>
     </row>
     <row r="1246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25525,7 +25526,7 @@
         <v>9</v>
       </c>
       <c r="F1246" s="16">
-        <v>13971558.448838001</v>
+        <v>13971501</v>
       </c>
     </row>
     <row r="1247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25565,7 +25566,7 @@
         <v>21</v>
       </c>
       <c r="F1248" s="16">
-        <v>27543806.192862004</v>
+        <v>27541377</v>
       </c>
     </row>
     <row r="1249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25585,7 +25586,7 @@
         <v>9</v>
       </c>
       <c r="F1249" s="16">
-        <v>5350673.0698389998</v>
+        <v>5350310</v>
       </c>
     </row>
     <row r="1250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25605,7 +25606,7 @@
         <v>21</v>
       </c>
       <c r="F1250" s="16">
-        <v>109568580.49722899</v>
+        <v>109568580</v>
       </c>
     </row>
     <row r="1251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25625,7 +25626,7 @@
         <v>9</v>
       </c>
       <c r="F1251" s="16">
-        <v>50020200.227683</v>
+        <v>50020200</v>
       </c>
     </row>
     <row r="1252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25645,7 +25646,7 @@
         <v>24</v>
       </c>
       <c r="F1252" s="16">
-        <v>22385252.000007</v>
+        <v>22385252</v>
       </c>
     </row>
     <row r="1253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25665,7 +25666,7 @@
         <v>21</v>
       </c>
       <c r="F1253" s="16">
-        <v>277576261.82725692</v>
+        <v>277576060</v>
       </c>
     </row>
     <row r="1254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25685,7 +25686,7 @@
         <v>9</v>
       </c>
       <c r="F1254" s="16">
-        <v>13992541.529766999</v>
+        <v>13992539</v>
       </c>
     </row>
     <row r="1255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25725,7 +25726,7 @@
         <v>21</v>
       </c>
       <c r="F1256" s="16">
-        <v>27440339.309206001</v>
+        <v>27438494</v>
       </c>
     </row>
     <row r="1257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25745,7 +25746,7 @@
         <v>9</v>
       </c>
       <c r="F1257" s="16">
-        <v>5229865.3423319999</v>
+        <v>5229426</v>
       </c>
     </row>
     <row r="1258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25765,7 +25766,7 @@
         <v>21</v>
       </c>
       <c r="F1258" s="16">
-        <v>101488564.39302501</v>
+        <v>101488564</v>
       </c>
     </row>
     <row r="1259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25785,7 +25786,7 @@
         <v>9</v>
       </c>
       <c r="F1259" s="16">
-        <v>45503442.580917999</v>
+        <v>45503443</v>
       </c>
     </row>
     <row r="1260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25805,7 +25806,7 @@
         <v>24</v>
       </c>
       <c r="F1260" s="16">
-        <v>21437740.999996003</v>
+        <v>21437741</v>
       </c>
     </row>
     <row r="1261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25825,7 +25826,7 @@
         <v>21</v>
       </c>
       <c r="F1261" s="16">
-        <v>261589156.35808691</v>
+        <v>261588959</v>
       </c>
     </row>
     <row r="1262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25845,7 +25846,7 @@
         <v>9</v>
       </c>
       <c r="F1262" s="16">
-        <v>13492901.968800999</v>
+        <v>13492966</v>
       </c>
     </row>
     <row r="1263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25885,7 +25886,7 @@
         <v>21</v>
       </c>
       <c r="F1264" s="16">
-        <v>25733987.282385997</v>
+        <v>25732238</v>
       </c>
     </row>
     <row r="1265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25905,7 +25906,7 @@
         <v>9</v>
       </c>
       <c r="F1265" s="16">
-        <v>4801213.8219650015</v>
+        <v>4800973</v>
       </c>
     </row>
     <row r="1266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25925,7 +25926,7 @@
         <v>21</v>
       </c>
       <c r="F1266" s="16">
-        <v>111858643.87056001</v>
+        <v>111858644</v>
       </c>
     </row>
     <row r="1267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25945,7 +25946,7 @@
         <v>9</v>
       </c>
       <c r="F1267" s="16">
-        <v>50565023.432708003</v>
+        <v>50565023</v>
       </c>
     </row>
     <row r="1268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25965,7 +25966,7 @@
         <v>24</v>
       </c>
       <c r="F1268" s="16">
-        <v>20238449.000011001</v>
+        <v>20238449</v>
       </c>
     </row>
     <row r="1269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -25985,7 +25986,7 @@
         <v>21</v>
       </c>
       <c r="F1269" s="16">
-        <v>282697940.22995007</v>
+        <v>282698458</v>
       </c>
     </row>
     <row r="1270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26005,7 +26006,7 @@
         <v>9</v>
       </c>
       <c r="F1270" s="16">
-        <v>14424372.532188</v>
+        <v>14424432</v>
       </c>
     </row>
     <row r="1271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26045,7 +26046,7 @@
         <v>21</v>
       </c>
       <c r="F1272" s="16">
-        <v>27692739.056483004</v>
+        <v>27691115</v>
       </c>
     </row>
     <row r="1273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26065,7 +26066,7 @@
         <v>9</v>
       </c>
       <c r="F1273" s="16">
-        <v>5347951.0347830011</v>
+        <v>5347747</v>
       </c>
     </row>
     <row r="1274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26085,7 +26086,7 @@
         <v>21</v>
       </c>
       <c r="F1274" s="16">
-        <v>102052853.01218399</v>
+        <v>102052853</v>
       </c>
     </row>
     <row r="1275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26105,7 +26106,7 @@
         <v>9</v>
       </c>
       <c r="F1275" s="16">
-        <v>47768826.417547002</v>
+        <v>47768826</v>
       </c>
     </row>
     <row r="1276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26125,7 +26126,7 @@
         <v>24</v>
       </c>
       <c r="F1276" s="16">
-        <v>18209082.000051003</v>
+        <v>18209082</v>
       </c>
     </row>
     <row r="1277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26145,7 +26146,7 @@
         <v>21</v>
       </c>
       <c r="F1277" s="16">
-        <v>270031051.08332109</v>
+        <v>270030909</v>
       </c>
     </row>
     <row r="1278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26165,7 +26166,7 @@
         <v>9</v>
       </c>
       <c r="F1278" s="16">
-        <v>13631778.820257999</v>
+        <v>13631772</v>
       </c>
     </row>
     <row r="1279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26205,7 +26206,7 @@
         <v>21</v>
       </c>
       <c r="F1280" s="16">
-        <v>26416242.467199996</v>
+        <v>26414648</v>
       </c>
     </row>
     <row r="1281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26225,7 +26226,7 @@
         <v>9</v>
       </c>
       <c r="F1281" s="16">
-        <v>4922275.1513660001</v>
+        <v>4921933</v>
       </c>
     </row>
     <row r="1282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26245,7 +26246,7 @@
         <v>21</v>
       </c>
       <c r="F1282" s="16">
-        <v>111068242.967499</v>
+        <v>111068243</v>
       </c>
     </row>
     <row r="1283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26265,7 +26266,7 @@
         <v>9</v>
       </c>
       <c r="F1283" s="16">
-        <v>50008165.544303</v>
+        <v>50008166</v>
       </c>
     </row>
     <row r="1284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26285,7 +26286,7 @@
         <v>24</v>
       </c>
       <c r="F1284" s="16">
-        <v>17466152.000010002</v>
+        <v>17466152</v>
       </c>
     </row>
     <row r="1285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26305,7 +26306,7 @@
         <v>21</v>
       </c>
       <c r="F1285" s="16">
-        <v>271736528.46316391</v>
+        <v>271735834</v>
       </c>
     </row>
     <row r="1286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26325,7 +26326,7 @@
         <v>9</v>
       </c>
       <c r="F1286" s="16">
-        <v>13680222.667602001</v>
+        <v>13680183</v>
       </c>
     </row>
     <row r="1287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26365,7 +26366,7 @@
         <v>21</v>
       </c>
       <c r="F1288" s="16">
-        <v>26941041.166640002</v>
+        <v>26939381</v>
       </c>
     </row>
     <row r="1289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26385,7 +26386,7 @@
         <v>9</v>
       </c>
       <c r="F1289" s="16">
-        <v>4895492.0981030008</v>
+        <v>4895192</v>
       </c>
     </row>
     <row r="1290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26405,7 +26406,7 @@
         <v>21</v>
       </c>
       <c r="F1290" s="16">
-        <v>97956949.507146999</v>
+        <v>97956950</v>
       </c>
     </row>
     <row r="1291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26425,7 +26426,7 @@
         <v>9</v>
       </c>
       <c r="F1291" s="16">
-        <v>47084648.281231001</v>
+        <v>47084648</v>
       </c>
     </row>
     <row r="1292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26445,7 +26446,7 @@
         <v>24</v>
       </c>
       <c r="F1292" s="16">
-        <v>24182132.000041001</v>
+        <v>24182132</v>
       </c>
     </row>
     <row r="1293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26465,7 +26466,7 @@
         <v>21</v>
       </c>
       <c r="F1293" s="16">
-        <v>266092833.16626003</v>
+        <v>266092182</v>
       </c>
     </row>
     <row r="1294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26485,7 +26486,7 @@
         <v>9</v>
       </c>
       <c r="F1294" s="16">
-        <v>13106681.816361004</v>
+        <v>13106662</v>
       </c>
     </row>
     <row r="1295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26525,7 +26526,7 @@
         <v>21</v>
       </c>
       <c r="F1296" s="16">
-        <v>25567662.219353002</v>
+        <v>25566253</v>
       </c>
     </row>
     <row r="1297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26545,7 +26546,7 @@
         <v>9</v>
       </c>
       <c r="F1297" s="16">
-        <v>4682645.5374150015</v>
+        <v>4682430</v>
       </c>
     </row>
     <row r="1298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26565,7 +26566,7 @@
         <v>21</v>
       </c>
       <c r="F1298" s="16">
-        <v>103309482.895721</v>
+        <v>103309483</v>
       </c>
     </row>
     <row r="1299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26585,7 +26586,7 @@
         <v>9</v>
       </c>
       <c r="F1299" s="16">
-        <v>49149480.083735004</v>
+        <v>49149480</v>
       </c>
     </row>
     <row r="1300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26605,7 +26606,7 @@
         <v>24</v>
       </c>
       <c r="F1300" s="16">
-        <v>23325632.999990001</v>
+        <v>23325633</v>
       </c>
     </row>
     <row r="1301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26625,7 +26626,7 @@
         <v>21</v>
       </c>
       <c r="F1301" s="16">
-        <v>260700108.02963096</v>
+        <v>260699564</v>
       </c>
     </row>
     <row r="1302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26645,7 +26646,7 @@
         <v>9</v>
       </c>
       <c r="F1302" s="16">
-        <v>13646888.377918003</v>
+        <v>13646845</v>
       </c>
     </row>
     <row r="1303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26685,7 +26686,7 @@
         <v>21</v>
       </c>
       <c r="F1304" s="16">
-        <v>26153477.769715995</v>
+        <v>26152111</v>
       </c>
     </row>
     <row r="1305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26705,7 +26706,7 @@
         <v>9</v>
       </c>
       <c r="F1305" s="16">
-        <v>4938893.098890001</v>
+        <v>4938666</v>
       </c>
     </row>
     <row r="1306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26725,7 +26726,7 @@
         <v>21</v>
       </c>
       <c r="F1306" s="16">
-        <v>106372277.26684099</v>
+        <v>106372277</v>
       </c>
     </row>
     <row r="1307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26745,7 +26746,7 @@
         <v>9</v>
       </c>
       <c r="F1307" s="16">
-        <v>50732184.415434003</v>
+        <v>50732184</v>
       </c>
     </row>
     <row r="1308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26765,7 +26766,7 @@
         <v>24</v>
       </c>
       <c r="F1308" s="16">
-        <v>29500443.999981999</v>
+        <v>29500444</v>
       </c>
     </row>
     <row r="1309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26785,7 +26786,7 @@
         <v>21</v>
       </c>
       <c r="F1309" s="16">
-        <v>263533380.85253909</v>
+        <v>263532970</v>
       </c>
     </row>
     <row r="1310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26805,7 +26806,7 @@
         <v>9</v>
       </c>
       <c r="F1310" s="16">
-        <v>13444564.029849995</v>
+        <v>13444514</v>
       </c>
     </row>
     <row r="1311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26845,7 +26846,7 @@
         <v>21</v>
       </c>
       <c r="F1312" s="16">
-        <v>26642256.194123004</v>
+        <v>26640691</v>
       </c>
     </row>
     <row r="1313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26865,7 +26866,7 @@
         <v>9</v>
       </c>
       <c r="F1313" s="16">
-        <v>4802277.3193609985</v>
+        <v>4801981</v>
       </c>
     </row>
     <row r="1314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26885,7 +26886,7 @@
         <v>21</v>
       </c>
       <c r="F1314" s="16">
-        <v>98150270.655512005</v>
+        <v>98150271</v>
       </c>
     </row>
     <row r="1315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26905,7 +26906,7 @@
         <v>9</v>
       </c>
       <c r="F1315" s="16">
-        <v>45793924.032745004</v>
+        <v>45793924</v>
       </c>
     </row>
     <row r="1316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26925,7 +26926,7 @@
         <v>24</v>
       </c>
       <c r="F1316" s="16">
-        <v>27801819.00006</v>
+        <v>27801819</v>
       </c>
     </row>
     <row r="1317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26945,7 +26946,7 @@
         <v>21</v>
       </c>
       <c r="F1317" s="16">
-        <v>267864359.598203</v>
+        <v>267864027</v>
       </c>
     </row>
     <row r="1318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -26965,7 +26966,7 @@
         <v>9</v>
       </c>
       <c r="F1318" s="16">
-        <v>12977847.811220005</v>
+        <v>12977924</v>
       </c>
     </row>
     <row r="1319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27005,7 +27006,7 @@
         <v>21</v>
       </c>
       <c r="F1320" s="16">
-        <v>26145267.469437994</v>
+        <v>26144154</v>
       </c>
     </row>
     <row r="1321" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27025,7 +27026,7 @@
         <v>9</v>
       </c>
       <c r="F1321" s="16">
-        <v>4726907.0002309978</v>
+        <v>4726670</v>
       </c>
     </row>
     <row r="1322" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27045,7 +27046,7 @@
         <v>21</v>
       </c>
       <c r="F1322" s="16">
-        <v>104778292.641656</v>
+        <v>104778293</v>
       </c>
     </row>
     <row r="1323" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27065,7 +27066,7 @@
         <v>9</v>
       </c>
       <c r="F1323" s="16">
-        <v>50359020.287609003</v>
+        <v>50359020</v>
       </c>
     </row>
     <row r="1324" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27085,7 +27086,7 @@
         <v>24</v>
       </c>
       <c r="F1324" s="16">
-        <v>30281973.000012003</v>
+        <v>30281973</v>
       </c>
     </row>
     <row r="1325" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27105,7 +27106,7 @@
         <v>21</v>
       </c>
       <c r="F1325" s="16">
-        <v>280359198.97453409</v>
+        <v>280358743</v>
       </c>
     </row>
     <row r="1326" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27125,7 +27126,7 @@
         <v>9</v>
       </c>
       <c r="F1326" s="16">
-        <v>14074942.253280999</v>
+        <v>14074987</v>
       </c>
     </row>
     <row r="1327" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27165,7 +27166,7 @@
         <v>21</v>
       </c>
       <c r="F1328" s="16">
-        <v>27106834.570023</v>
+        <v>27105316</v>
       </c>
     </row>
     <row r="1329" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27185,7 +27186,7 @@
         <v>9</v>
       </c>
       <c r="F1329" s="16">
-        <v>5455774.8927889997</v>
+        <v>5455535</v>
       </c>
     </row>
     <row r="1330" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27205,7 +27206,7 @@
         <v>21</v>
       </c>
       <c r="F1330" s="16">
-        <v>102108655.287054</v>
+        <v>102108655</v>
       </c>
     </row>
     <row r="1331" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27225,7 +27226,7 @@
         <v>9</v>
       </c>
       <c r="F1331" s="16">
-        <v>51136269.536683999</v>
+        <v>51136270</v>
       </c>
     </row>
     <row r="1332" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27245,7 +27246,7 @@
         <v>24</v>
       </c>
       <c r="F1332" s="16">
-        <v>29341898.000010002</v>
+        <v>29341898</v>
       </c>
     </row>
     <row r="1333" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27265,7 +27266,7 @@
         <v>21</v>
       </c>
       <c r="F1333" s="16">
-        <v>268531313.25916904</v>
+        <v>268530859</v>
       </c>
     </row>
     <row r="1334" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27285,7 +27286,7 @@
         <v>9</v>
       </c>
       <c r="F1334" s="16">
-        <v>13529050.181534003</v>
+        <v>13529190</v>
       </c>
     </row>
     <row r="1335" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27325,7 +27326,7 @@
         <v>21</v>
       </c>
       <c r="F1336" s="16">
-        <v>25774000.091863003</v>
+        <v>25772699</v>
       </c>
     </row>
     <row r="1337" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27345,7 +27346,7 @@
         <v>9</v>
       </c>
       <c r="F1337" s="16">
-        <v>5058979.8730619987</v>
+        <v>5058690</v>
       </c>
     </row>
     <row r="1338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27365,7 +27366,7 @@
         <v>21</v>
       </c>
       <c r="F1338" s="16">
-        <v>108062308.053736</v>
+        <v>108062308</v>
       </c>
     </row>
     <row r="1339" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27385,7 +27386,7 @@
         <v>9</v>
       </c>
       <c r="F1339" s="16">
-        <v>54384660.782540001</v>
+        <v>54384661</v>
       </c>
     </row>
     <row r="1340" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27405,7 +27406,7 @@
         <v>24</v>
       </c>
       <c r="F1340" s="16">
-        <v>27874498.00006</v>
+        <v>27874498</v>
       </c>
     </row>
     <row r="1341" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27425,7 +27426,7 @@
         <v>21</v>
       </c>
       <c r="F1341" s="16">
-        <v>272580000.62238503</v>
+        <v>272579553</v>
       </c>
     </row>
     <row r="1342" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27445,7 +27446,7 @@
         <v>9</v>
       </c>
       <c r="F1342" s="16">
-        <v>13590021.272659993</v>
+        <v>13590164</v>
       </c>
     </row>
     <row r="1343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27485,7 +27486,7 @@
         <v>21</v>
       </c>
       <c r="F1344" s="16">
-        <v>26169132.150732994</v>
+        <v>26168177</v>
       </c>
     </row>
     <row r="1345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27505,7 +27506,7 @@
         <v>9</v>
       </c>
       <c r="F1345" s="16">
-        <v>5244555.6769860014</v>
+        <v>5244323</v>
       </c>
     </row>
     <row r="1346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27525,7 +27526,7 @@
         <v>21</v>
       </c>
       <c r="F1346" s="16">
-        <v>106351574.600628</v>
+        <v>106371548</v>
       </c>
     </row>
     <row r="1347" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27545,7 +27546,7 @@
         <v>9</v>
       </c>
       <c r="F1347" s="16">
-        <v>54837729.458238997</v>
+        <v>54837729</v>
       </c>
     </row>
     <row r="1348" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27565,7 +27566,7 @@
         <v>24</v>
       </c>
       <c r="F1348" s="16">
-        <v>30451363.000010997</v>
+        <v>30451363</v>
       </c>
     </row>
     <row r="1349" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27585,7 +27586,7 @@
         <v>21</v>
       </c>
       <c r="F1349" s="16">
-        <v>267352120.73963192</v>
+        <v>267347716</v>
       </c>
     </row>
     <row r="1350" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27605,7 +27606,7 @@
         <v>9</v>
       </c>
       <c r="F1350" s="16">
-        <v>13691680.905968001</v>
+        <v>13692117</v>
       </c>
     </row>
     <row r="1351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27645,7 +27646,7 @@
         <v>21</v>
       </c>
       <c r="F1352" s="16">
-        <v>25588485.857822001</v>
+        <v>25587131</v>
       </c>
     </row>
     <row r="1353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27665,7 +27666,7 @@
         <v>9</v>
       </c>
       <c r="F1353" s="16">
-        <v>5422188.645552001</v>
+        <v>5421836</v>
       </c>
     </row>
     <row r="1354" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27685,7 +27686,7 @@
         <v>21</v>
       </c>
       <c r="F1354" s="16">
-        <v>93074430.951722994</v>
+        <v>93082910</v>
       </c>
     </row>
     <row r="1355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27705,7 +27706,7 @@
         <v>9</v>
       </c>
       <c r="F1355" s="16">
-        <v>49591638.849603005</v>
+        <v>49591639</v>
       </c>
     </row>
     <row r="1356" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27725,7 +27726,7 @@
         <v>24</v>
       </c>
       <c r="F1356" s="16">
-        <v>26764550.999993999</v>
+        <v>26764551</v>
       </c>
     </row>
     <row r="1357" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27745,7 +27746,7 @@
         <v>21</v>
       </c>
       <c r="F1357" s="16">
-        <v>243726844.93224204</v>
+        <v>243724288</v>
       </c>
     </row>
     <row r="1358" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27765,7 +27766,7 @@
         <v>9</v>
       </c>
       <c r="F1358" s="16">
-        <v>13027937.402108001</v>
+        <v>13028338</v>
       </c>
     </row>
     <row r="1359" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27805,7 +27806,7 @@
         <v>21</v>
       </c>
       <c r="F1360" s="16">
-        <v>23345157.831148002</v>
+        <v>23343987</v>
       </c>
     </row>
     <row r="1361" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27825,7 +27826,7 @@
         <v>9</v>
       </c>
       <c r="F1361" s="16">
-        <v>5031447.1010750001</v>
+        <v>5031000</v>
       </c>
     </row>
     <row r="1362" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27845,7 +27846,7 @@
         <v>21</v>
       </c>
       <c r="F1362" s="16">
-        <v>106326786.424512</v>
+        <v>106321286</v>
       </c>
     </row>
     <row r="1363" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27865,7 +27866,7 @@
         <v>9</v>
       </c>
       <c r="F1363" s="16">
-        <v>55601946.508951001</v>
+        <v>55601947</v>
       </c>
     </row>
     <row r="1364" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27885,7 +27886,7 @@
         <v>24</v>
       </c>
       <c r="F1364" s="16">
-        <v>24856969.000011001</v>
+        <v>24856969</v>
       </c>
     </row>
     <row r="1365" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27905,7 +27906,7 @@
         <v>21</v>
       </c>
       <c r="F1365" s="16">
-        <v>274305082.47943491</v>
+        <v>274304933</v>
       </c>
     </row>
     <row r="1366" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27925,7 +27926,7 @@
         <v>9</v>
       </c>
       <c r="F1366" s="16">
-        <v>14872691.141666988</v>
+        <v>14873181</v>
       </c>
     </row>
     <row r="1367" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27965,7 +27966,7 @@
         <v>21</v>
       </c>
       <c r="F1368" s="16">
-        <v>26105684.91908</v>
+        <v>26138178</v>
       </c>
     </row>
     <row r="1369" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -27985,7 +27986,7 @@
         <v>9</v>
       </c>
       <c r="F1369" s="16">
-        <v>5680616.8580789985</v>
+        <v>5680283</v>
       </c>
     </row>
     <row r="1370" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28005,7 +28006,7 @@
         <v>21</v>
       </c>
       <c r="F1370" s="16">
-        <v>95310965.680129007</v>
+        <v>95310966</v>
       </c>
     </row>
     <row r="1371" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28025,7 +28026,7 @@
         <v>9</v>
       </c>
       <c r="F1371" s="16">
-        <v>50482825.371942997</v>
+        <v>50482825</v>
       </c>
     </row>
     <row r="1372" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28045,7 +28046,7 @@
         <v>24</v>
       </c>
       <c r="F1372" s="16">
-        <v>23773493.000018999</v>
+        <v>23773493</v>
       </c>
     </row>
     <row r="1373" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28065,7 +28066,7 @@
         <v>21</v>
       </c>
       <c r="F1373" s="16">
-        <v>266798988.09958902</v>
+        <v>266802635</v>
       </c>
     </row>
     <row r="1374" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28085,7 +28086,7 @@
         <v>9</v>
       </c>
       <c r="F1374" s="16">
-        <v>14464638.402026996</v>
+        <v>14465257</v>
       </c>
     </row>
     <row r="1375" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28125,7 +28126,7 @@
         <v>21</v>
       </c>
       <c r="F1376" s="16">
-        <v>25420303.970216006</v>
+        <v>25527528</v>
       </c>
     </row>
     <row r="1377" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28145,7 +28146,7 @@
         <v>9</v>
       </c>
       <c r="F1377" s="16">
-        <v>5558532.6013510004</v>
+        <v>5558111</v>
       </c>
     </row>
     <row r="1378" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28165,7 +28166,7 @@
         <v>21</v>
       </c>
       <c r="F1378" s="16">
-        <v>99387065.219870999</v>
+        <v>99387065</v>
       </c>
     </row>
     <row r="1379" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28185,7 +28186,7 @@
         <v>9</v>
       </c>
       <c r="F1379" s="16">
-        <v>52785904.405177005</v>
+        <v>52785904</v>
       </c>
     </row>
     <row r="1380" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28205,7 +28206,7 @@
         <v>24</v>
       </c>
       <c r="F1380" s="16">
-        <v>26338320.999960002</v>
+        <v>26338321</v>
       </c>
     </row>
     <row r="1381" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28225,7 +28226,7 @@
         <v>21</v>
       </c>
       <c r="F1381" s="16">
-        <v>269515791.16609412</v>
+        <v>269519644</v>
       </c>
     </row>
     <row r="1382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28245,7 +28246,7 @@
         <v>9</v>
       </c>
       <c r="F1382" s="16">
-        <v>15390093.565586001</v>
+        <v>15390625</v>
       </c>
     </row>
     <row r="1383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28285,7 +28286,7 @@
         <v>21</v>
       </c>
       <c r="F1384" s="16">
-        <v>27114232.294984009</v>
+        <v>27198903</v>
       </c>
     </row>
     <row r="1385" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28305,7 +28306,7 @@
         <v>9</v>
       </c>
       <c r="F1385" s="16">
-        <v>5796041.9618950002</v>
+        <v>5795870</v>
       </c>
     </row>
     <row r="1386" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28325,7 +28326,7 @@
         <v>21</v>
       </c>
       <c r="F1386" s="16">
-        <v>90631538.358206004</v>
+        <v>90631538</v>
       </c>
     </row>
     <row r="1387" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28345,7 +28346,7 @@
         <v>9</v>
       </c>
       <c r="F1387" s="16">
-        <v>49430561.439025</v>
+        <v>49430561</v>
       </c>
     </row>
     <row r="1388" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28365,7 +28366,7 @@
         <v>24</v>
       </c>
       <c r="F1388" s="16">
-        <v>26859513.999966998</v>
+        <v>26859514</v>
       </c>
     </row>
     <row r="1389" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28385,7 +28386,7 @@
         <v>21</v>
       </c>
       <c r="F1389" s="16">
-        <v>263002516.43267202</v>
+        <v>263005830</v>
       </c>
     </row>
     <row r="1390" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28405,7 +28406,7 @@
         <v>9</v>
       </c>
       <c r="F1390" s="16">
-        <v>14218297.443248998</v>
+        <v>14218810</v>
       </c>
     </row>
     <row r="1391" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28445,7 +28446,7 @@
         <v>21</v>
       </c>
       <c r="F1392" s="16">
-        <v>26898394.058382999</v>
+        <v>26972126</v>
       </c>
     </row>
     <row r="1393" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28465,7 +28466,7 @@
         <v>9</v>
       </c>
       <c r="F1393" s="16">
-        <v>5892264.2683389997</v>
+        <v>5891066</v>
       </c>
     </row>
     <row r="1394" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28485,7 +28486,7 @@
         <v>21</v>
       </c>
       <c r="F1394" s="16">
-        <v>97839271.082793012</v>
+        <v>97839271</v>
       </c>
     </row>
     <row r="1395" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28505,7 +28506,7 @@
         <v>9</v>
       </c>
       <c r="F1395" s="16">
-        <v>55000594.627144001</v>
+        <v>55000595</v>
       </c>
     </row>
     <row r="1396" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28525,7 +28526,7 @@
         <v>24</v>
       </c>
       <c r="F1396" s="16">
-        <v>29686410.000049997</v>
+        <v>29686410</v>
       </c>
     </row>
     <row r="1397" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28545,7 +28546,7 @@
         <v>21</v>
       </c>
       <c r="F1397" s="16">
-        <v>270855933.43097305</v>
+        <v>270861602</v>
       </c>
     </row>
     <row r="1398" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28565,7 +28566,7 @@
         <v>9</v>
       </c>
       <c r="F1398" s="16">
-        <v>15037265.426881</v>
+        <v>15038267</v>
       </c>
     </row>
     <row r="1399" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28605,7 +28606,7 @@
         <v>21</v>
       </c>
       <c r="F1400" s="16">
-        <v>27883965.652490001</v>
+        <v>27942545</v>
       </c>
     </row>
     <row r="1401" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28625,7 +28626,7 @@
         <v>9</v>
       </c>
       <c r="F1401" s="16">
-        <v>6112598.220311</v>
+        <v>6110922</v>
       </c>
     </row>
     <row r="1402" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28645,7 +28646,7 @@
         <v>21</v>
       </c>
       <c r="F1402" s="16">
-        <v>92785861.208712995</v>
+        <v>92785861</v>
       </c>
     </row>
     <row r="1403" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28665,7 +28666,7 @@
         <v>9</v>
       </c>
       <c r="F1403" s="16">
-        <v>53807564.356192</v>
+        <v>53807564</v>
       </c>
     </row>
     <row r="1404" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28685,7 +28686,7 @@
         <v>24</v>
       </c>
       <c r="F1404" s="16">
-        <v>30158574.999995995</v>
+        <v>30158575</v>
       </c>
     </row>
     <row r="1405" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28705,7 +28706,7 @@
         <v>21</v>
       </c>
       <c r="F1405" s="16">
-        <v>270937864.082075</v>
+        <v>270941418</v>
       </c>
     </row>
     <row r="1406" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28725,7 +28726,7 @@
         <v>9</v>
       </c>
       <c r="F1406" s="16">
-        <v>15606372.357482003</v>
+        <v>15607720</v>
       </c>
     </row>
     <row r="1407" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28765,7 +28766,7 @@
         <v>21</v>
       </c>
       <c r="F1408" s="16">
-        <v>28769297.665890999</v>
+        <v>28811944</v>
       </c>
     </row>
     <row r="1409" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28785,7 +28786,7 @@
         <v>9</v>
       </c>
       <c r="F1409" s="16">
-        <v>6504598.5792329991</v>
+        <v>6502839</v>
       </c>
     </row>
     <row r="1410" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28805,7 +28806,7 @@
         <v>21</v>
       </c>
       <c r="F1410" s="16">
-        <v>88477826.737411007</v>
+        <v>88477827</v>
       </c>
     </row>
     <row r="1411" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28825,7 +28826,7 @@
         <v>9</v>
       </c>
       <c r="F1411" s="16">
-        <v>51297752.842692003</v>
+        <v>51297753</v>
       </c>
     </row>
     <row r="1412" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28845,7 +28846,7 @@
         <v>24</v>
       </c>
       <c r="F1412" s="16">
-        <v>27217702.000036001</v>
+        <v>27217702</v>
       </c>
     </row>
     <row r="1413" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28865,7 +28866,7 @@
         <v>21</v>
       </c>
       <c r="F1413" s="16">
-        <v>267026757.94550997</v>
+        <v>267056199</v>
       </c>
     </row>
     <row r="1414" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28885,7 +28886,7 @@
         <v>9</v>
       </c>
       <c r="F1414" s="16">
-        <v>15929281.350136999</v>
+        <v>15930529</v>
       </c>
     </row>
     <row r="1415" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28925,7 +28926,7 @@
         <v>21</v>
       </c>
       <c r="F1416" s="16">
-        <v>27867812.087627999</v>
+        <v>27908525</v>
       </c>
     </row>
     <row r="1417" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28945,7 +28946,7 @@
         <v>9</v>
       </c>
       <c r="F1417" s="16">
-        <v>6269835.6471250001</v>
+        <v>6268467</v>
       </c>
     </row>
     <row r="1418" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28965,7 +28966,7 @@
         <v>21</v>
       </c>
       <c r="F1418" s="16">
-        <v>80648648.805904001</v>
+        <v>80648649</v>
       </c>
     </row>
     <row r="1419" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -28985,7 +28986,7 @@
         <v>9</v>
       </c>
       <c r="F1419" s="16">
-        <v>46471682.946706995</v>
+        <v>46471683</v>
       </c>
     </row>
     <row r="1420" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29005,7 +29006,7 @@
         <v>24</v>
       </c>
       <c r="F1420" s="16">
-        <v>27484858.000020999</v>
+        <v>27484858</v>
       </c>
     </row>
     <row r="1421" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29025,7 +29026,7 @@
         <v>21</v>
       </c>
       <c r="F1421" s="16">
-        <v>275907110.10376203</v>
+        <v>275937614</v>
       </c>
     </row>
     <row r="1422" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29045,7 +29046,7 @@
         <v>9</v>
       </c>
       <c r="F1422" s="16">
-        <v>16868765.025533006</v>
+        <v>16870333</v>
       </c>
     </row>
     <row r="1423" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29085,7 +29086,7 @@
         <v>21</v>
       </c>
       <c r="F1424" s="16">
-        <v>29331156.999123</v>
+        <v>29384260</v>
       </c>
     </row>
     <row r="1425" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29105,7 +29106,7 @@
         <v>9</v>
       </c>
       <c r="F1425" s="16">
-        <v>6622187.6430929992</v>
+        <v>6621313</v>
       </c>
     </row>
     <row r="1426" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29125,7 +29126,7 @@
         <v>21</v>
       </c>
       <c r="F1426" s="16">
-        <v>81786392.239246994</v>
+        <v>81786392</v>
       </c>
     </row>
     <row r="1427" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29145,7 +29146,7 @@
         <v>9</v>
       </c>
       <c r="F1427" s="16">
-        <v>51449089.198622994</v>
+        <v>51449089</v>
       </c>
     </row>
     <row r="1428" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29165,7 +29166,7 @@
         <v>24</v>
       </c>
       <c r="F1428" s="16">
-        <v>26341942.999997001</v>
+        <v>26341943</v>
       </c>
     </row>
     <row r="1429" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29185,7 +29186,7 @@
         <v>21</v>
       </c>
       <c r="F1429" s="16">
-        <v>270431546.35183698</v>
+        <v>270459717</v>
       </c>
     </row>
     <row r="1430" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29205,7 +29206,7 @@
         <v>9</v>
       </c>
       <c r="F1430" s="16">
-        <v>16733902.374391003</v>
+        <v>16734813</v>
       </c>
     </row>
     <row r="1431" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29245,7 +29246,7 @@
         <v>21</v>
       </c>
       <c r="F1432" s="16">
-        <v>29579018.881033994</v>
+        <v>29632811</v>
       </c>
     </row>
     <row r="1433" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29265,7 +29266,7 @@
         <v>9</v>
       </c>
       <c r="F1433" s="16">
-        <v>6609689.0383869987</v>
+        <v>6608692</v>
       </c>
     </row>
     <row r="1434" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29285,7 +29286,7 @@
         <v>21</v>
       </c>
       <c r="F1434" s="16">
-        <v>78479851.565439999</v>
+        <v>78479852</v>
       </c>
     </row>
     <row r="1435" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29305,7 +29306,7 @@
         <v>9</v>
       </c>
       <c r="F1435" s="16">
-        <v>49114542.213024996</v>
+        <v>49114542</v>
       </c>
     </row>
     <row r="1436" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29325,7 +29326,7 @@
         <v>24</v>
       </c>
       <c r="F1436" s="16">
-        <v>26144817.999985997</v>
+        <v>26144818</v>
       </c>
     </row>
     <row r="1437" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29345,7 +29346,7 @@
         <v>21</v>
       </c>
       <c r="F1437" s="16">
-        <v>282235341.52014714</v>
+        <v>282252161</v>
       </c>
     </row>
     <row r="1438" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29365,7 +29366,7 @@
         <v>9</v>
       </c>
       <c r="F1438" s="16">
-        <v>17821651.426411003</v>
+        <v>17822596</v>
       </c>
     </row>
     <row r="1439" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29405,7 +29406,7 @@
         <v>21</v>
       </c>
       <c r="F1440" s="16">
-        <v>31731643.510555994</v>
+        <v>31782926</v>
       </c>
     </row>
     <row r="1441" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29425,7 +29426,7 @@
         <v>9</v>
       </c>
       <c r="F1441" s="16">
-        <v>6829358.955955998</v>
+        <v>6828874</v>
       </c>
     </row>
     <row r="1442" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29445,7 +29446,7 @@
         <v>21</v>
       </c>
       <c r="F1442" s="16">
-        <v>78975502.931545988</v>
+        <v>78975503</v>
       </c>
     </row>
     <row r="1443" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29465,7 +29466,7 @@
         <v>9</v>
       </c>
       <c r="F1443" s="16">
-        <v>51234043.271568</v>
+        <v>51234043</v>
       </c>
     </row>
     <row r="1444" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29485,7 +29486,7 @@
         <v>24</v>
       </c>
       <c r="F1444" s="16">
-        <v>24632904.000062998</v>
+        <v>24632904</v>
       </c>
     </row>
     <row r="1445" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29505,7 +29506,7 @@
         <v>21</v>
       </c>
       <c r="F1445" s="16">
-        <v>280124437.83153999</v>
+        <v>280162797</v>
       </c>
     </row>
     <row r="1446" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29525,7 +29526,7 @@
         <v>9</v>
       </c>
       <c r="F1446" s="16">
-        <v>17369164.515476998</v>
+        <v>17366008</v>
       </c>
     </row>
     <row r="1447" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29565,7 +29566,7 @@
         <v>21</v>
       </c>
       <c r="F1448" s="16">
-        <v>31957614.348073009</v>
+        <v>32026528</v>
       </c>
     </row>
     <row r="1449" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29585,7 +29586,7 @@
         <v>9</v>
       </c>
       <c r="F1449" s="16">
-        <v>6728655.8870730009</v>
+        <v>6745604</v>
       </c>
     </row>
     <row r="1450" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29605,7 +29606,7 @@
         <v>21</v>
       </c>
       <c r="F1450" s="16">
-        <v>74931309.968264014</v>
+        <v>74931310</v>
       </c>
     </row>
     <row r="1451" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29625,7 +29626,7 @@
         <v>9</v>
       </c>
       <c r="F1451" s="16">
-        <v>48381587.830681004</v>
+        <v>48381588</v>
       </c>
     </row>
     <row r="1452" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29645,7 +29646,7 @@
         <v>24</v>
       </c>
       <c r="F1452" s="16">
-        <v>25195995.000026997</v>
+        <v>25195995</v>
       </c>
     </row>
     <row r="1453" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29665,7 +29666,7 @@
         <v>21</v>
       </c>
       <c r="F1453" s="16">
-        <v>254079013.41521099</v>
+        <v>254093257</v>
       </c>
     </row>
     <row r="1454" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29685,7 +29686,7 @@
         <v>9</v>
       </c>
       <c r="F1454" s="16">
-        <v>16439456.908918997</v>
+        <v>16410424</v>
       </c>
     </row>
     <row r="1455" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29725,7 +29726,7 @@
         <v>21</v>
       </c>
       <c r="F1456" s="16">
-        <v>28904103.320643</v>
+        <v>28963855</v>
       </c>
     </row>
     <row r="1457" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29745,7 +29746,7 @@
         <v>9</v>
       </c>
       <c r="F1457" s="16">
-        <v>5926158.5780289993</v>
+        <v>5936818</v>
       </c>
     </row>
     <row r="1458" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29765,7 +29766,7 @@
         <v>21</v>
       </c>
       <c r="F1458" s="16">
-        <v>84056052.22529301</v>
+        <v>84069548</v>
       </c>
     </row>
     <row r="1459" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29785,7 +29786,7 @@
         <v>9</v>
       </c>
       <c r="F1459" s="16">
-        <v>53325122.390808001</v>
+        <v>53325122</v>
       </c>
     </row>
     <row r="1460" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29805,7 +29806,7 @@
         <v>24</v>
       </c>
       <c r="F1460" s="16">
-        <v>25653837.000028998</v>
+        <v>25653837</v>
       </c>
     </row>
     <row r="1461" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29825,7 +29826,7 @@
         <v>21</v>
       </c>
       <c r="F1461" s="16">
-        <v>283498311.46223909</v>
+        <v>283435881</v>
       </c>
     </row>
     <row r="1462" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29845,7 +29846,7 @@
         <v>9</v>
       </c>
       <c r="F1462" s="16">
-        <v>18559448.70598999</v>
+        <v>18483731</v>
       </c>
     </row>
     <row r="1463" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29885,7 +29886,7 @@
         <v>21</v>
       </c>
       <c r="F1464" s="16">
-        <v>33062354.307397999</v>
+        <v>33135817</v>
       </c>
     </row>
     <row r="1465" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29905,7 +29906,7 @@
         <v>9</v>
       </c>
       <c r="F1465" s="16">
-        <v>7000962.4765379997</v>
+        <v>7012853</v>
       </c>
     </row>
     <row r="1466" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29925,7 +29926,7 @@
         <v>21</v>
       </c>
       <c r="F1466" s="16">
-        <v>76397065.546947002</v>
+        <v>76397066</v>
       </c>
     </row>
     <row r="1467" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29945,7 +29946,7 @@
         <v>9</v>
       </c>
       <c r="F1467" s="16">
-        <v>48554453.832460001</v>
+        <v>48554454</v>
       </c>
     </row>
     <row r="1468" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29965,7 +29966,7 @@
         <v>24</v>
       </c>
       <c r="F1468" s="16">
-        <v>22154981.000011999</v>
+        <v>22154981</v>
       </c>
     </row>
     <row r="1469" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -29985,7 +29986,7 @@
         <v>21</v>
       </c>
       <c r="F1469" s="16">
-        <v>273694521.24467099</v>
+        <v>273666570</v>
       </c>
     </row>
     <row r="1470" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30005,7 +30006,7 @@
         <v>9</v>
       </c>
       <c r="F1470" s="16">
-        <v>18687175.316139992</v>
+        <v>18620724</v>
       </c>
     </row>
     <row r="1471" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30045,7 +30046,7 @@
         <v>21</v>
       </c>
       <c r="F1472" s="16">
-        <v>33118524.459822997</v>
+        <v>33184647</v>
       </c>
     </row>
     <row r="1473" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30065,7 +30066,7 @@
         <v>9</v>
       </c>
       <c r="F1473" s="16">
-        <v>7461253.8675600011</v>
+        <v>7471035</v>
       </c>
     </row>
     <row r="1474" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30085,7 +30086,7 @@
         <v>21</v>
       </c>
       <c r="F1474" s="16">
-        <v>78906601.627443999</v>
+        <v>78906602</v>
       </c>
     </row>
     <row r="1475" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30105,7 +30106,7 @@
         <v>9</v>
       </c>
       <c r="F1475" s="16">
-        <v>48106382.982529998</v>
+        <v>48106383</v>
       </c>
     </row>
     <row r="1476" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30125,7 +30126,7 @@
         <v>24</v>
       </c>
       <c r="F1476" s="16">
-        <v>22509972.999998</v>
+        <v>22509973</v>
       </c>
     </row>
     <row r="1477" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30145,7 +30146,7 @@
         <v>21</v>
       </c>
       <c r="F1477" s="16">
-        <v>279404114.54977399</v>
+        <v>279459738</v>
       </c>
     </row>
     <row r="1478" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30165,7 +30166,7 @@
         <v>9</v>
       </c>
       <c r="F1478" s="16">
-        <v>18913411.521868013</v>
+        <v>18860892</v>
       </c>
     </row>
     <row r="1479" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30205,7 +30206,7 @@
         <v>21</v>
       </c>
       <c r="F1480" s="16">
-        <v>33861216.235784002</v>
+        <v>33956549</v>
       </c>
     </row>
     <row r="1481" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30225,7 +30226,7 @@
         <v>9</v>
       </c>
       <c r="F1481" s="16">
-        <v>7699117.7915869998</v>
+        <v>7708437</v>
       </c>
     </row>
     <row r="1482" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30245,7 +30246,7 @@
         <v>21</v>
       </c>
       <c r="F1482" s="16">
-        <v>79129548.594393998</v>
+        <v>79128155</v>
       </c>
     </row>
     <row r="1483" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30265,7 +30266,7 @@
         <v>9</v>
       </c>
       <c r="F1483" s="16">
-        <v>50363352.670938</v>
+        <v>50363353</v>
       </c>
     </row>
     <row r="1484" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30305,7 +30306,7 @@
         <v>21</v>
       </c>
       <c r="F1485" s="16">
-        <v>267130703.02497602</v>
+        <v>267160614</v>
       </c>
     </row>
     <row r="1486" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30325,7 +30326,7 @@
         <v>9</v>
       </c>
       <c r="F1486" s="16">
-        <v>17838961.635082003</v>
+        <v>17828406</v>
       </c>
     </row>
     <row r="1487" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30365,7 +30366,7 @@
         <v>21</v>
       </c>
       <c r="F1488" s="16">
-        <v>32530732.719757996</v>
+        <v>32561103</v>
       </c>
     </row>
     <row r="1489" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30385,7 +30386,7 @@
         <v>9</v>
       </c>
       <c r="F1489" s="16">
-        <v>7279668.9558579987</v>
+        <v>7253667</v>
       </c>
     </row>
     <row r="1490" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30405,7 +30406,7 @@
         <v>21</v>
       </c>
       <c r="F1490" s="16">
-        <v>92152590.996961996</v>
+        <v>92152591</v>
       </c>
     </row>
     <row r="1491" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30425,7 +30426,7 @@
         <v>9</v>
       </c>
       <c r="F1491" s="16">
-        <v>58342089.690084003</v>
+        <v>58342090</v>
       </c>
     </row>
     <row r="1492" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30445,7 +30446,7 @@
         <v>24</v>
       </c>
       <c r="F1492" s="16">
-        <v>26629803.999998998</v>
+        <v>26629804</v>
       </c>
     </row>
     <row r="1493" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30465,7 +30466,7 @@
         <v>21</v>
       </c>
       <c r="F1493" s="16">
-        <v>279394164.90803295</v>
+        <v>279413243</v>
       </c>
     </row>
     <row r="1494" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30485,7 +30486,7 @@
         <v>9</v>
       </c>
       <c r="F1494" s="16">
-        <v>19333993.930163007</v>
+        <v>19301487</v>
       </c>
     </row>
     <row r="1495" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30525,7 +30526,7 @@
         <v>21</v>
       </c>
       <c r="F1496" s="16">
-        <v>32943278.117462996</v>
+        <v>32957343</v>
       </c>
     </row>
     <row r="1497" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30545,7 +30546,7 @@
         <v>9</v>
       </c>
       <c r="F1497" s="16">
-        <v>7291396.0764919985</v>
+        <v>7265551</v>
       </c>
     </row>
     <row r="1498" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30565,7 +30566,7 @@
         <v>21</v>
       </c>
       <c r="F1498" s="16">
-        <v>98058394.807141006</v>
+        <v>98058395</v>
       </c>
     </row>
     <row r="1499" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30585,7 +30586,7 @@
         <v>9</v>
       </c>
       <c r="F1499" s="16">
-        <v>61077832.245314002</v>
+        <v>61077832</v>
       </c>
     </row>
     <row r="1500" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30605,7 +30606,7 @@
         <v>24</v>
       </c>
       <c r="F1500" s="16">
-        <v>27555963.999955997</v>
+        <v>27555964</v>
       </c>
     </row>
     <row r="1501" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30625,7 +30626,7 @@
         <v>21</v>
       </c>
       <c r="F1501" s="16">
-        <v>282218143.85749602</v>
+        <v>282687615</v>
       </c>
     </row>
     <row r="1502" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30645,7 +30646,7 @@
         <v>9</v>
       </c>
       <c r="F1502" s="16">
-        <v>20565541.421097998</v>
+        <v>20723720</v>
       </c>
     </row>
     <row r="1503" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30685,7 +30686,7 @@
         <v>21</v>
       </c>
       <c r="F1504" s="16">
-        <v>33383848.766067997</v>
+        <v>33393606</v>
       </c>
     </row>
     <row r="1505" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30705,7 +30706,7 @@
         <v>9</v>
       </c>
       <c r="F1505" s="16">
-        <v>7464760.6197570004</v>
+        <v>7447291</v>
       </c>
     </row>
     <row r="1506" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30725,7 +30726,7 @@
         <v>21</v>
       </c>
       <c r="F1506" s="16">
-        <v>88571105.484201998</v>
+        <v>88571105</v>
       </c>
     </row>
     <row r="1507" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30745,7 +30746,7 @@
         <v>9</v>
       </c>
       <c r="F1507" s="16">
-        <v>54366048.827859998</v>
+        <v>54366049</v>
       </c>
     </row>
     <row r="1508" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30765,7 +30766,7 @@
         <v>24</v>
       </c>
       <c r="F1508" s="16">
-        <v>29721950.999986999</v>
+        <v>29721951</v>
       </c>
     </row>
     <row r="1509" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30785,7 +30786,7 @@
         <v>21</v>
       </c>
       <c r="F1509" s="16">
-        <v>274186940.371714</v>
+        <v>275022799</v>
       </c>
     </row>
     <row r="1510" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30805,7 +30806,7 @@
         <v>9</v>
       </c>
       <c r="F1510" s="16">
-        <v>20648257.711865991</v>
+        <v>20965358</v>
       </c>
     </row>
     <row r="1511" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30845,7 +30846,7 @@
         <v>21</v>
       </c>
       <c r="F1512" s="16">
-        <v>32926345.480355002</v>
+        <v>32957240</v>
       </c>
     </row>
     <row r="1513" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30865,7 +30866,7 @@
         <v>9</v>
       </c>
       <c r="F1513" s="16">
-        <v>7579225.8403639989</v>
+        <v>7573248</v>
       </c>
     </row>
     <row r="1514" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30885,7 +30886,7 @@
         <v>21</v>
       </c>
       <c r="F1514" s="16">
-        <v>86432462.263785005</v>
+        <v>86433399</v>
       </c>
     </row>
     <row r="1515" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30905,7 +30906,7 @@
         <v>9</v>
       </c>
       <c r="F1515" s="16">
-        <v>54676371.012907997</v>
+        <v>54676371</v>
       </c>
     </row>
     <row r="1516" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30925,7 +30926,7 @@
         <v>24</v>
       </c>
       <c r="F1516" s="16">
-        <v>26731949.000007998</v>
+        <v>26731949</v>
       </c>
     </row>
     <row r="1517" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30945,7 +30946,7 @@
         <v>21</v>
       </c>
       <c r="F1517" s="16">
-        <v>287083365.93579304</v>
+        <v>288323232</v>
       </c>
     </row>
     <row r="1518" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -30965,7 +30966,7 @@
         <v>9</v>
       </c>
       <c r="F1518" s="16">
-        <v>22157241.052386995</v>
+        <v>22689838</v>
       </c>
     </row>
     <row r="1519" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31005,7 +31006,7 @@
         <v>21</v>
       </c>
       <c r="F1520" s="16">
-        <v>33822215.148938</v>
+        <v>33856589</v>
       </c>
     </row>
     <row r="1521" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31025,7 +31026,7 @@
         <v>9</v>
       </c>
       <c r="F1521" s="16">
-        <v>7827286.9736650009</v>
+        <v>7830425</v>
       </c>
     </row>
     <row r="1522" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31045,7 +31046,7 @@
         <v>21</v>
       </c>
       <c r="F1522" s="16">
-        <v>90541336.606784999</v>
+        <v>90541337</v>
       </c>
     </row>
     <row r="1523" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31065,7 +31066,7 @@
         <v>9</v>
       </c>
       <c r="F1523" s="16">
-        <v>58949185.995723002</v>
+        <v>58949186</v>
       </c>
     </row>
     <row r="1524" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31105,7 +31106,7 @@
         <v>21</v>
       </c>
       <c r="F1525" s="16">
-        <v>274868944.029154</v>
+        <v>275844376</v>
       </c>
     </row>
     <row r="1526" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31125,7 +31126,7 @@
         <v>9</v>
       </c>
       <c r="F1526" s="16">
-        <v>21402228.759774007</v>
+        <v>21741975</v>
       </c>
     </row>
     <row r="1527" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31165,7 +31166,7 @@
         <v>21</v>
       </c>
       <c r="F1528" s="16">
-        <v>32797882.349746995</v>
+        <v>32832281</v>
       </c>
     </row>
     <row r="1529" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31185,7 +31186,7 @@
         <v>9</v>
       </c>
       <c r="F1529" s="16">
-        <v>7959266.7514450001</v>
+        <v>7967426</v>
       </c>
     </row>
     <row r="1530" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31205,7 +31206,7 @@
         <v>21</v>
       </c>
       <c r="F1530" s="16">
-        <v>92330757.835267991</v>
+        <v>92330758</v>
       </c>
     </row>
     <row r="1531" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31225,7 +31226,7 @@
         <v>9</v>
       </c>
       <c r="F1531" s="16">
-        <v>59993224.747070998</v>
+        <v>59993225</v>
       </c>
     </row>
     <row r="1532" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31245,7 +31246,7 @@
         <v>24</v>
       </c>
       <c r="F1532" s="16">
-        <v>28361626.999947999</v>
+        <v>28361627</v>
       </c>
     </row>
     <row r="1533" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31265,7 +31266,7 @@
         <v>21</v>
       </c>
       <c r="F1533" s="16">
-        <v>280955178.04901099</v>
+        <v>282269964</v>
       </c>
     </row>
     <row r="1534" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31285,7 +31286,7 @@
         <v>9</v>
       </c>
       <c r="F1534" s="16">
-        <v>22533420.799291991</v>
+        <v>23061507</v>
       </c>
     </row>
     <row r="1535" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31325,7 +31326,7 @@
         <v>21</v>
       </c>
       <c r="F1536" s="16">
-        <v>33702358.300692998</v>
+        <v>33742978</v>
       </c>
     </row>
     <row r="1537" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31345,7 +31346,7 @@
         <v>9</v>
       </c>
       <c r="F1537" s="16">
-        <v>7992544.4124379996</v>
+        <v>8001106</v>
       </c>
     </row>
     <row r="1538" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31365,7 +31366,7 @@
         <v>21</v>
       </c>
       <c r="F1538" s="16">
-        <v>94249213.716441005</v>
+        <v>94249214</v>
       </c>
     </row>
     <row r="1539" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31385,7 +31386,7 @@
         <v>9</v>
       </c>
       <c r="F1539" s="16">
-        <v>59867185.918494001</v>
+        <v>59867186</v>
       </c>
     </row>
     <row r="1540" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31405,7 +31406,7 @@
         <v>24</v>
       </c>
       <c r="F1540" s="16">
-        <v>28977593.000007</v>
+        <v>28977593</v>
       </c>
     </row>
     <row r="1541" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31425,7 +31426,7 @@
         <v>21</v>
       </c>
       <c r="F1541" s="16">
-        <v>279424419.35488397</v>
+        <v>280815802</v>
       </c>
     </row>
     <row r="1542" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31445,7 +31446,7 @@
         <v>9</v>
       </c>
       <c r="F1542" s="16">
-        <v>22988397.792680994</v>
+        <v>23479393</v>
       </c>
     </row>
     <row r="1543" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31485,7 +31486,7 @@
         <v>21</v>
       </c>
       <c r="F1544" s="16">
-        <v>33077989.135802992</v>
+        <v>33313068</v>
       </c>
     </row>
     <row r="1545" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31505,7 +31506,7 @@
         <v>9</v>
       </c>
       <c r="F1545" s="16">
-        <v>7948769.7638890008</v>
+        <v>8087640</v>
       </c>
     </row>
     <row r="1546" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31525,7 +31526,7 @@
         <v>21</v>
       </c>
       <c r="F1546" s="16">
-        <v>80422957.499179006</v>
+        <v>80432025</v>
       </c>
     </row>
     <row r="1547" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31545,7 +31546,7 @@
         <v>9</v>
       </c>
       <c r="F1547" s="16">
-        <v>48945604.158794001</v>
+        <v>48945604</v>
       </c>
     </row>
     <row r="1548" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31565,7 +31566,7 @@
         <v>24</v>
       </c>
       <c r="F1548" s="16">
-        <v>22819653.000004001</v>
+        <v>22819653</v>
       </c>
     </row>
     <row r="1549" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31585,7 +31586,7 @@
         <v>21</v>
       </c>
       <c r="F1549" s="16">
-        <v>251012098.10724902</v>
+        <v>252072662</v>
       </c>
     </row>
     <row r="1550" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31605,7 +31606,7 @@
         <v>9</v>
       </c>
       <c r="F1550" s="16">
-        <v>21373617.415332012</v>
+        <v>21722269</v>
       </c>
     </row>
     <row r="1551" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31645,7 +31646,7 @@
         <v>21</v>
       </c>
       <c r="F1552" s="16">
-        <v>29233997.122386999</v>
+        <v>29370838</v>
       </c>
     </row>
     <row r="1553" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31665,7 +31666,7 @@
         <v>9</v>
       </c>
       <c r="F1553" s="16">
-        <v>7101310.9535659999</v>
+        <v>7170673</v>
       </c>
     </row>
     <row r="1554" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31685,7 +31686,7 @@
         <v>21</v>
       </c>
       <c r="F1554" s="16">
-        <v>96086736.480445996</v>
+        <v>96086736</v>
       </c>
     </row>
     <row r="1555" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31705,7 +31706,7 @@
         <v>9</v>
       </c>
       <c r="F1555" s="16">
-        <v>60017600.286477</v>
+        <v>60017600</v>
       </c>
     </row>
     <row r="1556" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31725,7 +31726,7 @@
         <v>24</v>
       </c>
       <c r="F1556" s="16">
-        <v>18331999.000001002</v>
+        <v>18331999</v>
       </c>
     </row>
     <row r="1557" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31745,7 +31746,7 @@
         <v>21</v>
       </c>
       <c r="F1557" s="16">
-        <v>286036181.62191802</v>
+        <v>287307780</v>
       </c>
     </row>
     <row r="1558" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31765,7 +31766,7 @@
         <v>9</v>
       </c>
       <c r="F1558" s="16">
-        <v>24256082.439029001</v>
+        <v>24953213</v>
       </c>
     </row>
     <row r="1559" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31805,7 +31806,7 @@
         <v>21</v>
       </c>
       <c r="F1560" s="16">
-        <v>33473227.769627996</v>
+        <v>33661287</v>
       </c>
     </row>
     <row r="1561" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31825,7 +31826,7 @@
         <v>9</v>
       </c>
       <c r="F1561" s="16">
-        <v>8313486.0783000002</v>
+        <v>8398035</v>
       </c>
     </row>
     <row r="1562" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31845,7 +31846,7 @@
         <v>21</v>
       </c>
       <c r="F1562" s="16">
-        <v>91175997.241190001</v>
+        <v>91175997</v>
       </c>
     </row>
     <row r="1563" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31865,7 +31866,7 @@
         <v>9</v>
       </c>
       <c r="F1563" s="16">
-        <v>59298261.358796999</v>
+        <v>59300891</v>
       </c>
     </row>
     <row r="1564" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31885,7 +31886,7 @@
         <v>24</v>
       </c>
       <c r="F1564" s="16">
-        <v>25741411.000000998</v>
+        <v>25741411</v>
       </c>
     </row>
     <row r="1565" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31905,7 +31906,7 @@
         <v>21</v>
       </c>
       <c r="F1565" s="16">
-        <v>277824177.38695902</v>
+        <v>279009389</v>
       </c>
     </row>
     <row r="1566" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31925,7 +31926,7 @@
         <v>9</v>
       </c>
       <c r="F1566" s="16">
-        <v>23317913.083425008</v>
+        <v>23692480</v>
       </c>
     </row>
     <row r="1567" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31965,7 +31966,7 @@
         <v>21</v>
       </c>
       <c r="F1568" s="16">
-        <v>33449093.987249006</v>
+        <v>33648183</v>
       </c>
     </row>
     <row r="1569" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -31985,7 +31986,7 @@
         <v>9</v>
       </c>
       <c r="F1569" s="16">
-        <v>8171098.6849539988</v>
+        <v>8235092</v>
       </c>
     </row>
     <row r="1570" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32005,7 +32006,7 @@
         <v>21</v>
       </c>
       <c r="F1570" s="16">
-        <v>91697948.442388996</v>
+        <v>91697948</v>
       </c>
     </row>
     <row r="1571" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32025,7 +32026,7 @@
         <v>9</v>
       </c>
       <c r="F1571" s="16">
-        <v>59777532.522307001</v>
+        <v>59778435</v>
       </c>
     </row>
     <row r="1572" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32045,7 +32046,7 @@
         <v>24</v>
       </c>
       <c r="F1572" s="16">
-        <v>24071406.000003997</v>
+        <v>24071406</v>
       </c>
     </row>
     <row r="1573" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32065,7 +32066,7 @@
         <v>21</v>
       </c>
       <c r="F1573" s="16">
-        <v>288407504.522659</v>
+        <v>289646171</v>
       </c>
     </row>
     <row r="1574" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32085,7 +32086,7 @@
         <v>9</v>
       </c>
       <c r="F1574" s="16">
-        <v>24528784.669742003</v>
+        <v>24874080</v>
       </c>
     </row>
     <row r="1575" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32125,7 +32126,7 @@
         <v>21</v>
       </c>
       <c r="F1576" s="16">
-        <v>33864025.317262001</v>
+        <v>34230654</v>
       </c>
     </row>
     <row r="1577" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32145,7 +32146,7 @@
         <v>9</v>
       </c>
       <c r="F1577" s="16">
-        <v>8218677.5964570008</v>
+        <v>8478116</v>
       </c>
     </row>
     <row r="1578" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32165,7 +32166,7 @@
         <v>21</v>
       </c>
       <c r="F1578" s="16">
-        <v>85327891.117912993</v>
+        <v>85327891</v>
       </c>
     </row>
     <row r="1579" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32185,7 +32186,7 @@
         <v>9</v>
       </c>
       <c r="F1579" s="16">
-        <v>57894232.175337002</v>
+        <v>58111856</v>
       </c>
     </row>
     <row r="1580" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32205,7 +32206,7 @@
         <v>24</v>
       </c>
       <c r="F1580" s="16">
-        <v>22173626.000001002</v>
+        <v>22173626</v>
       </c>
     </row>
     <row r="1581" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32225,7 +32226,7 @@
         <v>21</v>
       </c>
       <c r="F1581" s="16">
-        <v>279260820.41181999</v>
+        <v>280476631</v>
       </c>
     </row>
     <row r="1582" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32245,7 +32246,7 @@
         <v>9</v>
       </c>
       <c r="F1582" s="16">
-        <v>23220069.555146996</v>
+        <v>23602016</v>
       </c>
     </row>
     <row r="1583" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32285,7 +32286,7 @@
         <v>21</v>
       </c>
       <c r="F1584" s="16">
-        <v>33421201.404501997</v>
+        <v>33856131</v>
       </c>
     </row>
     <row r="1585" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32305,7 +32306,7 @@
         <v>9</v>
       </c>
       <c r="F1585" s="16">
-        <v>8147676.689749999</v>
+        <v>8425215</v>
       </c>
     </row>
     <row r="1586" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32325,7 +32326,7 @@
         <v>21</v>
       </c>
       <c r="F1586" s="16">
-        <v>70680701.409061998</v>
+        <v>70680701</v>
       </c>
     </row>
     <row r="1587" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32345,7 +32346,7 @@
         <v>9</v>
       </c>
       <c r="F1587" s="16">
-        <v>47927088.439028002</v>
+        <v>47893677</v>
       </c>
     </row>
     <row r="1588" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32365,7 +32366,7 @@
         <v>24</v>
       </c>
       <c r="F1588" s="16">
-        <v>24792370.000002995</v>
+        <v>24792370</v>
       </c>
     </row>
     <row r="1589" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32385,7 +32386,7 @@
         <v>21</v>
       </c>
       <c r="F1589" s="16">
-        <v>270452507.82789296</v>
+        <v>271879228</v>
       </c>
     </row>
     <row r="1590" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32405,7 +32406,7 @@
         <v>9</v>
       </c>
       <c r="F1590" s="16">
-        <v>23067921.622776002</v>
+        <v>23397973</v>
       </c>
     </row>
     <row r="1591" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32445,7 +32446,7 @@
         <v>21</v>
       </c>
       <c r="F1592" s="16">
-        <v>34793198.149742</v>
+        <v>35198987</v>
       </c>
     </row>
     <row r="1593" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32465,7 +32466,7 @@
         <v>9</v>
       </c>
       <c r="F1593" s="16">
-        <v>8604922.1428950001</v>
+        <v>8848563</v>
       </c>
     </row>
     <row r="1594" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32485,7 +32486,7 @@
         <v>21</v>
       </c>
       <c r="F1594" s="16">
-        <v>94343171.644777998</v>
+        <v>94343172</v>
       </c>
     </row>
     <row r="1595" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32505,7 +32506,7 @@
         <v>9</v>
       </c>
       <c r="F1595" s="16">
-        <v>63865807.206754997</v>
+        <v>63811835</v>
       </c>
     </row>
     <row r="1596" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32525,7 +32526,7 @@
         <v>24</v>
       </c>
       <c r="F1596" s="16">
-        <v>27972988.999998</v>
+        <v>27972989</v>
       </c>
     </row>
     <row r="1597" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32545,7 +32546,7 @@
         <v>21</v>
       </c>
       <c r="F1597" s="16">
-        <v>274998254.74054599</v>
+        <v>276205034</v>
       </c>
     </row>
     <row r="1598" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32565,7 +32566,7 @@
         <v>9</v>
       </c>
       <c r="F1598" s="16">
-        <v>23500976.771649003</v>
+        <v>23785547</v>
       </c>
     </row>
     <row r="1599" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32605,7 +32606,7 @@
         <v>21</v>
       </c>
       <c r="F1600" s="16">
-        <v>35108181.130667999</v>
+        <v>35533866</v>
       </c>
     </row>
     <row r="1601" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32625,7 +32626,7 @@
         <v>9</v>
       </c>
       <c r="F1601" s="16">
-        <v>8740732.2503250018</v>
+        <v>8975865</v>
       </c>
     </row>
     <row r="1602" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32645,7 +32646,7 @@
         <v>21</v>
       </c>
       <c r="F1602" s="16">
-        <v>87753485.415756002</v>
+        <v>87753485</v>
       </c>
     </row>
     <row r="1603" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32665,7 +32666,7 @@
         <v>9</v>
       </c>
       <c r="F1603" s="16">
-        <v>57989749.061883993</v>
+        <v>57905625</v>
       </c>
     </row>
     <row r="1604" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32685,7 +32686,7 @@
         <v>24</v>
       </c>
       <c r="F1604" s="16">
-        <v>25445786.999998998</v>
+        <v>25445787</v>
       </c>
     </row>
     <row r="1605" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32705,7 +32706,7 @@
         <v>21</v>
       </c>
       <c r="F1605" s="16">
-        <v>275656388.27115691</v>
+        <v>277440601</v>
       </c>
     </row>
     <row r="1606" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32725,7 +32726,7 @@
         <v>9</v>
       </c>
       <c r="F1606" s="16">
-        <v>22821151.500941996</v>
+        <v>23293074</v>
       </c>
     </row>
     <row r="1607" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32765,7 +32766,7 @@
         <v>21</v>
       </c>
       <c r="F1608" s="16">
-        <v>34073186.453108996</v>
+        <v>34628942</v>
       </c>
     </row>
     <row r="1609" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32785,7 +32786,7 @@
         <v>9</v>
       </c>
       <c r="F1609" s="16">
-        <v>8408492.2016079966</v>
+        <v>8615410</v>
       </c>
     </row>
     <row r="1610" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32805,7 +32806,7 @@
         <v>21</v>
       </c>
       <c r="F1610" s="16">
-        <v>90462695.017148003</v>
+        <v>90462695</v>
       </c>
     </row>
     <row r="1611" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32825,7 +32826,7 @@
         <v>9</v>
       </c>
       <c r="F1611" s="16">
-        <v>59817658.275247999</v>
+        <v>59817658</v>
       </c>
     </row>
     <row r="1612" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32845,7 +32846,7 @@
         <v>24</v>
       </c>
       <c r="F1612" s="16">
-        <v>25341261.999994997</v>
+        <v>25341262</v>
       </c>
     </row>
     <row r="1613" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32865,7 +32866,7 @@
         <v>21</v>
       </c>
       <c r="F1613" s="16">
-        <v>284837456.1240871</v>
+        <v>286628007</v>
       </c>
     </row>
     <row r="1614" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32885,7 +32886,7 @@
         <v>9</v>
       </c>
       <c r="F1614" s="16">
-        <v>23351917.405486006</v>
+        <v>23997408</v>
       </c>
     </row>
     <row r="1615" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32925,7 +32926,7 @@
         <v>21</v>
       </c>
       <c r="F1616" s="16">
-        <v>35093845.562539995</v>
+        <v>36017430</v>
       </c>
     </row>
     <row r="1617" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32945,7 +32946,7 @@
         <v>9</v>
       </c>
       <c r="F1617" s="16">
-        <v>8858911.9508660007</v>
+        <v>9290157</v>
       </c>
     </row>
     <row r="1618" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32965,7 +32966,7 @@
         <v>21</v>
       </c>
       <c r="F1618" s="16">
-        <v>87543745.757183999</v>
+        <v>87463908</v>
       </c>
     </row>
     <row r="1619" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -32985,7 +32986,7 @@
         <v>9</v>
       </c>
       <c r="F1619" s="16">
-        <v>60488293.706193998</v>
+        <v>60488194</v>
       </c>
     </row>
     <row r="1620" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33005,7 +33006,7 @@
         <v>24</v>
       </c>
       <c r="F1620" s="16">
-        <v>21889815.000000004</v>
+        <v>21889815</v>
       </c>
     </row>
     <row r="1621" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33025,7 +33026,7 @@
         <v>21</v>
       </c>
       <c r="F1621" s="16">
-        <v>276417181.59279191</v>
+        <v>277664748</v>
       </c>
     </row>
     <row r="1622" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33045,7 +33046,7 @@
         <v>9</v>
       </c>
       <c r="F1622" s="16">
-        <v>23866900.309763003</v>
+        <v>24188577</v>
       </c>
     </row>
     <row r="1623" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33085,7 +33086,7 @@
         <v>21</v>
       </c>
       <c r="F1624" s="16">
-        <v>34049996.898405991</v>
+        <v>34959864</v>
       </c>
     </row>
     <row r="1625" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33105,7 +33106,7 @@
         <v>9</v>
       </c>
       <c r="F1625" s="16">
-        <v>8764450.5350459982</v>
+        <v>9281301</v>
       </c>
     </row>
     <row r="1626" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33125,7 +33126,7 @@
         <v>21</v>
       </c>
       <c r="F1626" s="16">
-        <v>91567079.215748996</v>
+        <v>91468239</v>
       </c>
     </row>
     <row r="1627" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33145,7 +33146,7 @@
         <v>9</v>
       </c>
       <c r="F1627" s="16">
-        <v>61678007.332892001</v>
+        <v>61679079</v>
       </c>
     </row>
     <row r="1628" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33165,7 +33166,7 @@
         <v>24</v>
       </c>
       <c r="F1628" s="16">
-        <v>23608716.999998</v>
+        <v>23608717</v>
       </c>
     </row>
     <row r="1629" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33185,7 +33186,7 @@
         <v>21</v>
       </c>
       <c r="F1629" s="16">
-        <v>282089988.63514608</v>
+        <v>283048890</v>
       </c>
     </row>
     <row r="1630" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33205,7 +33206,7 @@
         <v>9</v>
       </c>
       <c r="F1630" s="16">
-        <v>24429455.716355991</v>
+        <v>24730466</v>
       </c>
     </row>
     <row r="1631" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33245,7 +33246,7 @@
         <v>21</v>
       </c>
       <c r="F1632" s="16">
-        <v>34019416.631677002</v>
+        <v>34946210</v>
       </c>
     </row>
     <row r="1633" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33265,7 +33266,7 @@
         <v>9</v>
       </c>
       <c r="F1633" s="16">
-        <v>8824665.079055002</v>
+        <v>9366970</v>
       </c>
     </row>
     <row r="1634" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33285,7 +33286,7 @@
         <v>21</v>
       </c>
       <c r="F1634" s="16">
-        <v>89210458.061579004</v>
+        <v>89713803</v>
       </c>
     </row>
     <row r="1635" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33305,7 +33306,7 @@
         <v>9</v>
       </c>
       <c r="F1635" s="16">
-        <v>61257050.342917003</v>
+        <v>61749707</v>
       </c>
     </row>
     <row r="1636" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33345,7 +33346,7 @@
         <v>21</v>
       </c>
       <c r="F1637" s="16">
-        <v>280095749.93539</v>
+        <v>281133485</v>
       </c>
     </row>
     <row r="1638" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33365,7 +33366,7 @@
         <v>9</v>
       </c>
       <c r="F1638" s="16">
-        <v>23902517.003288999</v>
+        <v>24620516</v>
       </c>
     </row>
     <row r="1639" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33405,7 +33406,7 @@
         <v>21</v>
       </c>
       <c r="F1640" s="16">
-        <v>32745281.198390998</v>
+        <v>33543639</v>
       </c>
     </row>
     <row r="1641" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33425,7 +33426,7 @@
         <v>9</v>
       </c>
       <c r="F1641" s="16">
-        <v>8234993.0076710004</v>
+        <v>8629994</v>
       </c>
     </row>
     <row r="1642" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33445,7 +33446,7 @@
         <v>21</v>
       </c>
       <c r="F1642" s="16">
-        <v>82092950.752639994</v>
+        <v>82310703</v>
       </c>
     </row>
     <row r="1643" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33465,7 +33466,7 @@
         <v>9</v>
       </c>
       <c r="F1643" s="16">
-        <v>56904165.108043998</v>
+        <v>57003495</v>
       </c>
     </row>
     <row r="1644" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33485,7 +33486,7 @@
         <v>24</v>
       </c>
       <c r="F1644" s="16">
-        <v>19523630.999999002</v>
+        <v>19523631</v>
       </c>
     </row>
     <row r="1645" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33505,7 +33506,7 @@
         <v>21</v>
       </c>
       <c r="F1645" s="16">
-        <v>259522655.15234804</v>
+        <v>260614734</v>
       </c>
     </row>
     <row r="1646" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33525,7 +33526,7 @@
         <v>9</v>
       </c>
       <c r="F1646" s="16">
-        <v>22825847.959672</v>
+        <v>23318508</v>
       </c>
     </row>
     <row r="1647" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33565,7 +33566,7 @@
         <v>21</v>
       </c>
       <c r="F1648" s="16">
-        <v>30710365.160539009</v>
+        <v>31643647</v>
       </c>
     </row>
     <row r="1649" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33585,7 +33586,7 @@
         <v>9</v>
       </c>
       <c r="F1649" s="16">
-        <v>7686536.2587750014</v>
+        <v>8171791</v>
       </c>
     </row>
     <row r="1650" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33605,7 +33606,7 @@
         <v>21</v>
       </c>
       <c r="F1650" s="16">
-        <v>88462189.512381002</v>
+        <v>88666821</v>
       </c>
     </row>
     <row r="1651" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33625,7 +33626,7 @@
         <v>9</v>
       </c>
       <c r="F1651" s="16">
-        <v>59043070.073572993</v>
+        <v>59400668</v>
       </c>
     </row>
     <row r="1652" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33645,7 +33646,7 @@
         <v>24</v>
       </c>
       <c r="F1652" s="16">
-        <v>19660407</v>
+        <v>19661724</v>
       </c>
     </row>
     <row r="1653" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33665,7 +33666,7 @@
         <v>21</v>
       </c>
       <c r="F1653" s="16">
-        <v>271154987.87738806</v>
+        <v>274575159</v>
       </c>
     </row>
     <row r="1654" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33685,7 +33686,7 @@
         <v>9</v>
       </c>
       <c r="F1654" s="16">
-        <v>23930882.055725008</v>
+        <v>24948631</v>
       </c>
     </row>
     <row r="1655" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33725,7 +33726,7 @@
         <v>21</v>
       </c>
       <c r="F1656" s="16">
-        <v>32490919.281913005</v>
+        <v>33608793</v>
       </c>
     </row>
     <row r="1657" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -33745,7 +33746,167 @@
         <v>9</v>
       </c>
       <c r="F1657" s="16">
-        <v>7915564.2564160004</v>
+        <v>8531493</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1658" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1658">
+        <v>2020</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1658" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1658" s="19">
+        <v>80963364</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1659" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1659">
+        <v>2020</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1659" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1659" s="19">
+        <v>55783091</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1660" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1660">
+        <v>2020</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1660" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1660" s="19">
+        <v>16640682</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1661" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1661">
+        <v>2020</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1661" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1661" s="19">
+        <v>246780402</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1662" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1662">
+        <v>2020</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1662" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1662" s="19">
+        <v>20578472</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1663" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1663">
+        <v>2020</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1663" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1663" s="19">
+        <v>582654</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1664" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1664">
+        <v>2020</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1664" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1664" s="19">
+        <v>29717890</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1665" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1665">
+        <v>2020</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1665" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1665" s="19">
+        <v>6909328</v>
       </c>
     </row>
   </sheetData>
